--- a/country_centroids_all2.xlsx
+++ b/country_centroids_all2.xlsx
@@ -905,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F258"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B246" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G2:G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -958,12 +958,12 @@
         <v>1.86473973700076</v>
       </c>
       <c r="F2" s="0" t="n">
-        <f aca="false">1820-((B2+90)*1820/180)</f>
-        <v>576.333333333333</v>
+        <f aca="false">1075-((B2+80)*1075/180)</f>
+        <v>400.138888888889</v>
       </c>
       <c r="G2" s="0" t="n">
-        <f aca="false">(C2+180)*3900/360</f>
-        <v>2665</v>
+        <f aca="false">(C2+170)*2000/360</f>
+        <v>1311.11111111111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,12 +985,12 @@
         <v>1.97019927081486</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">1820-((B3+90)*1820/180)</f>
-        <v>495.444444444444</v>
+        <f aca="false">1075-((B3+80)*1075/180)</f>
+        <v>352.361111111111</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">(C3+180)*3900/360</f>
-        <v>2166.66666666667</v>
+        <f aca="false">(C3+170)*2000/360</f>
+        <v>1055.55555555556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,12 +1012,12 @@
         <v>1.99967294751352</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">1820-((B4+90)*1820/180)</f>
-        <v>626.888888888889</v>
+        <f aca="false">1075-((B4+80)*1075/180)</f>
+        <v>430</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">(C4+180)*3900/360</f>
-        <v>1982.5</v>
+        <f aca="false">(C4+170)*2000/360</f>
+        <v>961.111111111111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,12 +1039,12 @@
         <v>1.99905660992572</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">1820-((B5+90)*1820/180)</f>
-        <v>1054.92592558889</v>
+        <f aca="false">1075-((B5+80)*1075/180)</f>
+        <v>682.824073875</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">(C5+180)*3900/360</f>
-        <v>108.333333333333</v>
+        <f aca="false">(C5+170)*2000/360</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,12 +1066,12 @@
         <v>1.99981149321553</v>
       </c>
       <c r="F6" s="0" t="n">
-        <f aca="false">1820-((B6+90)*1820/180)</f>
-        <v>480.277777777778</v>
+        <f aca="false">1075-((B6+80)*1075/180)</f>
+        <v>343.402777777778</v>
       </c>
       <c r="G6" s="0" t="n">
-        <f aca="false">(C6+180)*3900/360</f>
-        <v>1966.25</v>
+        <f aca="false">(C6+170)*2000/360</f>
+        <v>952.777777777778</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,12 +1093,12 @@
         <v>1.99760489687862</v>
       </c>
       <c r="F7" s="0" t="n">
-        <f aca="false">1820-((B7+90)*1820/180)</f>
-        <v>1036.38888888889</v>
+        <f aca="false">1075-((B7+80)*1075/180)</f>
+        <v>671.875</v>
       </c>
       <c r="G7" s="0" t="n">
-        <f aca="false">(C7+180)*3900/360</f>
-        <v>2150.41666666667</v>
+        <f aca="false">(C7+170)*2000/360</f>
+        <v>1047.22222222222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,12 +1120,12 @@
         <v>1.96010658565437</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">1820-((B8+90)*1820/180)</f>
-        <v>725.809255888889</v>
+        <f aca="false">1075-((B8+80)*1075/180)</f>
+        <v>488.42823875</v>
       </c>
       <c r="G8" s="0" t="n">
-        <f aca="false">(C8+180)*3900/360</f>
-        <v>1266.95833333333</v>
+        <f aca="false">(C8+170)*2000/360</f>
+        <v>594.166666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,12 +1147,12 @@
         <v>1.96580726554379</v>
       </c>
       <c r="F9" s="0" t="n">
-        <f aca="false">1820-((B9+90)*1820/180)</f>
-        <v>737.605555555556</v>
+        <f aca="false">1075-((B9+80)*1075/180)</f>
+        <v>495.395833333333</v>
       </c>
       <c r="G9" s="0" t="n">
-        <f aca="false">(C9+180)*3900/360</f>
-        <v>1280.5</v>
+        <f aca="false">(C9+170)*2000/360</f>
+        <v>601.111111111111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,12 +1174,12 @@
         <v>1.86110609052043</v>
       </c>
       <c r="F10" s="0" t="n">
-        <f aca="false">1820-((B10+90)*1820/180)</f>
-        <v>1253.77777777778</v>
+        <f aca="false">1075-((B10+80)*1075/180)</f>
+        <v>800.277777777778</v>
       </c>
       <c r="G10" s="0" t="n">
-        <f aca="false">(C10+180)*3900/360</f>
-        <v>1256.66666666667</v>
+        <f aca="false">(C10+170)*2000/360</f>
+        <v>588.888888888889</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,12 +1201,12 @@
         <v>1.88060746632399</v>
       </c>
       <c r="F11" s="0" t="n">
-        <f aca="false">1820-((B11+90)*1820/180)</f>
-        <v>505.555555555556</v>
+        <f aca="false">1075-((B11+80)*1075/180)</f>
+        <v>358.333333333333</v>
       </c>
       <c r="G11" s="0" t="n">
-        <f aca="false">(C11+180)*3900/360</f>
-        <v>2437.5</v>
+        <f aca="false">(C11+170)*2000/360</f>
+        <v>1194.44444444444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,12 +1228,12 @@
         <v>1.97906796984439</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">1820-((B12+90)*1820/180)</f>
-        <v>783.611111111111</v>
+        <f aca="false">1075-((B12+80)*1075/180)</f>
+        <v>522.569444444444</v>
       </c>
       <c r="G12" s="0" t="n">
-        <f aca="false">(C12+180)*3900/360</f>
-        <v>1192.02777416667</v>
+        <f aca="false">(C12+170)*2000/360</f>
+        <v>555.740738888889</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,12 +1255,12 @@
         <v>1.99961780088151</v>
       </c>
       <c r="F13" s="0" t="n">
-        <f aca="false">1820-((B13+90)*1820/180)</f>
-        <v>1071.27222222222</v>
+        <f aca="false">1075-((B13+80)*1075/180)</f>
+        <v>692.479166666667</v>
       </c>
       <c r="G13" s="0" t="n">
-        <f aca="false">(C13+180)*3900/360</f>
-        <v>1888.25</v>
+        <f aca="false">(C13+170)*2000/360</f>
+        <v>912.777777777778</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,12 +1282,12 @@
         <v>1.983653368319</v>
       </c>
       <c r="F14" s="0" t="n">
-        <f aca="false">1820-((B14+90)*1820/180)</f>
-        <v>1035.54629966667</v>
+        <f aca="false">1075-((B14+80)*1075/180)</f>
+        <v>671.377316805556</v>
       </c>
       <c r="G14" s="0" t="n">
-        <f aca="false">(C14+180)*3900/360</f>
-        <v>3286.1111075</v>
+        <f aca="false">(C14+170)*2000/360</f>
+        <v>1629.62962777778</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,12 +1309,12 @@
         <v>1.95277990281253</v>
       </c>
       <c r="F15" s="0" t="n">
-        <f aca="false">1820-((B15+90)*1820/180)</f>
-        <v>1162.77777777778</v>
+        <f aca="false">1075-((B15+80)*1075/180)</f>
+        <v>746.527777777778</v>
       </c>
       <c r="G15" s="0" t="n">
-        <f aca="false">(C15+180)*3900/360</f>
-        <v>3412.5</v>
+        <f aca="false">(C15+170)*2000/360</f>
+        <v>1694.44444444444</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,12 +1336,12 @@
         <v>1.98190647205815</v>
       </c>
       <c r="F16" s="0" t="n">
-        <f aca="false">1820-((B16+90)*1820/180)</f>
-        <v>431.407410777778</v>
+        <f aca="false">1075-((B16+80)*1075/180)</f>
+        <v>314.537039027778</v>
       </c>
       <c r="G16" s="0" t="n">
-        <f aca="false">(C16+180)*3900/360</f>
-        <v>2094.44444083333</v>
+        <f aca="false">(C16+170)*2000/360</f>
+        <v>1018.51851666667</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,12 +1363,12 @@
         <v>1.86724687534658</v>
       </c>
       <c r="F17" s="0" t="n">
-        <f aca="false">1820-((B17+90)*1820/180)</f>
-        <v>500.5</v>
+        <f aca="false">1075-((B17+80)*1075/180)</f>
+        <v>355.347222222222</v>
       </c>
       <c r="G17" s="0" t="n">
-        <f aca="false">(C17+180)*3900/360</f>
-        <v>2464.58333333333</v>
+        <f aca="false">(C17+170)*2000/360</f>
+        <v>1208.33333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,12 +1390,12 @@
         <v>1.91853543186283</v>
       </c>
       <c r="F18" s="0" t="n">
-        <f aca="false">1820-((B18+90)*1820/180)</f>
-        <v>667.333333333333</v>
+        <f aca="false">1075-((B18+80)*1075/180)</f>
+        <v>453.888888888889</v>
       </c>
       <c r="G18" s="0" t="n">
-        <f aca="false">(C18+180)*3900/360</f>
-        <v>1126.66666666667</v>
+        <f aca="false">(C18+170)*2000/360</f>
+        <v>522.222222222222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,12 +1417,12 @@
         <v>1.93932053734366</v>
       </c>
       <c r="F19" s="0" t="n">
-        <f aca="false">1820-((B19+90)*1820/180)</f>
-        <v>647.111111111111</v>
+        <f aca="false">1075-((B19+80)*1075/180)</f>
+        <v>441.944444444444</v>
       </c>
       <c r="G19" s="0" t="n">
-        <f aca="false">(C19+180)*3900/360</f>
-        <v>2497.08333333333</v>
+        <f aca="false">(C19+170)*2000/360</f>
+        <v>1225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,12 +1444,12 @@
         <v>1.9135454576426</v>
       </c>
       <c r="F20" s="0" t="n">
-        <f aca="false">1820-((B20+90)*1820/180)</f>
-        <v>667.333333333333</v>
+        <f aca="false">1075-((B20+80)*1075/180)</f>
+        <v>453.888888888889</v>
       </c>
       <c r="G20" s="0" t="n">
-        <f aca="false">(C20+180)*3900/360</f>
-        <v>2925</v>
+        <f aca="false">(C20+170)*2000/360</f>
+        <v>1444.44444444444</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,12 +1471,12 @@
         <v>1.98044785782211</v>
       </c>
       <c r="F21" s="0" t="n">
-        <f aca="false">1820-((B21+90)*1820/180)</f>
-        <v>776.870367</v>
+        <f aca="false">1075-((B21+80)*1075/180)</f>
+        <v>518.587960972222</v>
       </c>
       <c r="G21" s="0" t="n">
-        <f aca="false">(C21+180)*3900/360</f>
-        <v>1305.05555916667</v>
+        <f aca="false">(C21+170)*2000/360</f>
+        <v>613.703705555556</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,12 +1498,12 @@
         <v>1.97163058690053</v>
       </c>
       <c r="F22" s="0" t="n">
-        <f aca="false">1820-((B22+90)*1820/180)</f>
-        <v>1126.54629966667</v>
+        <f aca="false">1075-((B22+80)*1075/180)</f>
+        <v>725.127316805556</v>
       </c>
       <c r="G22" s="0" t="n">
-        <f aca="false">(C22+180)*3900/360</f>
-        <v>2380.08333333333</v>
+        <f aca="false">(C22+170)*2000/360</f>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,12 +1525,12 @@
         <v>1.90717629450032</v>
       </c>
       <c r="F23" s="0" t="n">
-        <f aca="false">1820-((B23+90)*1820/180)</f>
-        <v>374.111111111111</v>
+        <f aca="false">1075-((B23+80)*1075/180)</f>
+        <v>280.694444444444</v>
       </c>
       <c r="G23" s="0" t="n">
-        <f aca="false">(C23+180)*3900/360</f>
-        <v>2253.33333333333</v>
+        <f aca="false">(C23+170)*2000/360</f>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,12 +1552,12 @@
         <v>1.99808551342673</v>
       </c>
       <c r="F24" s="0" t="n">
-        <f aca="false">1820-((B24+90)*1820/180)</f>
-        <v>396.018521888889</v>
+        <f aca="false">1075-((B24+80)*1075/180)</f>
+        <v>293.63426125</v>
       </c>
       <c r="G24" s="0" t="n">
-        <f aca="false">(C24+180)*3900/360</f>
-        <v>1993.33333333333</v>
+        <f aca="false">(C24+170)*2000/360</f>
+        <v>966.666666666667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,12 +1579,12 @@
         <v>1.95504118812438</v>
       </c>
       <c r="F25" s="0" t="n">
-        <f aca="false">1820-((B25+90)*1820/180)</f>
-        <v>735.583333333333</v>
+        <f aca="false">1075-((B25+80)*1075/180)</f>
+        <v>494.201388888889</v>
       </c>
       <c r="G25" s="0" t="n">
-        <f aca="false">(C25+180)*3900/360</f>
-        <v>988.541666666667</v>
+        <f aca="false">(C25+170)*2000/360</f>
+        <v>451.388888888889</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,12 +1606,12 @@
         <v>1.9999788131237</v>
       </c>
       <c r="F26" s="0" t="n">
-        <f aca="false">1820-((B26+90)*1820/180)</f>
-        <v>813.944444444445</v>
+        <f aca="false">1075-((B26+80)*1075/180)</f>
+        <v>540.486111111111</v>
       </c>
       <c r="G26" s="0" t="n">
-        <f aca="false">(C26+180)*3900/360</f>
-        <v>1974.375</v>
+        <f aca="false">(C26+170)*2000/360</f>
+        <v>956.944444444444</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,12 +1633,12 @@
         <v>1.87254674936515</v>
       </c>
       <c r="F27" s="0" t="n">
-        <f aca="false">1820-((B27+90)*1820/180)</f>
-        <v>583.074077444444</v>
+        <f aca="false">1075-((B27+80)*1075/180)</f>
+        <v>404.120372361111</v>
       </c>
       <c r="G27" s="0" t="n">
-        <f aca="false">(C27+180)*3900/360</f>
-        <v>1248.54166666667</v>
+        <f aca="false">(C27+170)*2000/360</f>
+        <v>584.722222222222</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,12 +1660,12 @@
         <v>1.887019271771</v>
       </c>
       <c r="F28" s="0" t="n">
-        <f aca="false">1820-((B28+90)*1820/180)</f>
-        <v>631.944444444444</v>
+        <f aca="false">1075-((B28+80)*1075/180)</f>
+        <v>432.986111111111</v>
       </c>
       <c r="G28" s="0" t="n">
-        <f aca="false">(C28+180)*3900/360</f>
-        <v>2930.41666666667</v>
+        <f aca="false">(C28+170)*2000/360</f>
+        <v>1447.22222222222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,12 +1687,12 @@
         <v>1.96406187571347</v>
       </c>
       <c r="F29" s="0" t="n">
-        <f aca="false">1820-((B29+90)*1820/180)</f>
-        <v>1081.88888888889</v>
+        <f aca="false">1075-((B29+80)*1075/180)</f>
+        <v>698.75</v>
       </c>
       <c r="G29" s="0" t="n">
-        <f aca="false">(C29+180)*3900/360</f>
-        <v>1245.83333333333</v>
+        <f aca="false">(C29+170)*2000/360</f>
+        <v>583.333333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,12 +1714,12 @@
         <v>1.98050686376849</v>
       </c>
       <c r="F30" s="0" t="n">
-        <f aca="false">1820-((B30+90)*1820/180)</f>
-        <v>786.644444444444</v>
+        <f aca="false">1075-((B30+80)*1075/180)</f>
+        <v>524.361111111111</v>
       </c>
       <c r="G30" s="0" t="n">
-        <f aca="false">(C30+180)*3900/360</f>
-        <v>1210.625</v>
+        <f aca="false">(C30+170)*2000/360</f>
+        <v>565.277777777778</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,12 +1741,12 @@
         <v>1.97215959039011</v>
       </c>
       <c r="F31" s="0" t="n">
-        <f aca="false">1820-((B31+90)*1820/180)</f>
-        <v>462.583333333333</v>
+        <f aca="false">1075-((B31+80)*1075/180)</f>
+        <v>332.951388888889</v>
       </c>
       <c r="G31" s="0" t="n">
-        <f aca="false">(C31+180)*3900/360</f>
-        <v>2143.19444083333</v>
+        <f aca="false">(C31+170)*2000/360</f>
+        <v>1043.51851666667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,12 +1768,12 @@
         <v>1.98782934959506</v>
       </c>
       <c r="F32" s="0" t="n">
-        <f aca="false">1820-((B32+90)*1820/180)</f>
-        <v>1132.44444444444</v>
+        <f aca="false">1075-((B32+80)*1075/180)</f>
+        <v>728.611111111111</v>
       </c>
       <c r="G32" s="0" t="n">
-        <f aca="false">(C32+180)*3900/360</f>
-        <v>2210</v>
+        <f aca="false">(C32+170)*2000/360</f>
+        <v>1077.77777777778</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,12 +1795,12 @@
         <v>1.99841312602805</v>
       </c>
       <c r="F33" s="0" t="n">
-        <f aca="false">1820-((B33+90)*1820/180)</f>
-        <v>1460.38147811111</v>
+        <f aca="false">1075-((B33+80)*1075/180)</f>
+        <v>922.310183194444</v>
       </c>
       <c r="G33" s="0" t="n">
-        <f aca="false">(C33+180)*3900/360</f>
-        <v>1986.83333333333</v>
+        <f aca="false">(C33+170)*2000/360</f>
+        <v>963.333333333333</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,12 +1822,12 @@
         <v>1.98979732860711</v>
       </c>
       <c r="F34" s="0" t="n">
-        <f aca="false">1820-((B34+90)*1820/180)</f>
-        <v>1011.11111111111</v>
+        <f aca="false">1075-((B34+80)*1075/180)</f>
+        <v>656.944444444444</v>
       </c>
       <c r="G34" s="0" t="n">
-        <f aca="false">(C34+180)*3900/360</f>
-        <v>1354.16666666667</v>
+        <f aca="false">(C34+170)*2000/360</f>
+        <v>638.888888888889</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,12 +1849,12 @@
         <v>1.99504457531996</v>
       </c>
       <c r="F35" s="0" t="n">
-        <f aca="false">1820-((B35+90)*1820/180)</f>
-        <v>970.666666666667</v>
+        <f aca="false">1075-((B35+80)*1075/180)</f>
+        <v>633.055555555556</v>
       </c>
       <c r="G35" s="0" t="n">
-        <f aca="false">(C35+180)*3900/360</f>
-        <v>2730</v>
+        <f aca="false">(C35+170)*2000/360</f>
+        <v>1344.44444444444</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,12 +1876,12 @@
         <v>1.95783338877928</v>
       </c>
       <c r="F36" s="0" t="n">
-        <f aca="false">1820-((B36+90)*1820/180)</f>
-        <v>722.944444444444</v>
+        <f aca="false">1075-((B36+80)*1075/180)</f>
+        <v>486.736111111111</v>
       </c>
       <c r="G36" s="0" t="n">
-        <f aca="false">(C36+180)*3900/360</f>
-        <v>1251.25</v>
+        <f aca="false">(C36+170)*2000/360</f>
+        <v>586.111111111111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,12 +1903,12 @@
         <v>1.99745401804524</v>
       </c>
       <c r="F37" s="0" t="n">
-        <f aca="false">1820-((B37+90)*1820/180)</f>
-        <v>864.5</v>
+        <f aca="false">1075-((B37+80)*1075/180)</f>
+        <v>570.347222222222</v>
       </c>
       <c r="G37" s="0" t="n">
-        <f aca="false">(C37+180)*3900/360</f>
-        <v>3192.22222583333</v>
+        <f aca="false">(C37+170)*2000/360</f>
+        <v>1581.48148333333</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,12 +1930,12 @@
         <v>1.95012138802701</v>
       </c>
       <c r="F38" s="0" t="n">
-        <f aca="false">1820-((B38+90)*1820/180)</f>
-        <v>475.222222222222</v>
+        <f aca="false">1075-((B38+80)*1075/180)</f>
+        <v>340.416666666667</v>
       </c>
       <c r="G38" s="0" t="n">
-        <f aca="false">(C38+180)*3900/360</f>
-        <v>2220.83333333333</v>
+        <f aca="false">(C38+170)*2000/360</f>
+        <v>1083.33333333333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,12 +1957,12 @@
         <v>1.9999686492812</v>
       </c>
       <c r="F39" s="0" t="n">
-        <f aca="false">1820-((B39+90)*1820/180)</f>
-        <v>778.555555555556</v>
+        <f aca="false">1075-((B39+80)*1075/180)</f>
+        <v>519.583333333333</v>
       </c>
       <c r="G39" s="0" t="n">
-        <f aca="false">(C39+180)*3900/360</f>
-        <v>1928.33333333333</v>
+        <f aca="false">(C39+170)*2000/360</f>
+        <v>933.333333333333</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,12 +1984,12 @@
         <v>1.9285772053189</v>
       </c>
       <c r="F40" s="0" t="n">
-        <f aca="false">1820-((B40+90)*1820/180)</f>
-        <v>687.555555555556</v>
+        <f aca="false">1075-((B40+80)*1075/180)</f>
+        <v>465.833333333333</v>
       </c>
       <c r="G40" s="0" t="n">
-        <f aca="false">(C40+180)*3900/360</f>
-        <v>3011.66666666667</v>
+        <f aca="false">(C40+170)*2000/360</f>
+        <v>1488.88888888889</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,12 +2011,12 @@
         <v>1.99953359083671</v>
       </c>
       <c r="F41" s="0" t="n">
-        <f aca="false">1820-((B41+90)*1820/180)</f>
-        <v>945.388888888889</v>
+        <f aca="false">1075-((B41+80)*1075/180)</f>
+        <v>618.125</v>
       </c>
       <c r="G41" s="0" t="n">
-        <f aca="false">(C41+180)*3900/360</f>
-        <v>2275</v>
+        <f aca="false">(C41+170)*2000/360</f>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,12 +2038,12 @@
         <v>1.97608006612893</v>
       </c>
       <c r="F42" s="0" t="n">
-        <f aca="false">1820-((B42+90)*1820/180)</f>
-        <v>778.555555555556</v>
+        <f aca="false">1075-((B42+80)*1075/180)</f>
+        <v>519.583333333333</v>
       </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">(C42+180)*3900/360</f>
-        <v>3087.5</v>
+        <f aca="false">(C42+170)*2000/360</f>
+        <v>1527.77777777778</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,12 +2065,12 @@
         <v>1.99976298932634</v>
       </c>
       <c r="F43" s="0" t="n">
-        <f aca="false">1820-((B43+90)*1820/180)</f>
-        <v>849.333333333333</v>
+        <f aca="false">1075-((B43+80)*1075/180)</f>
+        <v>561.388888888889</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">(C43+180)*3900/360</f>
-        <v>2080</v>
+        <f aca="false">(C43+170)*2000/360</f>
+        <v>1011.11111111111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,12 +2092,12 @@
         <v>1.50495983681182</v>
       </c>
       <c r="F44" s="0" t="n">
-        <f aca="false">1820-((B44+90)*1820/180)</f>
-        <v>303.333333333333</v>
+        <f aca="false">1075-((B44+80)*1075/180)</f>
+        <v>238.888888888889</v>
       </c>
       <c r="G44" s="0" t="n">
-        <f aca="false">(C44+180)*3900/360</f>
-        <v>910</v>
+        <f aca="false">(C44+170)*2000/360</f>
+        <v>411.111111111111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,12 +2119,12 @@
         <v>1.99355646259475</v>
       </c>
       <c r="F45" s="0" t="n">
-        <f aca="false">1820-((B45+90)*1820/180)</f>
-        <v>748.222222222222</v>
+        <f aca="false">1075-((B45+80)*1075/180)</f>
+        <v>501.666666666667</v>
       </c>
       <c r="G45" s="0" t="n">
-        <f aca="false">(C45+180)*3900/360</f>
-        <v>1690</v>
+        <f aca="false">(C45+170)*2000/360</f>
+        <v>811.111111111111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,12 +2146,12 @@
         <v>1.94413590807409</v>
       </c>
       <c r="F46" s="0" t="n">
-        <f aca="false">1820-((B46+90)*1820/180)</f>
-        <v>712.833333333333</v>
+        <f aca="false">1075-((B46+80)*1075/180)</f>
+        <v>480.763888888889</v>
       </c>
       <c r="G46" s="0" t="n">
-        <f aca="false">(C46+180)*3900/360</f>
-        <v>1076.1111075</v>
+        <f aca="false">(C46+170)*2000/360</f>
+        <v>496.296294444444</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,12 +2173,12 @@
         <v>1.99904168173505</v>
       </c>
       <c r="F47" s="0" t="n">
-        <f aca="false">1820-((B47+90)*1820/180)</f>
-        <v>839.222222222222</v>
+        <f aca="false">1075-((B47+80)*1075/180)</f>
+        <v>555.416666666667</v>
       </c>
       <c r="G47" s="0" t="n">
-        <f aca="false">(C47+180)*3900/360</f>
-        <v>2177.5</v>
+        <f aca="false">(C47+170)*2000/360</f>
+        <v>1061.11111111111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,12 +2200,12 @@
         <v>1.99636982002564</v>
       </c>
       <c r="F48" s="0" t="n">
-        <f aca="false">1820-((B48+90)*1820/180)</f>
-        <v>758.333333333333</v>
+        <f aca="false">1075-((B48+80)*1075/180)</f>
+        <v>507.638888888889</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">(C48+180)*3900/360</f>
-        <v>2155.83333333333</v>
+        <f aca="false">(C48+170)*2000/360</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,12 +2227,12 @@
         <v>1.879934330209</v>
       </c>
       <c r="F49" s="0" t="n">
-        <f aca="false">1820-((B49+90)*1820/180)</f>
-        <v>1213.33333333333</v>
+        <f aca="false">1075-((B49+80)*1075/180)</f>
+        <v>776.388888888889</v>
       </c>
       <c r="G49" s="0" t="n">
-        <f aca="false">(C49+180)*3900/360</f>
-        <v>1180.83333333333</v>
+        <f aca="false">(C49+170)*2000/360</f>
+        <v>550</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,12 +2254,12 @@
         <v>1.83091257626848</v>
       </c>
       <c r="F50" s="0" t="n">
-        <f aca="false">1820-((B50+90)*1820/180)</f>
-        <v>556.111111111111</v>
+        <f aca="false">1075-((B50+80)*1075/180)</f>
+        <v>388.194444444444</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">(C50+180)*3900/360</f>
-        <v>3087.5</v>
+        <f aca="false">(C50+170)*2000/360</f>
+        <v>1527.77777777778</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,12 +2281,12 @@
         <v>1.98447281930931</v>
       </c>
       <c r="F51" s="0" t="n">
-        <f aca="false">1820-((B51+90)*1820/180)</f>
-        <v>1016.16666666667</v>
+        <f aca="false">1075-((B51+80)*1075/180)</f>
+        <v>659.930555555556</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">(C51+180)*3900/360</f>
-        <v>3094.72222583333</v>
+        <f aca="false">(C51+170)*2000/360</f>
+        <v>1531.48148333333</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,12 +2308,12 @@
         <v>1.98567300939194</v>
       </c>
       <c r="F52" s="0" t="n">
-        <f aca="false">1820-((B52+90)*1820/180)</f>
-        <v>806.024077444445</v>
+        <f aca="false">1075-((B52+80)*1075/180)</f>
+        <v>535.807872361111</v>
       </c>
       <c r="G52" s="0" t="n">
-        <f aca="false">(C52+180)*3900/360</f>
-        <v>766.819440833333</v>
+        <f aca="false">(C52+170)*2000/360</f>
+        <v>337.685183333333</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,12 +2335,12 @@
         <v>1.97845584135429</v>
       </c>
       <c r="F53" s="0" t="n">
-        <f aca="false">1820-((B53+90)*1820/180)</f>
-        <v>1031.33333333333</v>
+        <f aca="false">1075-((B53+80)*1075/180)</f>
+        <v>668.888888888889</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">(C53+180)*3900/360</f>
-        <v>2999.02777416667</v>
+        <f aca="false">(C53+170)*2000/360</f>
+        <v>1482.40740555556</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,12 +2362,12 @@
         <v>1.99779657729769</v>
       </c>
       <c r="F54" s="0" t="n">
-        <f aca="false">1820-((B54+90)*1820/180)</f>
-        <v>869.555555555556</v>
+        <f aca="false">1075-((B54+80)*1075/180)</f>
+        <v>573.333333333333</v>
       </c>
       <c r="G54" s="0" t="n">
-        <f aca="false">(C54+180)*3900/360</f>
-        <v>1170</v>
+        <f aca="false">(C54+170)*2000/360</f>
+        <v>544.444444444444</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,12 +2389,12 @@
         <v>1.98904220206368</v>
       </c>
       <c r="F55" s="0" t="n">
-        <f aca="false">1820-((B55+90)*1820/180)</f>
-        <v>1033.01852188889</v>
+        <f aca="false">1075-((B55+80)*1075/180)</f>
+        <v>669.88426125</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">(C55+180)*3900/360</f>
-        <v>2429.375</v>
+        <f aca="false">(C55+170)*2000/360</f>
+        <v>1190.27777777778</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,12 +2416,12 @@
         <v>1.99607029169061</v>
       </c>
       <c r="F56" s="0" t="n">
-        <f aca="false">1820-((B56+90)*1820/180)</f>
-        <v>1072.620367</v>
+        <f aca="false">1075-((B56+80)*1075/180)</f>
+        <v>693.275460972222</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">(C56+180)*3900/360</f>
-        <v>199.5138925</v>
+        <f aca="false">(C56+170)*2000/360</f>
+        <v>46.7592611111111</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,12 +2443,12 @@
         <v>1.98905666746627</v>
       </c>
       <c r="F57" s="0" t="n">
-        <f aca="false">1820-((B57+90)*1820/180)</f>
-        <v>1086.94444444444</v>
+        <f aca="false">1075-((B57+80)*1075/180)</f>
+        <v>701.736111111111</v>
       </c>
       <c r="G57" s="0" t="n">
-        <f aca="false">(C57+180)*3900/360</f>
-        <v>3585.83333333333</v>
+        <f aca="false">(C57+170)*2000/360</f>
+        <v>1783.33333333333</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,12 +2470,12 @@
         <v>1.98497332955229</v>
       </c>
       <c r="F58" s="0" t="n">
-        <f aca="false">1820-((B58+90)*1820/180)</f>
-        <v>808.888888888889</v>
+        <f aca="false">1075-((B58+80)*1075/180)</f>
+        <v>537.5</v>
       </c>
       <c r="G58" s="0" t="n">
-        <f aca="false">(C58+180)*3900/360</f>
-        <v>1040</v>
+        <f aca="false">(C58+170)*2000/360</f>
+        <v>477.777777777778</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,12 +2497,12 @@
         <v>1.99992595574453</v>
       </c>
       <c r="F59" s="0" t="n">
-        <f aca="false">1820-((B59+90)*1820/180)</f>
-        <v>829.111111111111</v>
+        <f aca="false">1075-((B59+80)*1075/180)</f>
+        <v>549.444444444444</v>
       </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">(C59+180)*3900/360</f>
-        <v>1895.83333333333</v>
+        <f aca="false">(C59+170)*2000/360</f>
+        <v>916.666666666667</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,12 +2524,12 @@
         <v>1.97789188523256</v>
       </c>
       <c r="F60" s="0" t="n">
-        <f aca="false">1820-((B60+90)*1820/180)</f>
-        <v>453.314811444445</v>
+        <f aca="false">1075-((B60+80)*1075/180)</f>
+        <v>327.476849861111</v>
       </c>
       <c r="G60" s="0" t="n">
-        <f aca="false">(C60+180)*3900/360</f>
-        <v>2117.91666666667</v>
+        <f aca="false">(C60+170)*2000/360</f>
+        <v>1030.55555555556</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,12 +2551,12 @@
         <v>1.92957326369221</v>
       </c>
       <c r="F61" s="0" t="n">
-        <f aca="false">1820-((B61+90)*1820/180)</f>
-        <v>687.555555555556</v>
+        <f aca="false">1075-((B61+80)*1075/180)</f>
+        <v>465.833333333333</v>
       </c>
       <c r="G61" s="0" t="n">
-        <f aca="false">(C61+180)*3900/360</f>
-        <v>1088.75</v>
+        <f aca="false">(C61+170)*2000/360</f>
+        <v>502.777777777778</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,12 +2578,12 @@
         <v>1.9804138692912</v>
       </c>
       <c r="F62" s="0" t="n">
-        <f aca="false">1820-((B62+90)*1820/180)</f>
-        <v>786.981478111111</v>
+        <f aca="false">1075-((B62+80)*1075/180)</f>
+        <v>524.560183194444</v>
       </c>
       <c r="G62" s="0" t="n">
-        <f aca="false">(C62+180)*3900/360</f>
-        <v>1202.5</v>
+        <f aca="false">(C62+170)*2000/360</f>
+        <v>561.111111111111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,12 +2605,12 @@
         <v>1.94516363590652</v>
       </c>
       <c r="F63" s="0" t="n">
-        <f aca="false">1820-((B63+90)*1820/180)</f>
-        <v>556.111111111111</v>
+        <f aca="false">1075-((B63+80)*1075/180)</f>
+        <v>388.194444444444</v>
       </c>
       <c r="G63" s="0" t="n">
-        <f aca="false">(C63+180)*3900/360</f>
-        <v>2307.5</v>
+        <f aca="false">(C63+170)*2000/360</f>
+        <v>1127.77777777778</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,12 +2632,12 @@
         <v>1.97485366087018</v>
       </c>
       <c r="F64" s="0" t="n">
-        <f aca="false">1820-((B64+90)*1820/180)</f>
-        <v>406.972222222222</v>
+        <f aca="false">1075-((B64+80)*1075/180)</f>
+        <v>300.104166666667</v>
       </c>
       <c r="G64" s="0" t="n">
-        <f aca="false">(C64+180)*3900/360</f>
-        <v>2112.5</v>
+        <f aca="false">(C64+170)*2000/360</f>
+        <v>1027.77777777778</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,12 +2659,12 @@
         <v>2</v>
       </c>
       <c r="F65" s="0" t="n">
-        <f aca="false">1820-((B65+90)*1820/180)</f>
-        <v>910</v>
+        <f aca="false">1075-((B65+80)*1075/180)</f>
+        <v>597.222222222222</v>
       </c>
       <c r="G65" s="0" t="n">
-        <f aca="false">(C65+180)*3900/360</f>
-        <v>2220.83333333333</v>
+        <f aca="false">(C65+170)*2000/360</f>
+        <v>1083.33333333333</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,12 +2686,12 @@
         <v>1.98563192761071</v>
       </c>
       <c r="F66" s="0" t="n">
-        <f aca="false">1820-((B66+90)*1820/180)</f>
-        <v>343.777777777778</v>
+        <f aca="false">1075-((B66+80)*1075/180)</f>
+        <v>262.777777777778</v>
       </c>
       <c r="G66" s="0" t="n">
-        <f aca="false">(C66+180)*3900/360</f>
-        <v>2058.33333333333</v>
+        <f aca="false">(C66+170)*2000/360</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,12 +2713,12 @@
         <v>1.99082044659069</v>
       </c>
       <c r="F67" s="0" t="n">
-        <f aca="false">1820-((B67+90)*1820/180)</f>
-        <v>793.722222222222</v>
+        <f aca="false">1075-((B67+80)*1075/180)</f>
+        <v>528.541666666667</v>
       </c>
       <c r="G67" s="0" t="n">
-        <f aca="false">(C67+180)*3900/360</f>
-        <v>2410.41666666667</v>
+        <f aca="false">(C67+170)*2000/360</f>
+        <v>1180.55555555556</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,12 +2740,12 @@
         <v>1.97196061633971</v>
       </c>
       <c r="F68" s="0" t="n">
-        <f aca="false">1820-((B68+90)*1820/180)</f>
-        <v>753.277777777778</v>
+        <f aca="false">1075-((B68+80)*1075/180)</f>
+        <v>504.652777777778</v>
       </c>
       <c r="G68" s="0" t="n">
-        <f aca="false">(C68+180)*3900/360</f>
-        <v>1285.55555916667</v>
+        <f aca="false">(C68+170)*2000/360</f>
+        <v>603.703705555556</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,12 +2767,12 @@
         <v>1.95144106992254</v>
       </c>
       <c r="F69" s="0" t="n">
-        <f aca="false">1820-((B69+90)*1820/180)</f>
-        <v>717.888888888889</v>
+        <f aca="false">1075-((B69+80)*1075/180)</f>
+        <v>483.75</v>
       </c>
       <c r="G69" s="0" t="n">
-        <f aca="false">(C69+180)*3900/360</f>
-        <v>1184.44444083333</v>
+        <f aca="false">(C69+170)*2000/360</f>
+        <v>551.85185</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,12 +2794,12 @@
         <v>1.99941936163945</v>
       </c>
       <c r="F70" s="0" t="n">
-        <f aca="false">1820-((B70+90)*1820/180)</f>
-        <v>930.222222222222</v>
+        <f aca="false">1075-((B70+80)*1075/180)</f>
+        <v>609.166666666667</v>
       </c>
       <c r="G70" s="0" t="n">
-        <f aca="false">(C70+180)*3900/360</f>
-        <v>1110.41666666667</v>
+        <f aca="false">(C70+170)*2000/360</f>
+        <v>513.888888888889</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,12 +2821,12 @@
         <v>1.97236992039768</v>
       </c>
       <c r="F71" s="0" t="n">
-        <f aca="false">1820-((B71+90)*1820/180)</f>
-        <v>637</v>
+        <f aca="false">1075-((B71+80)*1075/180)</f>
+        <v>435.972222222222</v>
       </c>
       <c r="G71" s="0" t="n">
-        <f aca="false">(C71+180)*3900/360</f>
-        <v>2275</v>
+        <f aca="false">(C71+170)*2000/360</f>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,12 +2848,12 @@
         <v>1.97100566141789</v>
       </c>
       <c r="F72" s="0" t="n">
-        <f aca="false">1820-((B72+90)*1820/180)</f>
-        <v>770.129633</v>
+        <f aca="false">1075-((B72+80)*1075/180)</f>
+        <v>514.606483472222</v>
       </c>
       <c r="G72" s="0" t="n">
-        <f aca="false">(C72+180)*3900/360</f>
-        <v>986.7361075</v>
+        <f aca="false">(C72+170)*2000/360</f>
+        <v>450.462961111111</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,12 +2875,12 @@
         <v>1.999981629378</v>
       </c>
       <c r="F73" s="0" t="n">
-        <f aca="false">1820-((B73+90)*1820/180)</f>
-        <v>889.777777777778</v>
+        <f aca="false">1075-((B73+80)*1075/180)</f>
+        <v>585.277777777778</v>
       </c>
       <c r="G73" s="0" t="n">
-        <f aca="false">(C73+180)*3900/360</f>
-        <v>2058.33333333333</v>
+        <f aca="false">(C73+170)*2000/360</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,12 +2902,12 @@
         <v>1.98645845388509</v>
       </c>
       <c r="F74" s="0" t="n">
-        <f aca="false">1820-((B74+90)*1820/180)</f>
-        <v>758.333333333333</v>
+        <f aca="false">1075-((B74+80)*1075/180)</f>
+        <v>507.638888888889</v>
       </c>
       <c r="G74" s="0" t="n">
-        <f aca="false">(C74+180)*3900/360</f>
-        <v>2372.5</v>
+        <f aca="false">(C74+170)*2000/360</f>
+        <v>1161.11111111111</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,12 +2929,12 @@
         <v>1.89983283121627</v>
       </c>
       <c r="F75" s="0" t="n">
-        <f aca="false">1820-((B75+90)*1820/180)</f>
-        <v>313.444444444444</v>
+        <f aca="false">1075-((B75+80)*1075/180)</f>
+        <v>244.861111111111</v>
       </c>
       <c r="G75" s="0" t="n">
-        <f aca="false">(C75+180)*3900/360</f>
-        <v>2231.66666666667</v>
+        <f aca="false">(C75+170)*2000/360</f>
+        <v>1088.88888888889</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,12 +2956,12 @@
         <v>1.99630749393521</v>
       </c>
       <c r="F76" s="0" t="n">
-        <f aca="false">1820-((B76+90)*1820/180)</f>
-        <v>829.111111111111</v>
+        <f aca="false">1075-((B76+80)*1075/180)</f>
+        <v>549.444444444444</v>
       </c>
       <c r="G76" s="0" t="n">
-        <f aca="false">(C76+180)*3900/360</f>
-        <v>2361.66666666667</v>
+        <f aca="false">(C76+170)*2000/360</f>
+        <v>1155.55555555556</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,12 +2983,12 @@
         <v>1.9683013648789</v>
       </c>
       <c r="F77" s="0" t="n">
-        <f aca="false">1820-((B77+90)*1820/180)</f>
-        <v>1135.81481144444</v>
+        <f aca="false">1075-((B77+80)*1075/180)</f>
+        <v>730.601849861111</v>
       </c>
       <c r="G77" s="0" t="n">
-        <f aca="false">(C77+180)*3900/360</f>
-        <v>2387.30555916667</v>
+        <f aca="false">(C77+170)*2000/360</f>
+        <v>1168.70370555556</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,12 +3010,12 @@
         <v>1.71403596659708</v>
       </c>
       <c r="F78" s="0" t="n">
-        <f aca="false">1820-((B78+90)*1820/180)</f>
-        <v>1433.25</v>
+        <f aca="false">1075-((B78+80)*1075/180)</f>
+        <v>906.284722222222</v>
       </c>
       <c r="G78" s="0" t="n">
-        <f aca="false">(C78+180)*3900/360</f>
-        <v>1309.02777416667</v>
+        <f aca="false">(C78+170)*2000/360</f>
+        <v>615.740738888889</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,12 +3037,12 @@
         <v>1.99131704470642</v>
       </c>
       <c r="F79" s="0" t="n">
-        <f aca="false">1820-((B79+90)*1820/180)</f>
-        <v>283.111111111111</v>
+        <f aca="false">1075-((B79+80)*1075/180)</f>
+        <v>226.944444444444</v>
       </c>
       <c r="G79" s="0" t="n">
-        <f aca="false">(C79+180)*3900/360</f>
-        <v>1874.16666666667</v>
+        <f aca="false">(C79+170)*2000/360</f>
+        <v>905.555555555556</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,12 +3064,12 @@
         <v>1.99916088287689</v>
       </c>
       <c r="F80" s="0" t="n">
-        <f aca="false">1820-((B80+90)*1820/180)</f>
-        <v>859.444444444445</v>
+        <f aca="false">1075-((B80+80)*1075/180)</f>
+        <v>567.361111111111</v>
       </c>
       <c r="G80" s="0" t="n">
-        <f aca="false">(C80+180)*3900/360</f>
-        <v>3596.66666666667</v>
+        <f aca="false">(C80+170)*2000/360</f>
+        <v>1788.88888888889</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,12 +3091,12 @@
         <v>1.9999398959514</v>
       </c>
       <c r="F81" s="0" t="n">
-        <f aca="false">1820-((B81+90)*1820/180)</f>
-        <v>1092</v>
+        <f aca="false">1075-((B81+80)*1075/180)</f>
+        <v>704.722222222222</v>
       </c>
       <c r="G81" s="0" t="n">
-        <f aca="false">(C81+180)*3900/360</f>
-        <v>3878.33333333333</v>
+        <f aca="false">(C81+170)*2000/360</f>
+        <v>1933.33333333333</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,12 +3118,12 @@
         <v>1.88249034137536</v>
       </c>
       <c r="F82" s="0" t="n">
-        <f aca="false">1820-((B82+90)*1820/180)</f>
-        <v>262.888888888889</v>
+        <f aca="false">1075-((B82+80)*1075/180)</f>
+        <v>215</v>
       </c>
       <c r="G82" s="0" t="n">
-        <f aca="false">(C82+180)*3900/360</f>
-        <v>2231.66666666667</v>
+        <f aca="false">(C82+170)*2000/360</f>
+        <v>1088.88888888889</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,12 +3145,12 @@
         <v>1.99960749036869</v>
       </c>
       <c r="F83" s="0" t="n">
-        <f aca="false">1820-((B83+90)*1820/180)</f>
-        <v>444.888888888889</v>
+        <f aca="false">1075-((B83+80)*1075/180)</f>
+        <v>322.5</v>
       </c>
       <c r="G83" s="0" t="n">
-        <f aca="false">(C83+180)*3900/360</f>
-        <v>1971.66666666667</v>
+        <f aca="false">(C83+170)*2000/360</f>
+        <v>955.555555555556</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,12 +3172,12 @@
         <v>1.99844607717322</v>
       </c>
       <c r="F84" s="0" t="n">
-        <f aca="false">1820-((B84+90)*1820/180)</f>
-        <v>869.555555555556</v>
+        <f aca="false">1075-((B84+80)*1075/180)</f>
+        <v>573.333333333333</v>
       </c>
       <c r="G84" s="0" t="n">
-        <f aca="false">(C84+180)*3900/360</f>
-        <v>1375.83333333333</v>
+        <f aca="false">(C84+170)*2000/360</f>
+        <v>650</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,12 +3199,12 @@
         <v>1.98587406759488</v>
       </c>
       <c r="F85" s="0" t="n">
-        <f aca="false">1820-((B85+90)*1820/180)</f>
-        <v>1061.66666666667</v>
+        <f aca="false">1075-((B85+80)*1075/180)</f>
+        <v>686.805555555556</v>
       </c>
       <c r="G85" s="0" t="n">
-        <f aca="false">(C85+180)*3900/360</f>
-        <v>433.333333333333</v>
+        <f aca="false">(C85+170)*2000/360</f>
+        <v>166.666666666667</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,12 +3226,12 @@
         <v>1.77071669693333</v>
       </c>
       <c r="F86" s="0" t="n">
-        <f aca="false">1820-((B86+90)*1820/180)</f>
-        <v>1344.77777777778</v>
+        <f aca="false">1075-((B86+80)*1075/180)</f>
+        <v>854.027777777778</v>
       </c>
       <c r="G86" s="0" t="n">
-        <f aca="false">(C86+180)*3900/360</f>
-        <v>2675.83333333333</v>
+        <f aca="false">(C86+170)*2000/360</f>
+        <v>1316.66666666667</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,12 +3253,12 @@
         <v>1.99999368377011</v>
       </c>
       <c r="F87" s="0" t="n">
-        <f aca="false">1820-((B87+90)*1820/180)</f>
-        <v>920.111111111111</v>
+        <f aca="false">1075-((B87+80)*1075/180)</f>
+        <v>603.194444444445</v>
       </c>
       <c r="G87" s="0" t="n">
-        <f aca="false">(C87+180)*3900/360</f>
-        <v>2077.29166666667</v>
+        <f aca="false">(C87+170)*2000/360</f>
+        <v>1009.72222222222</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,12 +3280,12 @@
         <v>1.99801826112265</v>
       </c>
       <c r="F88" s="0" t="n">
-        <f aca="false">1820-((B88+90)*1820/180)</f>
-        <v>773.5</v>
+        <f aca="false">1075-((B88+80)*1075/180)</f>
+        <v>516.597222222222</v>
       </c>
       <c r="G88" s="0" t="n">
-        <f aca="false">(C88+180)*3900/360</f>
-        <v>1782.08333333333</v>
+        <f aca="false">(C88+170)*2000/360</f>
+        <v>858.333333333333</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,12 +3307,12 @@
         <v>1.95243788292353</v>
       </c>
       <c r="F89" s="0" t="n">
-        <f aca="false">1820-((B89+90)*1820/180)</f>
-        <v>592.257585111111</v>
+        <f aca="false">1075-((B89+80)*1075/180)</f>
+        <v>409.544696944444</v>
       </c>
       <c r="G89" s="0" t="n">
-        <f aca="false">(C89+180)*3900/360</f>
-        <v>2322.37847833333</v>
+        <f aca="false">(C89+170)*2000/360</f>
+        <v>1135.40776666667</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,12 +3334,12 @@
         <v>1.87537317366045</v>
       </c>
       <c r="F90" s="0" t="n">
-        <f aca="false">1820-((B90+90)*1820/180)</f>
-        <v>485.333525444444</v>
+        <f aca="false">1075-((B90+80)*1075/180)</f>
+        <v>346.389002361111</v>
       </c>
       <c r="G90" s="0" t="n">
-        <f aca="false">(C90+180)*3900/360</f>
-        <v>2421.24897083333</v>
+        <f aca="false">(C90+170)*2000/360</f>
+        <v>1186.11058333333</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,12 +3361,12 @@
         <v>1.98661451768695</v>
       </c>
       <c r="F91" s="0" t="n">
-        <f aca="false">1820-((B91+90)*1820/180)</f>
-        <v>389.277777777778</v>
+        <f aca="false">1075-((B91+80)*1075/180)</f>
+        <v>289.652777777778</v>
       </c>
       <c r="G91" s="0" t="n">
-        <f aca="false">(C91+180)*3900/360</f>
-        <v>2063.75</v>
+        <f aca="false">(C91+170)*2000/360</f>
+        <v>1002.77777777778</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,12 +3388,12 @@
         <v>1.9999881274999</v>
       </c>
       <c r="F92" s="0" t="n">
-        <f aca="false">1820-((B92+90)*1820/180)</f>
-        <v>829.111111111111</v>
+        <f aca="false">1075-((B92+80)*1075/180)</f>
+        <v>549.444444444444</v>
       </c>
       <c r="G92" s="0" t="n">
-        <f aca="false">(C92+180)*3900/360</f>
-        <v>1928.33333333333</v>
+        <f aca="false">(C92+170)*2000/360</f>
+        <v>933.333333333333</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,12 +3415,12 @@
         <v>1.99827171488426</v>
       </c>
       <c r="F93" s="0" t="n">
-        <f aca="false">1820-((B93+90)*1820/180)</f>
-        <v>544.651855222222</v>
+        <f aca="false">1075-((B93+80)*1075/180)</f>
+        <v>381.425927916667</v>
       </c>
       <c r="G93" s="0" t="n">
-        <f aca="false">(C93+180)*3900/360</f>
-        <v>1892.04166666667</v>
+        <f aca="false">(C93+170)*2000/360</f>
+        <v>914.722222222222</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,12 +3442,12 @@
         <v>1.98912894376923</v>
       </c>
       <c r="F94" s="0" t="n">
-        <f aca="false">1820-((B94+90)*1820/180)</f>
-        <v>1026.27777777778</v>
+        <f aca="false">1075-((B94+80)*1075/180)</f>
+        <v>665.902777777778</v>
       </c>
       <c r="G94" s="0" t="n">
-        <f aca="false">(C94+180)*3900/360</f>
-        <v>2462.77777416667</v>
+        <f aca="false">(C94+170)*2000/360</f>
+        <v>1207.40740555556</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,12 +3469,12 @@
         <v>1.96766667071194</v>
       </c>
       <c r="F95" s="0" t="n">
-        <f aca="false">1820-((B95+90)*1820/180)</f>
-        <v>515.666666666667</v>
+        <f aca="false">1075-((B95+80)*1075/180)</f>
+        <v>364.305555555556</v>
       </c>
       <c r="G95" s="0" t="n">
-        <f aca="false">(C95+180)*3900/360</f>
-        <v>2188.33333333333</v>
+        <f aca="false">(C95+170)*2000/360</f>
+        <v>1066.66666666667</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,12 +3496,12 @@
         <v>1.69112580268879</v>
       </c>
       <c r="F96" s="0" t="n">
-        <f aca="false">1820-((B96+90)*1820/180)</f>
-        <v>182</v>
+        <f aca="false">1075-((B96+80)*1075/180)</f>
+        <v>167.222222222222</v>
       </c>
       <c r="G96" s="0" t="n">
-        <f aca="false">(C96+180)*3900/360</f>
-        <v>1516.66666666667</v>
+        <f aca="false">(C96+170)*2000/360</f>
+        <v>722.222222222222</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,12 +3523,12 @@
         <v>1.98272568427804</v>
       </c>
       <c r="F97" s="0" t="n">
-        <f aca="false">1820-((B97+90)*1820/180)</f>
-        <v>787.487033666667</v>
+        <f aca="false">1075-((B97+80)*1075/180)</f>
+        <v>524.858794305556</v>
       </c>
       <c r="G97" s="0" t="n">
-        <f aca="false">(C97+180)*3900/360</f>
-        <v>1281.94444083333</v>
+        <f aca="false">(C97+170)*2000/360</f>
+        <v>601.85185</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,12 +3550,12 @@
         <v>1.96905003539576</v>
       </c>
       <c r="F98" s="0" t="n">
-        <f aca="false">1820-((B98+90)*1820/180)</f>
-        <v>745.694444444444</v>
+        <f aca="false">1075-((B98+80)*1075/180)</f>
+        <v>500.173611111111</v>
       </c>
       <c r="G98" s="0" t="n">
-        <f aca="false">(C98+180)*3900/360</f>
-        <v>1282.84722583333</v>
+        <f aca="false">(C98+170)*2000/360</f>
+        <v>602.314816666667</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,12 +3577,12 @@
         <v>1.99083774757641</v>
       </c>
       <c r="F99" s="0" t="n">
-        <f aca="false">1820-((B99+90)*1820/180)</f>
-        <v>774.061728844445</v>
+        <f aca="false">1075-((B99+80)*1075/180)</f>
+        <v>516.929012611111</v>
       </c>
       <c r="G99" s="0" t="n">
-        <f aca="false">(C99+180)*3900/360</f>
-        <v>3517.98055591667</v>
+        <f aca="false">(C99+170)*2000/360</f>
+        <v>1748.53703722222</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,12 +3604,12 @@
         <v>1.96363114140113</v>
       </c>
       <c r="F100" s="0" t="n">
-        <f aca="false">1820-((B100+90)*1820/180)</f>
-        <v>753.277777777778</v>
+        <f aca="false">1075-((B100+80)*1075/180)</f>
+        <v>504.652777777778</v>
       </c>
       <c r="G100" s="0" t="n">
-        <f aca="false">(C100+180)*3900/360</f>
-        <v>972.291666666667</v>
+        <f aca="false">(C100+170)*2000/360</f>
+        <v>443.055555555556</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,12 +3631,12 @@
         <v>1.99937938920343</v>
       </c>
       <c r="F101" s="0" t="n">
-        <f aca="false">1820-((B101+90)*1820/180)</f>
-        <v>408.657410777778</v>
+        <f aca="false">1075-((B101+80)*1075/180)</f>
+        <v>301.099539027778</v>
       </c>
       <c r="G101" s="0" t="n">
-        <f aca="false">(C101+180)*3900/360</f>
-        <v>1924.72222583333</v>
+        <f aca="false">(C101+170)*2000/360</f>
+        <v>931.481483333333</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,12 +3658,12 @@
         <v>1.99944433845051</v>
       </c>
       <c r="F102" s="0" t="n">
-        <f aca="false">1820-((B102+90)*1820/180)</f>
-        <v>798.777777777778</v>
+        <f aca="false">1075-((B102+80)*1075/180)</f>
+        <v>531.527777777778</v>
       </c>
       <c r="G102" s="0" t="n">
-        <f aca="false">(C102+180)*3900/360</f>
-        <v>1841.66666666667</v>
+        <f aca="false">(C102+170)*2000/360</f>
+        <v>888.888888888889</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,12 +3685,12 @@
         <v>1.99853116387146</v>
       </c>
       <c r="F103" s="0" t="n">
-        <f aca="false">1820-((B103+90)*1820/180)</f>
-        <v>788.666666666667</v>
+        <f aca="false">1075-((B103+80)*1075/180)</f>
+        <v>525.555555555556</v>
       </c>
       <c r="G103" s="0" t="n">
-        <f aca="false">(C103+180)*3900/360</f>
-        <v>1787.5</v>
+        <f aca="false">(C103+170)*2000/360</f>
+        <v>861.111111111111</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,12 +3712,12 @@
         <v>1.99720363777193</v>
       </c>
       <c r="F104" s="0" t="n">
-        <f aca="false">1820-((B104+90)*1820/180)</f>
-        <v>859.444444444445</v>
+        <f aca="false">1075-((B104+80)*1075/180)</f>
+        <v>567.361111111111</v>
       </c>
       <c r="G104" s="0" t="n">
-        <f aca="false">(C104+180)*3900/360</f>
-        <v>1310.83333333333</v>
+        <f aca="false">(C104+170)*2000/360</f>
+        <v>616.666666666667</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,12 +3739,12 @@
         <v>1.95044905245982</v>
       </c>
       <c r="F105" s="0" t="n">
-        <f aca="false">1820-((B105+90)*1820/180)</f>
-        <v>717.888888888889</v>
+        <f aca="false">1075-((B105+80)*1075/180)</f>
+        <v>483.75</v>
       </c>
       <c r="G105" s="0" t="n">
-        <f aca="false">(C105+180)*3900/360</f>
-        <v>1165.4861075</v>
+        <f aca="false">(C105+170)*2000/360</f>
+        <v>542.129627777778</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,12 +3766,12 @@
         <v>1.63359489153555</v>
       </c>
       <c r="F106" s="0" t="n">
-        <f aca="false">1820-((B106+90)*1820/180)</f>
-        <v>1445.88888888889</v>
+        <f aca="false">1075-((B106+80)*1075/180)</f>
+        <v>913.75</v>
       </c>
       <c r="G106" s="0" t="n">
-        <f aca="false">(C106+180)*3900/360</f>
-        <v>2740.83333333333</v>
+        <f aca="false">(C106+170)*2000/360</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,12 +3793,12 @@
         <v>1.96605209469746</v>
       </c>
       <c r="F107" s="0" t="n">
-        <f aca="false">1820-((B107+90)*1820/180)</f>
-        <v>758.333333333333</v>
+        <f aca="false">1075-((B107+80)*1075/180)</f>
+        <v>507.638888888889</v>
       </c>
       <c r="G107" s="0" t="n">
-        <f aca="false">(C107+180)*3900/360</f>
-        <v>1012.91666666667</v>
+        <f aca="false">(C107+170)*2000/360</f>
+        <v>463.888888888889</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,12 +3820,12 @@
         <v>1.93788908383474</v>
       </c>
       <c r="F108" s="0" t="n">
-        <f aca="false">1820-((B108+90)*1820/180)</f>
-        <v>685.027777777778</v>
+        <f aca="false">1075-((B108+80)*1075/180)</f>
+        <v>464.340277777778</v>
       </c>
       <c r="G108" s="0" t="n">
-        <f aca="false">(C108+180)*3900/360</f>
-        <v>3186.80555916667</v>
+        <f aca="false">(C108+170)*2000/360</f>
+        <v>1578.70370555556</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,12 +3847,12 @@
         <v>1.96090032144745</v>
       </c>
       <c r="F109" s="0" t="n">
-        <f aca="false">1820-((B109+90)*1820/180)</f>
-        <v>434.777777777778</v>
+        <f aca="false">1075-((B109+80)*1075/180)</f>
+        <v>316.527777777778</v>
       </c>
       <c r="G109" s="0" t="n">
-        <f aca="false">(C109+180)*3900/360</f>
-        <v>2166.66666666667</v>
+        <f aca="false">(C109+170)*2000/360</f>
+        <v>1055.55555555556</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,12 +3874,12 @@
         <v>1.93917756878529</v>
       </c>
       <c r="F110" s="0" t="n">
-        <f aca="false">1820-((B110+90)*1820/180)</f>
-        <v>252.777777777778</v>
+        <f aca="false">1075-((B110+80)*1075/180)</f>
+        <v>209.027777777778</v>
       </c>
       <c r="G110" s="0" t="n">
-        <f aca="false">(C110+180)*3900/360</f>
-        <v>1755</v>
+        <f aca="false">(C110+170)*2000/360</f>
+        <v>844.444444444444</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,12 +3901,12 @@
         <v>1.94271486871626</v>
       </c>
       <c r="F111" s="0" t="n">
-        <f aca="false">1820-((B111+90)*1820/180)</f>
-        <v>707.777777777778</v>
+        <f aca="false">1075-((B111+80)*1075/180)</f>
+        <v>477.777777777778</v>
       </c>
       <c r="G111" s="0" t="n">
-        <f aca="false">(C111+180)*3900/360</f>
-        <v>2784.16666666667</v>
+        <f aca="false">(C111+170)*2000/360</f>
+        <v>1372.22222222222</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,12 +3928,12 @@
         <v>1.99714557068522</v>
       </c>
       <c r="F112" s="0" t="n">
-        <f aca="false">1820-((B112+90)*1820/180)</f>
-        <v>960.555555555556</v>
+        <f aca="false">1075-((B112+80)*1075/180)</f>
+        <v>627.083333333333</v>
       </c>
       <c r="G112" s="0" t="n">
-        <f aca="false">(C112+180)*3900/360</f>
-        <v>3250</v>
+        <f aca="false">(C112+170)*2000/360</f>
+        <v>1611.11111111111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,12 +3955,12 @@
         <v>1.90216154622669</v>
       </c>
       <c r="F113" s="0" t="n">
-        <f aca="false">1820-((B113+90)*1820/180)</f>
-        <v>586.444444444444</v>
+        <f aca="false">1075-((B113+80)*1075/180)</f>
+        <v>406.111111111111</v>
       </c>
       <c r="G113" s="0" t="n">
-        <f aca="false">(C113+180)*3900/360</f>
-        <v>2524.16666666667</v>
+        <f aca="false">(C113+170)*2000/360</f>
+        <v>1238.88888888889</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,12 +3982,12 @@
         <v>1.92102419006938</v>
       </c>
       <c r="F114" s="0" t="n">
-        <f aca="false">1820-((B114+90)*1820/180)</f>
-        <v>576.333333333333</v>
+        <f aca="false">1075-((B114+80)*1075/180)</f>
+        <v>400.138888888889</v>
       </c>
       <c r="G114" s="0" t="n">
-        <f aca="false">(C114+180)*3900/360</f>
-        <v>2426.66666666667</v>
+        <f aca="false">(C114+170)*2000/360</f>
+        <v>1188.88888888889</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,12 +4009,12 @@
         <v>1.99172463449058</v>
       </c>
       <c r="F115" s="0" t="n">
-        <f aca="false">1820-((B115+90)*1820/180)</f>
-        <v>374.111111111111</v>
+        <f aca="false">1075-((B115+80)*1075/180)</f>
+        <v>280.694444444444</v>
       </c>
       <c r="G115" s="0" t="n">
-        <f aca="false">(C115+180)*3900/360</f>
-        <v>1863.33333333333</v>
+        <f aca="false">(C115+170)*2000/360</f>
+        <v>900</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,12 +4036,12 @@
         <v>1.99724189318152</v>
       </c>
       <c r="F116" s="0" t="n">
-        <f aca="false">1820-((B116+90)*1820/180)</f>
-        <v>361.472222222222</v>
+        <f aca="false">1075-((B116+80)*1075/180)</f>
+        <v>273.229166666667</v>
       </c>
       <c r="G116" s="0" t="n">
-        <f aca="false">(C116+180)*3900/360</f>
-        <v>1901.25</v>
+        <f aca="false">(C116+170)*2000/360</f>
+        <v>919.444444444444</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,12 +4063,12 @@
         <v>1.95129947299481</v>
       </c>
       <c r="F117" s="0" t="n">
-        <f aca="false">1820-((B117+90)*1820/180)</f>
-        <v>591.5</v>
+        <f aca="false">1075-((B117+80)*1075/180)</f>
+        <v>409.097222222222</v>
       </c>
       <c r="G117" s="0" t="n">
-        <f aca="false">(C117+180)*3900/360</f>
-        <v>2326.45833333333</v>
+        <f aca="false">(C117+170)*2000/360</f>
+        <v>1137.5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,12 +4090,12 @@
         <v>1.98624536197137</v>
       </c>
       <c r="F118" s="0" t="n">
-        <f aca="false">1820-((B118+90)*1820/180)</f>
-        <v>476.907410777778</v>
+        <f aca="false">1075-((B118+80)*1075/180)</f>
+        <v>341.412039027778</v>
       </c>
       <c r="G118" s="0" t="n">
-        <f aca="false">(C118+180)*3900/360</f>
-        <v>2089.02777416667</v>
+        <f aca="false">(C118+170)*2000/360</f>
+        <v>1015.74073888889</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,12 +4117,12 @@
         <v>1.95203650168455</v>
       </c>
       <c r="F119" s="0" t="n">
-        <f aca="false">1820-((B119+90)*1820/180)</f>
-        <v>725.472222222222</v>
+        <f aca="false">1075-((B119+80)*1075/180)</f>
+        <v>488.229166666667</v>
       </c>
       <c r="G119" s="0" t="n">
-        <f aca="false">(C119+180)*3900/360</f>
-        <v>1110.41666666667</v>
+        <f aca="false">(C119+170)*2000/360</f>
+        <v>513.888888888889</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,12 +4144,12 @@
         <v>1.91291467828498</v>
       </c>
       <c r="F120" s="0" t="n">
-        <f aca="false">1820-((B120+90)*1820/180)</f>
-        <v>546</v>
+        <f aca="false">1075-((B120+80)*1075/180)</f>
+        <v>382.222222222222</v>
       </c>
       <c r="G120" s="0" t="n">
-        <f aca="false">(C120+180)*3900/360</f>
-        <v>3445</v>
+        <f aca="false">(C120+170)*2000/360</f>
+        <v>1711.11111111111</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,12 +4171,12 @@
         <v>1.9994967602444</v>
       </c>
       <c r="F121" s="0" t="n">
-        <f aca="false">1820-((B121+90)*1820/180)</f>
-        <v>412.364811444444</v>
+        <f aca="false">1075-((B121+80)*1075/180)</f>
+        <v>303.289349861111</v>
       </c>
       <c r="G121" s="0" t="n">
-        <f aca="false">(C121+180)*3900/360</f>
-        <v>1927.06944083333</v>
+        <f aca="false">(C121+170)*2000/360</f>
+        <v>932.685183333333</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,12 +4198,12 @@
         <v>1.94985564008142</v>
       </c>
       <c r="F122" s="0" t="n">
-        <f aca="false">1820-((B122+90)*1820/180)</f>
-        <v>596.555555555556</v>
+        <f aca="false">1075-((B122+80)*1075/180)</f>
+        <v>412.083333333333</v>
       </c>
       <c r="G122" s="0" t="n">
-        <f aca="false">(C122+180)*3900/360</f>
-        <v>2340</v>
+        <f aca="false">(C122+170)*2000/360</f>
+        <v>1144.44444444444</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,12 +4225,12 @@
         <v>1.97967368360658</v>
       </c>
       <c r="F123" s="0" t="n">
-        <f aca="false">1820-((B123+90)*1820/180)</f>
-        <v>1082.47867</v>
+        <f aca="false">1075-((B123+80)*1075/180)</f>
+        <v>699.098359722222</v>
       </c>
       <c r="G123" s="0" t="n">
-        <f aca="false">(C123+180)*3900/360</f>
-        <v>2412.763925</v>
+        <f aca="false">(C123+170)*2000/360</f>
+        <v>1181.75927777778</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,12 +4252,12 @@
         <v>1.71319142132363</v>
       </c>
       <c r="F124" s="0" t="n">
-        <f aca="false">1820-((B124+90)*1820/180)</f>
-        <v>424.666666666667</v>
+        <f aca="false">1075-((B124+80)*1075/180)</f>
+        <v>310.555555555556</v>
       </c>
       <c r="G124" s="0" t="n">
-        <f aca="false">(C124+180)*3900/360</f>
-        <v>2686.66666666667</v>
+        <f aca="false">(C124+170)*2000/360</f>
+        <v>1322.22222222222</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,12 +4279,12 @@
         <v>1.99994226960644</v>
       </c>
       <c r="F125" s="0" t="n">
-        <f aca="false">1820-((B125+90)*1820/180)</f>
-        <v>899.888888888889</v>
+        <f aca="false">1075-((B125+80)*1075/180)</f>
+        <v>591.25</v>
       </c>
       <c r="G125" s="0" t="n">
-        <f aca="false">(C125+180)*3900/360</f>
-        <v>2361.66666666667</v>
+        <f aca="false">(C125+170)*2000/360</f>
+        <v>1155.55555555556</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,12 +4306,12 @@
         <v>1.99988518545807</v>
       </c>
       <c r="F126" s="0" t="n">
-        <f aca="false">1820-((B126+90)*1820/180)</f>
-        <v>960.555555555556</v>
+        <f aca="false">1075-((B126+80)*1075/180)</f>
+        <v>627.083333333333</v>
       </c>
       <c r="G126" s="0" t="n">
-        <f aca="false">(C126+180)*3900/360</f>
-        <v>108.333333333333</v>
+        <f aca="false">(C126+170)*2000/360</f>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,12 +4333,12 @@
         <v>1.96473909668409</v>
       </c>
       <c r="F127" s="0" t="n">
-        <f aca="false">1820-((B127+90)*1820/180)</f>
-        <v>479.435188555555</v>
+        <f aca="false">1075-((B127+80)*1075/180)</f>
+        <v>342.905094583333</v>
       </c>
       <c r="G127" s="0" t="n">
-        <f aca="false">(C127+180)*3900/360</f>
-        <v>2177.5</v>
+        <f aca="false">(C127+170)*2000/360</f>
+        <v>1061.11111111111</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,12 +4360,12 @@
         <v>1.92824948393254</v>
       </c>
       <c r="F128" s="0" t="n">
-        <f aca="false">1820-((B128+90)*1820/180)</f>
-        <v>611.722222222222</v>
+        <f aca="false">1075-((B128+80)*1075/180)</f>
+        <v>421.041666666667</v>
       </c>
       <c r="G128" s="0" t="n">
-        <f aca="false">(C128+180)*3900/360</f>
-        <v>2467.29166666667</v>
+        <f aca="false">(C128+170)*2000/360</f>
+        <v>1209.72222222222</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,12 +4387,12 @@
         <v>1.77048032379626</v>
       </c>
       <c r="F129" s="0" t="n">
-        <f aca="false">1820-((B129+90)*1820/180)</f>
-        <v>495.444444444444</v>
+        <f aca="false">1075-((B129+80)*1075/180)</f>
+        <v>352.361111111111</v>
       </c>
       <c r="G129" s="0" t="n">
-        <f aca="false">(C129+180)*3900/360</f>
-        <v>2762.5</v>
+        <f aca="false">(C129+170)*2000/360</f>
+        <v>1361.11111111111</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,12 +4414,12 @@
         <v>1.95430990198346</v>
       </c>
       <c r="F130" s="0" t="n">
-        <f aca="false">1820-((B130+90)*1820/180)</f>
-        <v>728</v>
+        <f aca="false">1075-((B130+80)*1075/180)</f>
+        <v>489.722222222222</v>
       </c>
       <c r="G130" s="0" t="n">
-        <f aca="false">(C130+180)*3900/360</f>
-        <v>3087.5</v>
+        <f aca="false">(C130+170)*2000/360</f>
+        <v>1527.77777777778</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,12 +4441,12 @@
         <v>1.9129108379975</v>
       </c>
       <c r="F131" s="0" t="n">
-        <f aca="false">1820-((B131+90)*1820/180)</f>
-        <v>333.666666666667</v>
+        <f aca="false">1075-((B131+80)*1075/180)</f>
+        <v>256.805555555556</v>
       </c>
       <c r="G131" s="0" t="n">
-        <f aca="false">(C131+180)*3900/360</f>
-        <v>2220.83333333333</v>
+        <f aca="false">(C131+170)*2000/360</f>
+        <v>1083.33333333333</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,12 +4468,12 @@
         <v>1.94083920683705</v>
       </c>
       <c r="F132" s="0" t="n">
-        <f aca="false">1820-((B132+90)*1820/180)</f>
-        <v>567.907410777778</v>
+        <f aca="false">1075-((B132+80)*1075/180)</f>
+        <v>395.162039027778</v>
       </c>
       <c r="G132" s="0" t="n">
-        <f aca="false">(C132+180)*3900/360</f>
-        <v>2338.19444083333</v>
+        <f aca="false">(C132+170)*2000/360</f>
+        <v>1143.51851666667</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,12 +4495,12 @@
         <v>1.97045204432255</v>
       </c>
       <c r="F133" s="0" t="n">
-        <f aca="false">1820-((B133+90)*1820/180)</f>
-        <v>1208.27777777778</v>
+        <f aca="false">1075-((B133+80)*1075/180)</f>
+        <v>773.402777777778</v>
       </c>
       <c r="G133" s="0" t="n">
-        <f aca="false">(C133+180)*3900/360</f>
-        <v>2256.04166666667</v>
+        <f aca="false">(C133+170)*2000/360</f>
+        <v>1101.38888888889</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,12 +4522,12 @@
         <v>1.99982470996717</v>
       </c>
       <c r="F134" s="0" t="n">
-        <f aca="false">1820-((B134+90)*1820/180)</f>
-        <v>844.277777777778</v>
+        <f aca="false">1075-((B134+80)*1075/180)</f>
+        <v>558.402777777778</v>
       </c>
       <c r="G134" s="0" t="n">
-        <f aca="false">(C134+180)*3900/360</f>
-        <v>1847.08333333333</v>
+        <f aca="false">(C134+170)*2000/360</f>
+        <v>891.666666666667</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,12 +4549,12 @@
         <v>1.99187382134455</v>
       </c>
       <c r="F135" s="0" t="n">
-        <f aca="false">1820-((B135+90)*1820/180)</f>
-        <v>657.222222222222</v>
+        <f aca="false">1075-((B135+80)*1075/180)</f>
+        <v>447.916666666667</v>
       </c>
       <c r="G135" s="0" t="n">
-        <f aca="false">(C135+180)*3900/360</f>
-        <v>2134.16666666667</v>
+        <f aca="false">(C135+170)*2000/360</f>
+        <v>1038.88888888889</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,12 +4576,12 @@
         <v>1.99071985001511</v>
       </c>
       <c r="F136" s="0" t="n">
-        <f aca="false">1820-((B136+90)*1820/180)</f>
-        <v>433.092589222222</v>
+        <f aca="false">1075-((B136+80)*1075/180)</f>
+        <v>315.532405416667</v>
       </c>
       <c r="G136" s="0" t="n">
-        <f aca="false">(C136+180)*3900/360</f>
-        <v>2053.27777416667</v>
+        <f aca="false">(C136+170)*2000/360</f>
+        <v>997.407405555556</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,12 +4603,12 @@
         <v>1.92201693318851</v>
       </c>
       <c r="F137" s="0" t="n">
-        <f aca="false">1820-((B137+90)*1820/180)</f>
-        <v>343.777777777778</v>
+        <f aca="false">1075-((B137+80)*1075/180)</f>
+        <v>262.777777777778</v>
       </c>
       <c r="G137" s="0" t="n">
-        <f aca="false">(C137+180)*3900/360</f>
-        <v>2210</v>
+        <f aca="false">(C137+170)*2000/360</f>
+        <v>1077.77777777778</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,12 +4630,12 @@
         <v>1.99565315494236</v>
       </c>
       <c r="F138" s="0" t="n">
-        <f aca="false">1820-((B138+90)*1820/180)</f>
-        <v>406.972222222222</v>
+        <f aca="false">1075-((B138+80)*1075/180)</f>
+        <v>300.104166666667</v>
       </c>
       <c r="G138" s="0" t="n">
-        <f aca="false">(C138+180)*3900/360</f>
-        <v>2016.80555916667</v>
+        <f aca="false">(C138+170)*2000/360</f>
+        <v>978.703705555555</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,12 +4657,12 @@
         <v>1.93782356470388</v>
       </c>
       <c r="F139" s="0" t="n">
-        <f aca="false">1820-((B139+90)*1820/180)</f>
-        <v>685.960244666667</v>
+        <f aca="false">1075-((B139+80)*1075/180)</f>
+        <v>464.891048055556</v>
       </c>
       <c r="G139" s="0" t="n">
-        <f aca="false">(C139+180)*3900/360</f>
-        <v>3180.23032166667</v>
+        <f aca="false">(C139+170)*2000/360</f>
+        <v>1575.33178888889</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,12 +4684,12 @@
         <v>1.96282838657062</v>
       </c>
       <c r="F140" s="0" t="n">
-        <f aca="false">1820-((B140+90)*1820/180)</f>
-        <v>487.018521888889</v>
+        <f aca="false">1075-((B140+80)*1075/180)</f>
+        <v>347.38426125</v>
       </c>
       <c r="G140" s="0" t="n">
-        <f aca="false">(C140+180)*3900/360</f>
-        <v>2188.33333333333</v>
+        <f aca="false">(C140+170)*2000/360</f>
+        <v>1066.66666666667</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,12 +4711,12 @@
         <v>1.96758995186101</v>
       </c>
       <c r="F141" s="0" t="n">
-        <f aca="false">1820-((B141+90)*1820/180)</f>
-        <v>1112.22222222222</v>
+        <f aca="false">1075-((B141+80)*1075/180)</f>
+        <v>716.666666666667</v>
       </c>
       <c r="G141" s="0" t="n">
-        <f aca="false">(C141+180)*3900/360</f>
-        <v>2459.16666666667</v>
+        <f aca="false">(C141+170)*2000/360</f>
+        <v>1205.55555555556</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,12 +4738,12 @@
         <v>1.99133263242828</v>
       </c>
       <c r="F142" s="0" t="n">
-        <f aca="false">1820-((B142+90)*1820/180)</f>
-        <v>1046.5</v>
+        <f aca="false">1075-((B142+80)*1075/180)</f>
+        <v>677.847222222222</v>
       </c>
       <c r="G142" s="0" t="n">
-        <f aca="false">(C142+180)*3900/360</f>
-        <v>2318.33333333333</v>
+        <f aca="false">(C142+170)*2000/360</f>
+        <v>1133.33333333333</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,12 +4765,12 @@
         <v>1.99918758742779</v>
       </c>
       <c r="F143" s="0" t="n">
-        <f aca="false">1820-((B143+90)*1820/180)</f>
-        <v>884.722222222222</v>
+        <f aca="false">1075-((B143+80)*1075/180)</f>
+        <v>582.291666666667</v>
       </c>
       <c r="G143" s="0" t="n">
-        <f aca="false">(C143+180)*3900/360</f>
-        <v>3168.75</v>
+        <f aca="false">(C143+170)*2000/360</f>
+        <v>1569.44444444444</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,12 +4792,12 @@
         <v>1.99857401786563</v>
       </c>
       <c r="F144" s="0" t="n">
-        <f aca="false">1820-((B144+90)*1820/180)</f>
-        <v>877.644444444444</v>
+        <f aca="false">1075-((B144+80)*1075/180)</f>
+        <v>578.111111111111</v>
       </c>
       <c r="G144" s="0" t="n">
-        <f aca="false">(C144+180)*3900/360</f>
-        <v>2740.83333333333</v>
+        <f aca="false">(C144+170)*2000/360</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,12 +4819,12 @@
         <v>1.99978582138006</v>
       </c>
       <c r="F145" s="0" t="n">
-        <f aca="false">1820-((B145+90)*1820/180)</f>
-        <v>738.111111111111</v>
+        <f aca="false">1075-((B145+80)*1075/180)</f>
+        <v>495.694444444445</v>
       </c>
       <c r="G145" s="0" t="n">
-        <f aca="false">(C145+180)*3900/360</f>
-        <v>1906.66666666667</v>
+        <f aca="false">(C145+170)*2000/360</f>
+        <v>922.222222222222</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,12 +4846,12 @@
         <v>1.98781809995671</v>
       </c>
       <c r="F146" s="0" t="n">
-        <f aca="false">1820-((B146+90)*1820/180)</f>
-        <v>546.842589222222</v>
+        <f aca="false">1075-((B146+80)*1075/180)</f>
+        <v>382.719905416667</v>
       </c>
       <c r="G146" s="0" t="n">
-        <f aca="false">(C146+180)*3900/360</f>
-        <v>2106.3611075</v>
+        <f aca="false">(C146+170)*2000/360</f>
+        <v>1024.62962777778</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,12 +4873,12 @@
         <v>1.99922937158629</v>
       </c>
       <c r="F147" s="0" t="n">
-        <f aca="false">1820-((B147+90)*1820/180)</f>
-        <v>808.888888888889</v>
+        <f aca="false">1075-((B147+80)*1075/180)</f>
+        <v>537.5</v>
       </c>
       <c r="G147" s="0" t="n">
-        <f aca="false">(C147+180)*3900/360</f>
-        <v>3759.16666666667</v>
+        <f aca="false">(C147+170)*2000/360</f>
+        <v>1872.22222222222</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,12 +4900,12 @@
         <v>1.97504191436883</v>
       </c>
       <c r="F148" s="0" t="n">
-        <f aca="false">1820-((B148+90)*1820/180)</f>
-        <v>761.703700333333</v>
+        <f aca="false">1075-((B148+80)*1075/180)</f>
+        <v>509.629627638889</v>
       </c>
       <c r="G148" s="0" t="n">
-        <f aca="false">(C148+180)*3900/360</f>
-        <v>1289.16666666667</v>
+        <f aca="false">(C148+170)*2000/360</f>
+        <v>605.555555555556</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,12 +4927,12 @@
         <v>1.99736759977106</v>
       </c>
       <c r="F149" s="0" t="n">
-        <f aca="false">1820-((B149+90)*1820/180)</f>
-        <v>707.777777777778</v>
+        <f aca="false">1075-((B149+80)*1075/180)</f>
+        <v>477.777777777778</v>
       </c>
       <c r="G149" s="0" t="n">
-        <f aca="false">(C149+180)*3900/360</f>
-        <v>1820</v>
+        <f aca="false">(C149+170)*2000/360</f>
+        <v>877.777777777778</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,12 +4954,12 @@
         <v>1.95560451638093</v>
       </c>
       <c r="F150" s="0" t="n">
-        <f aca="false">1820-((B150+90)*1820/180)</f>
-        <v>1115.25555555556</v>
+        <f aca="false">1075-((B150+80)*1075/180)</f>
+        <v>718.458333333333</v>
       </c>
       <c r="G150" s="0" t="n">
-        <f aca="false">(C150+180)*3900/360</f>
-        <v>2573.81944083333</v>
+        <f aca="false">(C150+170)*2000/360</f>
+        <v>1264.35185</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,12 +4981,12 @@
         <v>1.98741133562206</v>
       </c>
       <c r="F151" s="0" t="n">
-        <f aca="false">1820-((B151+90)*1820/180)</f>
-        <v>1039.75925588889</v>
+        <f aca="false">1075-((B151+80)*1075/180)</f>
+        <v>673.86573875</v>
       </c>
       <c r="G151" s="0" t="n">
-        <f aca="false">(C151+180)*3900/360</f>
-        <v>2439.30555916667</v>
+        <f aca="false">(C151+170)*2000/360</f>
+        <v>1195.37037222222</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,12 +5008,12 @@
         <v>1.92389693179808</v>
       </c>
       <c r="F152" s="0" t="n">
-        <f aca="false">1820-((B152+90)*1820/180)</f>
-        <v>677.444444444444</v>
+        <f aca="false">1075-((B152+80)*1075/180)</f>
+        <v>459.861111111111</v>
       </c>
       <c r="G152" s="0" t="n">
-        <f aca="false">(C152+180)*3900/360</f>
-        <v>845</v>
+        <f aca="false">(C152+170)*2000/360</f>
+        <v>377.777777777778</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,12 +5035,12 @@
         <v>1.92195745946952</v>
       </c>
       <c r="F153" s="0" t="n">
-        <f aca="false">1820-((B153+90)*1820/180)</f>
-        <v>434.777777777778</v>
+        <f aca="false">1075-((B153+80)*1075/180)</f>
+        <v>316.527777777778</v>
       </c>
       <c r="G153" s="0" t="n">
-        <f aca="false">(C153+180)*3900/360</f>
-        <v>2264.16666666667</v>
+        <f aca="false">(C153+170)*2000/360</f>
+        <v>1105.55555555556</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,12 +5062,12 @@
         <v>1.99517161242609</v>
       </c>
       <c r="F154" s="0" t="n">
-        <f aca="false">1820-((B154+90)*1820/180)</f>
-        <v>467.807410777778</v>
+        <f aca="false">1075-((B154+80)*1075/180)</f>
+        <v>336.037039027778</v>
       </c>
       <c r="G154" s="0" t="n">
-        <f aca="false">(C154+180)*3900/360</f>
-        <v>2030.16666666667</v>
+        <f aca="false">(C154+170)*2000/360</f>
+        <v>985.555555555556</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,12 +5089,12 @@
         <v>1.71407461792927</v>
       </c>
       <c r="F155" s="0" t="n">
-        <f aca="false">1820-((B155+90)*1820/180)</f>
-        <v>444.888888888889</v>
+        <f aca="false">1075-((B155+80)*1075/180)</f>
+        <v>322.5</v>
       </c>
       <c r="G155" s="0" t="n">
-        <f aca="false">(C155+180)*3900/360</f>
-        <v>3087.5</v>
+        <f aca="false">(C155+170)*2000/360</f>
+        <v>1527.77777777778</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,12 +5116,12 @@
         <v>1.9700975360706</v>
       </c>
       <c r="F156" s="0" t="n">
-        <f aca="false">1820-((B156+90)*1820/180)</f>
-        <v>480.277777777778</v>
+        <f aca="false">1075-((B156+80)*1075/180)</f>
+        <v>343.402777777778</v>
       </c>
       <c r="G156" s="0" t="n">
-        <f aca="false">(C156+180)*3900/360</f>
-        <v>2159.08333333333</v>
+        <f aca="false">(C156+170)*2000/360</f>
+        <v>1051.66666666667</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,12 +5143,12 @@
         <v>1.96674875290953</v>
       </c>
       <c r="F157" s="0" t="n">
-        <f aca="false">1820-((B157+90)*1820/180)</f>
-        <v>740.638888888889</v>
+        <f aca="false">1075-((B157+80)*1075/180)</f>
+        <v>497.1875</v>
       </c>
       <c r="G157" s="0" t="n">
-        <f aca="false">(C157+180)*3900/360</f>
-        <v>1276.16666666667</v>
+        <f aca="false">(C157+170)*2000/360</f>
+        <v>598.888888888889</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,12 +5170,12 @@
         <v>1.99881551120149</v>
       </c>
       <c r="F158" s="0" t="n">
-        <f aca="false">1820-((B158+90)*1820/180)</f>
-        <v>586.444444444444</v>
+        <f aca="false">1075-((B158+80)*1075/180)</f>
+        <v>406.111111111111</v>
       </c>
       <c r="G158" s="0" t="n">
-        <f aca="false">(C158+180)*3900/360</f>
-        <v>1895.83333333333</v>
+        <f aca="false">(C158+170)*2000/360</f>
+        <v>916.666666666667</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,12 +5197,12 @@
         <v>1.98335726316791</v>
       </c>
       <c r="F159" s="0" t="n">
-        <f aca="false">1820-((B159+90)*1820/180)</f>
-        <v>1094.52777777778</v>
+        <f aca="false">1075-((B159+80)*1075/180)</f>
+        <v>706.215277777778</v>
       </c>
       <c r="G159" s="0" t="n">
-        <f aca="false">(C159+180)*3900/360</f>
-        <v>2329.16666666667</v>
+        <f aca="false">(C159+170)*2000/360</f>
+        <v>1138.88888888889</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,12 +5224,12 @@
         <v>1.9937051611175</v>
       </c>
       <c r="F160" s="0" t="n">
-        <f aca="false">1820-((B160+90)*1820/180)</f>
-        <v>1132.44444444444</v>
+        <f aca="false">1075-((B160+80)*1075/180)</f>
+        <v>728.611111111111</v>
       </c>
       <c r="G160" s="0" t="n">
-        <f aca="false">(C160+180)*3900/360</f>
-        <v>2134.16666666667</v>
+        <f aca="false">(C160+170)*2000/360</f>
+        <v>1038.88888888889</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,12 +5251,12 @@
         <v>1.99999778000774</v>
       </c>
       <c r="F161" s="0" t="n">
-        <f aca="false">1820-((B161+90)*1820/180)</f>
-        <v>915.392589222222</v>
+        <f aca="false">1075-((B161+80)*1075/180)</f>
+        <v>600.407405416667</v>
       </c>
       <c r="G161" s="0" t="n">
-        <f aca="false">(C161+180)*3900/360</f>
-        <v>3758.2638925</v>
+        <f aca="false">(C161+170)*2000/360</f>
+        <v>1871.75926111111</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,12 +5278,12 @@
         <v>1.88420125294506</v>
       </c>
       <c r="F162" s="0" t="n">
-        <f aca="false">1820-((B162+90)*1820/180)</f>
-        <v>626.888888888889</v>
+        <f aca="false">1075-((B162+80)*1075/180)</f>
+        <v>430</v>
       </c>
       <c r="G162" s="0" t="n">
-        <f aca="false">(C162+180)*3900/360</f>
-        <v>2860</v>
+        <f aca="false">(C162+170)*2000/360</f>
+        <v>1411.11111111111</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,12 +5305,12 @@
         <v>1.99578914518955</v>
       </c>
       <c r="F163" s="0" t="n">
-        <f aca="false">1820-((B163+90)*1820/180)</f>
-        <v>379.166666666667</v>
+        <f aca="false">1075-((B163+80)*1075/180)</f>
+        <v>283.680555555556</v>
       </c>
       <c r="G163" s="0" t="n">
-        <f aca="false">(C163+180)*3900/360</f>
-        <v>2012.29166666667</v>
+        <f aca="false">(C163+170)*2000/360</f>
+        <v>976.388888888889</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,12 +5332,12 @@
         <v>1.99558956478381</v>
       </c>
       <c r="F164" s="0" t="n">
-        <f aca="false">1820-((B164+90)*1820/180)</f>
-        <v>1127.38888888889</v>
+        <f aca="false">1075-((B164+80)*1075/180)</f>
+        <v>725.625</v>
       </c>
       <c r="G164" s="0" t="n">
-        <f aca="false">(C164+180)*3900/360</f>
-        <v>3742.91666666667</v>
+        <f aca="false">(C164+170)*2000/360</f>
+        <v>1863.88888888889</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,12 +5359,12 @@
         <v>1.99706586590794</v>
       </c>
       <c r="F165" s="0" t="n">
-        <f aca="false">1820-((B165+90)*1820/180)</f>
-        <v>1334.66666666667</v>
+        <f aca="false">1075-((B165+80)*1075/180)</f>
+        <v>848.055555555556</v>
       </c>
       <c r="G165" s="0" t="n">
-        <f aca="false">(C165+180)*3900/360</f>
-        <v>3835</v>
+        <f aca="false">(C165+170)*2000/360</f>
+        <v>1911.11111111111</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,12 +5386,12 @@
         <v>1.97456392334206</v>
       </c>
       <c r="F166" s="0" t="n">
-        <f aca="false">1820-((B166+90)*1820/180)</f>
-        <v>778.555555555556</v>
+        <f aca="false">1075-((B166+80)*1075/180)</f>
+        <v>519.583333333333</v>
       </c>
       <c r="G166" s="0" t="n">
-        <f aca="false">(C166+180)*3900/360</f>
-        <v>1029.16666666667</v>
+        <f aca="false">(C166+170)*2000/360</f>
+        <v>472.222222222222</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,12 +5413,12 @@
         <v>1.99924487187283</v>
       </c>
       <c r="F167" s="0" t="n">
-        <f aca="false">1820-((B167+90)*1820/180)</f>
-        <v>748.222222222222</v>
+        <f aca="false">1075-((B167+80)*1075/180)</f>
+        <v>501.666666666667</v>
       </c>
       <c r="G167" s="0" t="n">
-        <f aca="false">(C167+180)*3900/360</f>
-        <v>2036.66666666667</v>
+        <f aca="false">(C167+170)*2000/360</f>
+        <v>988.888888888889</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,12 +5440,12 @@
         <v>1.99970500544902</v>
       </c>
       <c r="F168" s="0" t="n">
-        <f aca="false">1820-((B168+90)*1820/180)</f>
-        <v>808.888888888889</v>
+        <f aca="false">1075-((B168+80)*1075/180)</f>
+        <v>537.5</v>
       </c>
       <c r="G168" s="0" t="n">
-        <f aca="false">(C168+180)*3900/360</f>
-        <v>2036.66666666667</v>
+        <f aca="false">(C168+170)*2000/360</f>
+        <v>988.888888888889</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,12 +5467,12 @@
         <v>1.99829251354391</v>
       </c>
       <c r="F169" s="0" t="n">
-        <f aca="false">1820-((B169+90)*1820/180)</f>
-        <v>1102.44814477778</v>
+        <f aca="false">1075-((B169+80)*1075/180)</f>
+        <v>710.893516527778</v>
       </c>
       <c r="G169" s="0" t="n">
-        <f aca="false">(C169+180)*3900/360</f>
-        <v>109.777774166667</v>
+        <f aca="false">(C169+170)*2000/360</f>
+        <v>0.740738888888851</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,12 +5494,12 @@
         <v>1.99440976945837</v>
       </c>
       <c r="F170" s="0" t="n">
-        <f aca="false">1820-((B170+90)*1820/180)</f>
-        <v>1203.55925588889</v>
+        <f aca="false">1075-((B170+80)*1075/180)</f>
+        <v>770.61573875</v>
       </c>
       <c r="G170" s="0" t="n">
-        <f aca="false">(C170+180)*3900/360</f>
-        <v>3769.45833333333</v>
+        <f aca="false">(C170+170)*2000/360</f>
+        <v>1877.5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,12 +5521,12 @@
         <v>1.84855250905402</v>
       </c>
       <c r="F171" s="0" t="n">
-        <f aca="false">1820-((B171+90)*1820/180)</f>
-        <v>505.555555555556</v>
+        <f aca="false">1075-((B171+80)*1075/180)</f>
+        <v>358.333333333333</v>
       </c>
       <c r="G171" s="0" t="n">
-        <f aca="false">(C171+180)*3900/360</f>
-        <v>3325.83333333333</v>
+        <f aca="false">(C171+170)*2000/360</f>
+        <v>1650</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5548,12 +5548,12 @@
         <v>1.98783238904845</v>
       </c>
       <c r="F172" s="0" t="n">
-        <f aca="false">1820-((B172+90)*1820/180)</f>
-        <v>748.222222222222</v>
+        <f aca="false">1075-((B172+80)*1075/180)</f>
+        <v>501.666666666667</v>
       </c>
       <c r="G172" s="0" t="n">
-        <f aca="false">(C172+180)*3900/360</f>
-        <v>3531.66666666667</v>
+        <f aca="false">(C172+170)*2000/360</f>
+        <v>1755.55555555556</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,12 +5575,12 @@
         <v>1.98239766236101</v>
       </c>
       <c r="F173" s="0" t="n">
-        <f aca="false">1820-((B173+90)*1820/180)</f>
-        <v>283.111111111111</v>
+        <f aca="false">1075-((B173+80)*1075/180)</f>
+        <v>226.944444444444</v>
       </c>
       <c r="G173" s="0" t="n">
-        <f aca="false">(C173+180)*3900/360</f>
-        <v>2058.33333333333</v>
+        <f aca="false">(C173+170)*2000/360</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,12 +5602,12 @@
         <v>1.95312688604265</v>
       </c>
       <c r="F174" s="0" t="n">
-        <f aca="false">1820-((B174+90)*1820/180)</f>
-        <v>697.666666666667</v>
+        <f aca="false">1075-((B174+80)*1075/180)</f>
+        <v>471.805555555556</v>
       </c>
       <c r="G174" s="0" t="n">
-        <f aca="false">(C174+180)*3900/360</f>
-        <v>2567.5</v>
+        <f aca="false">(C174+170)*2000/360</f>
+        <v>1261.11111111111</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,12 +5629,12 @@
         <v>1.88137949456795</v>
       </c>
       <c r="F175" s="0" t="n">
-        <f aca="false">1820-((B175+90)*1820/180)</f>
-        <v>606.666666666667</v>
+        <f aca="false">1075-((B175+80)*1075/180)</f>
+        <v>418.055555555556</v>
       </c>
       <c r="G175" s="0" t="n">
-        <f aca="false">(C175+180)*3900/360</f>
-        <v>2708.33333333333</v>
+        <f aca="false">(C175+170)*2000/360</f>
+        <v>1333.33333333333</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,12 +5656,12 @@
         <v>1.99716410566754</v>
       </c>
       <c r="F176" s="0" t="n">
-        <f aca="false">1820-((B176+90)*1820/180)</f>
-        <v>849.333333333333</v>
+        <f aca="false">1075-((B176+80)*1075/180)</f>
+        <v>561.388888888889</v>
       </c>
       <c r="G176" s="0" t="n">
-        <f aca="false">(C176+180)*3900/360</f>
-        <v>3401.66666666667</v>
+        <f aca="false">(C176+170)*2000/360</f>
+        <v>1688.88888888889</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,12 +5683,12 @@
         <v>1.98805884191009</v>
       </c>
       <c r="F177" s="0" t="n">
-        <f aca="false">1820-((B177+90)*1820/180)</f>
-        <v>819</v>
+        <f aca="false">1075-((B177+80)*1075/180)</f>
+        <v>543.472222222222</v>
       </c>
       <c r="G177" s="0" t="n">
-        <f aca="false">(C177+180)*3900/360</f>
-        <v>1083.33333333333</v>
+        <f aca="false">(C177+170)*2000/360</f>
+        <v>500</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,12 +5710,12 @@
         <v>1.998373975673</v>
       </c>
       <c r="F178" s="0" t="n">
-        <f aca="false">1820-((B178+90)*1820/180)</f>
-        <v>970.666666666667</v>
+        <f aca="false">1075-((B178+80)*1075/180)</f>
+        <v>633.055555555556</v>
       </c>
       <c r="G178" s="0" t="n">
-        <f aca="false">(C178+180)*3900/360</f>
-        <v>3542.5</v>
+        <f aca="false">(C178+170)*2000/360</f>
+        <v>1761.11111111111</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,12 +5737,12 @@
         <v>1.94264915606051</v>
       </c>
       <c r="F179" s="0" t="n">
-        <f aca="false">1820-((B179+90)*1820/180)</f>
-        <v>1142.48814477778</v>
+        <f aca="false">1075-((B179+80)*1075/180)</f>
+        <v>734.543516527778</v>
       </c>
       <c r="G179" s="0" t="n">
-        <f aca="false">(C179+180)*3900/360</f>
-        <v>1321.70578583333</v>
+        <f aca="false">(C179+170)*2000/360</f>
+        <v>622.242283333333</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,12 +5764,12 @@
         <v>1.98569477136978</v>
       </c>
       <c r="F180" s="0" t="n">
-        <f aca="false">1820-((B180+90)*1820/180)</f>
-        <v>1011.11111111111</v>
+        <f aca="false">1075-((B180+80)*1075/180)</f>
+        <v>656.944444444444</v>
       </c>
       <c r="G180" s="0" t="n">
-        <f aca="false">(C180+180)*3900/360</f>
-        <v>1126.66666666667</v>
+        <f aca="false">(C180+170)*2000/360</f>
+        <v>522.222222222222</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,12 +5791,12 @@
         <v>1.98154508466565</v>
       </c>
       <c r="F181" s="0" t="n">
-        <f aca="false">1820-((B181+90)*1820/180)</f>
-        <v>778.555555555556</v>
+        <f aca="false">1075-((B181+80)*1075/180)</f>
+        <v>519.583333333333</v>
       </c>
       <c r="G181" s="0" t="n">
-        <f aca="false">(C181+180)*3900/360</f>
-        <v>3271.66666666667</v>
+        <f aca="false">(C181+170)*2000/360</f>
+        <v>1622.22222222222</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,12 +5818,12 @@
         <v>1.94452533576144</v>
       </c>
       <c r="F182" s="0" t="n">
-        <f aca="false">1820-((B182+90)*1820/180)</f>
-        <v>1163.45185522222</v>
+        <f aca="false">1075-((B182+80)*1075/180)</f>
+        <v>746.925927916667</v>
       </c>
       <c r="G182" s="0" t="n">
-        <f aca="false">(C182+180)*3900/360</f>
-        <v>540.583333333333</v>
+        <f aca="false">(C182+170)*2000/360</f>
+        <v>221.666666666667</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,12 +5845,12 @@
         <v>1.95220913798219</v>
       </c>
       <c r="F183" s="0" t="n">
-        <f aca="false">1820-((B183+90)*1820/180)</f>
-        <v>384.222222222222</v>
+        <f aca="false">1075-((B183+80)*1075/180)</f>
+        <v>286.666666666667</v>
       </c>
       <c r="G183" s="0" t="n">
-        <f aca="false">(C183+180)*3900/360</f>
-        <v>2166.66666666667</v>
+        <f aca="false">(C183+170)*2000/360</f>
+        <v>1055.55555555556</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,12 +5872,12 @@
         <v>1.99540065120642</v>
       </c>
       <c r="F184" s="0" t="n">
-        <f aca="false">1820-((B184+90)*1820/180)</f>
-        <v>510.611111111111</v>
+        <f aca="false">1075-((B184+80)*1075/180)</f>
+        <v>361.319444444444</v>
       </c>
       <c r="G184" s="0" t="n">
-        <f aca="false">(C184+180)*3900/360</f>
-        <v>1863.33333333333</v>
+        <f aca="false">(C184+170)*2000/360</f>
+        <v>900</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,12 +5899,12 @@
         <v>1.95764796822695</v>
       </c>
       <c r="F185" s="0" t="n">
-        <f aca="false">1820-((B185+90)*1820/180)</f>
-        <v>725.489530422222</v>
+        <f aca="false">1075-((B185+80)*1075/180)</f>
+        <v>488.239389916667</v>
       </c>
       <c r="G185" s="0" t="n">
-        <f aca="false">(C185+180)*3900/360</f>
-        <v>1229.58448058333</v>
+        <f aca="false">(C185+170)*2000/360</f>
+        <v>575.000588333333</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,12 +5926,12 @@
         <v>1.94036500998409</v>
       </c>
       <c r="F186" s="0" t="n">
-        <f aca="false">1820-((B186+90)*1820/180)</f>
-        <v>652.166666666667</v>
+        <f aca="false">1075-((B186+80)*1075/180)</f>
+        <v>444.930555555556</v>
       </c>
       <c r="G186" s="0" t="n">
-        <f aca="false">(C186+180)*3900/360</f>
-        <v>2505.20833333333</v>
+        <f aca="false">(C186+170)*2000/360</f>
+        <v>1229.16666666667</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5953,12 +5953,12 @@
         <v>1.9999897972684</v>
       </c>
       <c r="F187" s="0" t="n">
-        <f aca="false">1820-((B187+90)*1820/180)</f>
-        <v>920.111111111111</v>
+        <f aca="false">1075-((B187+80)*1075/180)</f>
+        <v>603.194444444445</v>
       </c>
       <c r="G187" s="0" t="n">
-        <f aca="false">(C187+180)*3900/360</f>
-        <v>2112.5</v>
+        <f aca="false">(C187+170)*2000/360</f>
+        <v>1027.77777777778</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,12 +5980,12 @@
         <v>1.95418867081591</v>
       </c>
       <c r="F188" s="0" t="n">
-        <f aca="false">1820-((B188+90)*1820/180)</f>
-        <v>1123.34444444444</v>
+        <f aca="false">1075-((B188+80)*1075/180)</f>
+        <v>723.236111111111</v>
       </c>
       <c r="G188" s="0" t="n">
-        <f aca="false">(C188+180)*3900/360</f>
-        <v>2552.33333333333</v>
+        <f aca="false">(C188+170)*2000/360</f>
+        <v>1253.33333333333</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,12 +6007,12 @@
         <v>1.94298797976166</v>
       </c>
       <c r="F189" s="0" t="n">
-        <f aca="false">1820-((B189+90)*1820/180)</f>
-        <v>444.888888888889</v>
+        <f aca="false">1075-((B189+80)*1075/180)</f>
+        <v>322.5</v>
       </c>
       <c r="G189" s="0" t="n">
-        <f aca="false">(C189+180)*3900/360</f>
-        <v>2220.83333333333</v>
+        <f aca="false">(C189+170)*2000/360</f>
+        <v>1083.33333333333</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,12 +6034,12 @@
         <v>1.51371398777017</v>
       </c>
       <c r="F190" s="0" t="n">
-        <f aca="false">1820-((B190+90)*1820/180)</f>
-        <v>303.333333333333</v>
+        <f aca="false">1075-((B190+80)*1075/180)</f>
+        <v>238.888888888889</v>
       </c>
       <c r="G190" s="0" t="n">
-        <f aca="false">(C190+180)*3900/360</f>
-        <v>3033.33333333333</v>
+        <f aca="false">(C190+170)*2000/360</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,12 +6061,12 @@
         <v>1.99984769515639</v>
       </c>
       <c r="F191" s="0" t="n">
-        <f aca="false">1820-((B191+90)*1820/180)</f>
-        <v>930.222222222222</v>
+        <f aca="false">1075-((B191+80)*1075/180)</f>
+        <v>609.166666666667</v>
       </c>
       <c r="G191" s="0" t="n">
-        <f aca="false">(C191+180)*3900/360</f>
-        <v>2275</v>
+        <f aca="false">(C191+170)*2000/360</f>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,12 +6088,12 @@
         <v>1.96162019396799</v>
       </c>
       <c r="F192" s="0" t="n">
-        <f aca="false">1820-((B192+90)*1820/180)</f>
-        <v>729.011111111111</v>
+        <f aca="false">1075-((B192+80)*1075/180)</f>
+        <v>490.319444444445</v>
       </c>
       <c r="G192" s="0" t="n">
-        <f aca="false">(C192+180)*3900/360</f>
-        <v>1269.30555916667</v>
+        <f aca="false">(C192+170)*2000/360</f>
+        <v>595.370372222222</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,12 +6115,12 @@
         <v>1.96405075649357</v>
       </c>
       <c r="F193" s="0" t="n">
-        <f aca="false">1820-((B193+90)*1820/180)</f>
-        <v>734.740744111111</v>
+        <f aca="false">1075-((B193+80)*1075/180)</f>
+        <v>493.703705694445</v>
       </c>
       <c r="G193" s="0" t="n">
-        <f aca="false">(C193+180)*3900/360</f>
-        <v>1270.20833333333</v>
+        <f aca="false">(C193+170)*2000/360</f>
+        <v>595.833333333333</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,12 +6142,12 @@
         <v>1.97764135937918</v>
       </c>
       <c r="F194" s="0" t="n">
-        <f aca="false">1820-((B194+90)*1820/180)</f>
-        <v>769.624077444445</v>
+        <f aca="false">1075-((B194+80)*1075/180)</f>
+        <v>514.307872361111</v>
       </c>
       <c r="G194" s="0" t="n">
-        <f aca="false">(C194+180)*3900/360</f>
-        <v>1289.52777416667</v>
+        <f aca="false">(C194+170)*2000/360</f>
+        <v>605.740738888889</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,12 +6169,12 @@
         <v>1.96071481089326</v>
       </c>
       <c r="F195" s="0" t="n">
-        <f aca="false">1820-((B195+90)*1820/180)</f>
-        <v>727.241666666667</v>
+        <f aca="false">1075-((B195+80)*1075/180)</f>
+        <v>489.274305555556</v>
       </c>
       <c r="G195" s="0" t="n">
-        <f aca="false">(C195+180)*3900/360</f>
-        <v>1266.86809166667</v>
+        <f aca="false">(C195+170)*2000/360</f>
+        <v>594.120388888889</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,12 +6196,12 @@
         <v>1.77738430408719</v>
       </c>
       <c r="F196" s="0" t="n">
-        <f aca="false">1820-((B196+90)*1820/180)</f>
-        <v>436.462966333333</v>
+        <f aca="false">1075-((B196+80)*1075/180)</f>
+        <v>317.523150138889</v>
       </c>
       <c r="G196" s="0" t="n">
-        <f aca="false">(C196+180)*3900/360</f>
-        <v>1339.72222583333</v>
+        <f aca="false">(C196+170)*2000/360</f>
+        <v>631.481483333333</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,12 +6223,12 @@
         <v>1.98004626672654</v>
       </c>
       <c r="F197" s="0" t="n">
-        <f aca="false">1820-((B197+90)*1820/180)</f>
-        <v>777.712966333334</v>
+        <f aca="false">1075-((B197+80)*1075/180)</f>
+        <v>519.085650138889</v>
       </c>
       <c r="G197" s="0" t="n">
-        <f aca="false">(C197+180)*3900/360</f>
-        <v>1287</v>
+        <f aca="false">(C197+170)*2000/360</f>
+        <v>604.444444444444</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,12 +6250,12 @@
         <v>1.99946260284417</v>
       </c>
       <c r="F198" s="0" t="n">
-        <f aca="false">1820-((B198+90)*1820/180)</f>
-        <v>1049.56463733333</v>
+        <f aca="false">1075-((B198+80)*1075/180)</f>
+        <v>679.657378888889</v>
       </c>
       <c r="G198" s="0" t="n">
-        <f aca="false">(C198+180)*3900/360</f>
-        <v>84.7349858333332</v>
+        <f aca="false">(C198+170)*2000/360</f>
+        <v>-12.1017166666667</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,12 +6277,12 @@
         <v>1.98643922749653</v>
       </c>
       <c r="F199" s="0" t="n">
-        <f aca="false">1820-((B199+90)*1820/180)</f>
-        <v>465.785188555555</v>
+        <f aca="false">1075-((B199+80)*1075/180)</f>
+        <v>334.842594583333</v>
       </c>
       <c r="G199" s="0" t="n">
-        <f aca="false">(C199+180)*3900/360</f>
-        <v>2084.5138925</v>
+        <f aca="false">(C199+170)*2000/360</f>
+        <v>1013.42592777778</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,12 +6304,12 @@
         <v>1.99999773789105</v>
       </c>
       <c r="F200" s="0" t="n">
-        <f aca="false">1820-((B200+90)*1820/180)</f>
-        <v>899.888888888889</v>
+        <f aca="false">1075-((B200+80)*1075/180)</f>
+        <v>591.25</v>
       </c>
       <c r="G200" s="0" t="n">
-        <f aca="false">(C200+180)*3900/360</f>
-        <v>2025.83333333333</v>
+        <f aca="false">(C200+170)*2000/360</f>
+        <v>983.333333333333</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,12 +6331,12 @@
         <v>1.95277990281253</v>
       </c>
       <c r="F201" s="0" t="n">
-        <f aca="false">1820-((B201+90)*1820/180)</f>
-        <v>657.222222222222</v>
+        <f aca="false">1075-((B201+80)*1075/180)</f>
+        <v>447.916666666667</v>
       </c>
       <c r="G201" s="0" t="n">
-        <f aca="false">(C201+180)*3900/360</f>
-        <v>2437.5</v>
+        <f aca="false">(C201+170)*2000/360</f>
+        <v>1194.44444444444</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6358,12 +6358,12 @@
         <v>1.99825335478863</v>
       </c>
       <c r="F202" s="0" t="n">
-        <f aca="false">1820-((B202+90)*1820/180)</f>
-        <v>768.444444444444</v>
+        <f aca="false">1075-((B202+80)*1075/180)</f>
+        <v>513.611111111111</v>
       </c>
       <c r="G202" s="0" t="n">
-        <f aca="false">(C202+180)*3900/360</f>
-        <v>1798.33333333333</v>
+        <f aca="false">(C202+170)*2000/360</f>
+        <v>866.666666666667</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,12 +6385,12 @@
         <v>1.96236901333239</v>
       </c>
       <c r="F203" s="0" t="n">
-        <f aca="false">1820-((B203+90)*1820/180)</f>
-        <v>465.111111111111</v>
+        <f aca="false">1075-((B203+80)*1075/180)</f>
+        <v>334.444444444444</v>
       </c>
       <c r="G203" s="0" t="n">
-        <f aca="false">(C203+180)*3900/360</f>
-        <v>2177.5</v>
+        <f aca="false">(C203+170)*2000/360</f>
+        <v>1061.11111111111</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,12 +6412,12 @@
         <v>1.99781903765803</v>
       </c>
       <c r="F204" s="0" t="n">
-        <f aca="false">1820-((B204+90)*1820/180)</f>
-        <v>956.342589222222</v>
+        <f aca="false">1075-((B204+80)*1075/180)</f>
+        <v>624.594905416667</v>
       </c>
       <c r="G204" s="0" t="n">
-        <f aca="false">(C204+180)*3900/360</f>
-        <v>2553.05555916667</v>
+        <f aca="false">(C204+170)*2000/360</f>
+        <v>1253.70370555556</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6439,12 +6439,12 @@
         <v>1.99956263749363</v>
       </c>
       <c r="F205" s="0" t="n">
-        <f aca="false">1820-((B205+90)*1820/180)</f>
-        <v>824.055555555556</v>
+        <f aca="false">1075-((B205+80)*1075/180)</f>
+        <v>546.458333333333</v>
       </c>
       <c r="G205" s="0" t="n">
-        <f aca="false">(C205+180)*3900/360</f>
-        <v>1825.41666666667</v>
+        <f aca="false">(C205+170)*2000/360</f>
+        <v>880.555555555556</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,12 +6466,12 @@
         <v>1.99973171937799</v>
       </c>
       <c r="F206" s="0" t="n">
-        <f aca="false">1820-((B206+90)*1820/180)</f>
-        <v>896.181478111111</v>
+        <f aca="false">1075-((B206+80)*1075/180)</f>
+        <v>589.060183194444</v>
       </c>
       <c r="G206" s="0" t="n">
-        <f aca="false">(C206+180)*3900/360</f>
-        <v>3074.5</v>
+        <f aca="false">(C206+170)*2000/360</f>
+        <v>1521.11111111111</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,12 +6493,12 @@
         <v>1.96085285533821</v>
       </c>
       <c r="F207" s="0" t="n">
-        <f aca="false">1820-((B207+90)*1820/180)</f>
-        <v>727.57867</v>
+        <f aca="false">1075-((B207+80)*1075/180)</f>
+        <v>489.473359722222</v>
       </c>
       <c r="G207" s="0" t="n">
-        <f aca="false">(C207+180)*3900/360</f>
-        <v>1266.77774166667</v>
+        <f aca="false">(C207+170)*2000/360</f>
+        <v>594.074055555556</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,12 +6520,12 @@
         <v>1.96007296551452</v>
       </c>
       <c r="F208" s="0" t="n">
-        <f aca="false">1820-((B208+90)*1820/180)</f>
-        <v>417.925922555556</v>
+        <f aca="false">1075-((B208+80)*1075/180)</f>
+        <v>306.574072083333</v>
       </c>
       <c r="G208" s="0" t="n">
-        <f aca="false">(C208+180)*3900/360</f>
-        <v>2161.25</v>
+        <f aca="false">(C208+170)*2000/360</f>
+        <v>1052.77777777778</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,12 +6547,12 @@
         <v>1.97778220552085</v>
       </c>
       <c r="F209" s="0" t="n">
-        <f aca="false">1820-((B209+90)*1820/180)</f>
-        <v>442.361111111111</v>
+        <f aca="false">1075-((B209+80)*1075/180)</f>
+        <v>321.006944444444</v>
       </c>
       <c r="G209" s="0" t="n">
-        <f aca="false">(C209+180)*3900/360</f>
-        <v>2114.30555916667</v>
+        <f aca="false">(C209+170)*2000/360</f>
+        <v>1028.70370555556</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,12 +6574,12 @@
         <v>1.99874838021084</v>
       </c>
       <c r="F210" s="0" t="n">
-        <f aca="false">1820-((B210+90)*1820/180)</f>
-        <v>990.888888888889</v>
+        <f aca="false">1075-((B210+80)*1075/180)</f>
+        <v>645</v>
       </c>
       <c r="G210" s="0" t="n">
-        <f aca="false">(C210+180)*3900/360</f>
-        <v>3672.5</v>
+        <f aca="false">(C210+170)*2000/360</f>
+        <v>1827.77777777778</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,12 +6601,12 @@
         <v>1.99697340045582</v>
       </c>
       <c r="F211" s="0" t="n">
-        <f aca="false">1820-((B211+90)*1820/180)</f>
-        <v>849.333333333333</v>
+        <f aca="false">1075-((B211+80)*1075/180)</f>
+        <v>561.388888888889</v>
       </c>
       <c r="G211" s="0" t="n">
-        <f aca="false">(C211+180)*3900/360</f>
-        <v>2470</v>
+        <f aca="false">(C211+170)*2000/360</f>
+        <v>1211.11111111111</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,12 +6628,12 @@
         <v>1.97377330135855</v>
       </c>
       <c r="F212" s="0" t="n">
-        <f aca="false">1820-((B212+90)*1820/180)</f>
-        <v>1213.33333333333</v>
+        <f aca="false">1075-((B212+80)*1075/180)</f>
+        <v>776.388888888889</v>
       </c>
       <c r="G212" s="0" t="n">
-        <f aca="false">(C212+180)*3900/360</f>
-        <v>2231.66666666667</v>
+        <f aca="false">(C212+170)*2000/360</f>
+        <v>1088.88888888889</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,12 +6655,12 @@
         <v>1.86163105644051</v>
       </c>
       <c r="F213" s="0" t="n">
-        <f aca="false">1820-((B213+90)*1820/180)</f>
-        <v>1476.22222222222</v>
+        <f aca="false">1075-((B213+80)*1075/180)</f>
+        <v>931.666666666667</v>
       </c>
       <c r="G213" s="0" t="n">
-        <f aca="false">(C213+180)*3900/360</f>
-        <v>1592.5</v>
+        <f aca="false">(C213+170)*2000/360</f>
+        <v>761.111111111111</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,12 +6682,12 @@
         <v>1.87160702347226</v>
       </c>
       <c r="F214" s="0" t="n">
-        <f aca="false">1820-((B214+90)*1820/180)</f>
-        <v>535.888888888889</v>
+        <f aca="false">1075-((B214+80)*1075/180)</f>
+        <v>376.25</v>
       </c>
       <c r="G214" s="0" t="n">
-        <f aca="false">(C214+180)*3900/360</f>
-        <v>3331.25</v>
+        <f aca="false">(C214+170)*2000/360</f>
+        <v>1652.77777777778</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,12 +6709,12 @@
         <v>1.99756405025982</v>
       </c>
       <c r="F215" s="0" t="n">
-        <f aca="false">1820-((B215+90)*1820/180)</f>
-        <v>829.111111111111</v>
+        <f aca="false">1075-((B215+80)*1075/180)</f>
+        <v>549.444444444444</v>
       </c>
       <c r="G215" s="0" t="n">
-        <f aca="false">(C215+180)*3900/360</f>
-        <v>2275</v>
+        <f aca="false">(C215+170)*2000/360</f>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,12 +6736,12 @@
         <v>1.99881442802178</v>
       </c>
       <c r="F216" s="0" t="n">
-        <f aca="false">1820-((B216+90)*1820/180)</f>
-        <v>505.555555555556</v>
+        <f aca="false">1075-((B216+80)*1075/180)</f>
+        <v>358.333333333333</v>
       </c>
       <c r="G216" s="0" t="n">
-        <f aca="false">(C216+180)*3900/360</f>
-        <v>1906.66666666667</v>
+        <f aca="false">(C216+170)*2000/360</f>
+        <v>922.222222222222</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,12 +6763,12 @@
         <v>1.99272833889896</v>
       </c>
       <c r="F217" s="0" t="n">
-        <f aca="false">1820-((B217+90)*1820/180)</f>
-        <v>839.222222222222</v>
+        <f aca="false">1075-((B217+80)*1075/180)</f>
+        <v>555.416666666667</v>
       </c>
       <c r="G217" s="0" t="n">
-        <f aca="false">(C217+180)*3900/360</f>
-        <v>2827.5</v>
+        <f aca="false">(C217+170)*2000/360</f>
+        <v>1394.44444444444</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,12 +6790,12 @@
         <v>1.99026806874157</v>
       </c>
       <c r="F218" s="0" t="n">
-        <f aca="false">1820-((B218+90)*1820/180)</f>
-        <v>748.222222222222</v>
+        <f aca="false">1075-((B218+80)*1075/180)</f>
+        <v>501.666666666667</v>
       </c>
       <c r="G218" s="0" t="n">
-        <f aca="false">(C218+180)*3900/360</f>
-        <v>2275</v>
+        <f aca="false">(C218+170)*2000/360</f>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,12 +6817,12 @@
         <v>1.99832555105048</v>
       </c>
       <c r="F219" s="0" t="n">
-        <f aca="false">1820-((B219+90)*1820/180)</f>
-        <v>869.555555555556</v>
+        <f aca="false">1075-((B219+80)*1075/180)</f>
+        <v>573.333333333333</v>
       </c>
       <c r="G219" s="0" t="n">
-        <f aca="false">(C219+180)*3900/360</f>
-        <v>1343.33333333333</v>
+        <f aca="false">(C219+170)*2000/360</f>
+        <v>633.333333333333</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,12 +6844,12 @@
         <v>1.89354720883639</v>
       </c>
       <c r="F220" s="0" t="n">
-        <f aca="false">1820-((B220+90)*1820/180)</f>
-        <v>121.333333333333</v>
+        <f aca="false">1075-((B220+80)*1075/180)</f>
+        <v>131.388888888889</v>
       </c>
       <c r="G220" s="0" t="n">
-        <f aca="false">(C220+180)*3900/360</f>
-        <v>2166.66666666667</v>
+        <f aca="false">(C220+170)*2000/360</f>
+        <v>1055.55555555556</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,12 +6871,12 @@
         <v>1.97094157467218</v>
       </c>
       <c r="F221" s="0" t="n">
-        <f aca="false">1820-((B221+90)*1820/180)</f>
-        <v>1177.94444444444</v>
+        <f aca="false">1075-((B221+80)*1075/180)</f>
+        <v>755.486111111111</v>
       </c>
       <c r="G221" s="0" t="n">
-        <f aca="false">(C221+180)*3900/360</f>
-        <v>2291.25</v>
+        <f aca="false">(C221+170)*2000/360</f>
+        <v>1119.44444444444</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6898,12 +6898,12 @@
         <v>1.96103632346519</v>
       </c>
       <c r="F222" s="0" t="n">
-        <f aca="false">1820-((B222+90)*1820/180)</f>
-        <v>283.111111111111</v>
+        <f aca="false">1075-((B222+80)*1075/180)</f>
+        <v>226.944444444444</v>
       </c>
       <c r="G222" s="0" t="n">
-        <f aca="false">(C222+180)*3900/360</f>
-        <v>2112.5</v>
+        <f aca="false">(C222+170)*2000/360</f>
+        <v>1027.77777777778</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,12 +6925,12 @@
         <v>1.99349032488924</v>
       </c>
       <c r="F223" s="0" t="n">
-        <f aca="false">1820-((B223+90)*1820/180)</f>
-        <v>434.777777777778</v>
+        <f aca="false">1075-((B223+80)*1075/180)</f>
+        <v>316.527777777778</v>
       </c>
       <c r="G223" s="0" t="n">
-        <f aca="false">(C223+180)*3900/360</f>
-        <v>2036.66666666667</v>
+        <f aca="false">(C223+170)*2000/360</f>
+        <v>988.888888888889</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,12 +6952,12 @@
         <v>1.93010923013555</v>
       </c>
       <c r="F224" s="0" t="n">
-        <f aca="false">1820-((B224+90)*1820/180)</f>
-        <v>556.111111111111</v>
+        <f aca="false">1075-((B224+80)*1075/180)</f>
+        <v>388.194444444444</v>
       </c>
       <c r="G224" s="0" t="n">
-        <f aca="false">(C224+180)*3900/360</f>
-        <v>2361.66666666667</v>
+        <f aca="false">(C224+170)*2000/360</f>
+        <v>1155.55555555556</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,12 +6979,12 @@
         <v>1.93623127290103</v>
       </c>
       <c r="F225" s="0" t="n">
-        <f aca="false">1820-((B225+90)*1820/180)</f>
-        <v>667.333333333333</v>
+        <f aca="false">1075-((B225+80)*1075/180)</f>
+        <v>453.888888888889</v>
       </c>
       <c r="G225" s="0" t="n">
-        <f aca="false">(C225+180)*3900/360</f>
-        <v>3260.83333333333</v>
+        <f aca="false">(C225+170)*2000/360</f>
+        <v>1616.66666666667</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,12 +7006,12 @@
         <v>1.79994421439705</v>
       </c>
       <c r="F226" s="0" t="n">
-        <f aca="false">1820-((B226+90)*1820/180)</f>
-        <v>515.666666666667</v>
+        <f aca="false">1075-((B226+80)*1075/180)</f>
+        <v>364.305555555556</v>
       </c>
       <c r="G226" s="0" t="n">
-        <f aca="false">(C226+180)*3900/360</f>
-        <v>2719.16666666667</v>
+        <f aca="false">(C226+170)*2000/360</f>
+        <v>1338.88888888889</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,12 +7033,12 @@
         <v>1.99819665313488</v>
       </c>
       <c r="F227" s="0" t="n">
-        <f aca="false">1820-((B227+90)*1820/180)</f>
-        <v>970.666666666667</v>
+        <f aca="false">1075-((B227+80)*1075/180)</f>
+        <v>633.055555555556</v>
       </c>
       <c r="G227" s="0" t="n">
-        <f aca="false">(C227+180)*3900/360</f>
-        <v>2329.16666666667</v>
+        <f aca="false">(C227+170)*2000/360</f>
+        <v>1138.88888888889</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,12 +7060,12 @@
         <v>1.96694758996827</v>
       </c>
       <c r="F228" s="0" t="n">
-        <f aca="false">1820-((B228+90)*1820/180)</f>
-        <v>758.333333333333</v>
+        <f aca="false">1075-((B228+80)*1075/180)</f>
+        <v>507.638888888889</v>
       </c>
       <c r="G228" s="0" t="n">
-        <f aca="false">(C228+180)*3900/360</f>
-        <v>3033.33333333333</v>
+        <f aca="false">(C228+170)*2000/360</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,12 +7087,12 @@
         <v>1.99218257866116</v>
       </c>
       <c r="F229" s="0" t="n">
-        <f aca="false">1820-((B229+90)*1820/180)</f>
-        <v>999.314811444444</v>
+        <f aca="false">1075-((B229+80)*1075/180)</f>
+        <v>649.976849861111</v>
       </c>
       <c r="G229" s="0" t="n">
-        <f aca="false">(C229+180)*3900/360</f>
-        <v>3312.29166666667</v>
+        <f aca="false">(C229+170)*2000/360</f>
+        <v>1643.05555555556</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,12 +7114,12 @@
         <v>1.99999595896176</v>
       </c>
       <c r="F230" s="0" t="n">
-        <f aca="false">1820-((B230+90)*1820/180)</f>
-        <v>829.111111111111</v>
+        <f aca="false">1075-((B230+80)*1075/180)</f>
+        <v>549.444444444444</v>
       </c>
       <c r="G230" s="0" t="n">
-        <f aca="false">(C230+180)*3900/360</f>
-        <v>1962.6388925</v>
+        <f aca="false">(C230+170)*2000/360</f>
+        <v>950.925927777778</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,12 +7141,12 @@
         <v>1.99974599017549</v>
       </c>
       <c r="F231" s="0" t="n">
-        <f aca="false">1820-((B231+90)*1820/180)</f>
-        <v>1001</v>
+        <f aca="false">1075-((B231+80)*1075/180)</f>
+        <v>650.972222222222</v>
       </c>
       <c r="G231" s="0" t="n">
-        <f aca="false">(C231+180)*3900/360</f>
-        <v>89.375</v>
+        <f aca="false">(C231+170)*2000/360</f>
+        <v>-9.72222222222222</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,12 +7168,12 @@
         <v>1.99953725338566</v>
       </c>
       <c r="F232" s="0" t="n">
-        <f aca="false">1820-((B232+90)*1820/180)</f>
-        <v>1112.22222222222</v>
+        <f aca="false">1075-((B232+80)*1075/180)</f>
+        <v>716.666666666667</v>
       </c>
       <c r="G232" s="0" t="n">
-        <f aca="false">(C232+180)*3900/360</f>
-        <v>54.1666666666667</v>
+        <f aca="false">(C232+170)*2000/360</f>
+        <v>-27.7777777777778</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,12 +7195,12 @@
         <v>1.98593538135289</v>
       </c>
       <c r="F233" s="0" t="n">
-        <f aca="false">1820-((B233+90)*1820/180)</f>
-        <v>798.777777777778</v>
+        <f aca="false">1075-((B233+80)*1075/180)</f>
+        <v>531.527777777778</v>
       </c>
       <c r="G233" s="0" t="n">
-        <f aca="false">(C233+180)*3900/360</f>
-        <v>1289.16666666667</v>
+        <f aca="false">(C233+170)*2000/360</f>
+        <v>605.555555555556</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,12 +7222,12 @@
         <v>1.97474605320501</v>
       </c>
       <c r="F234" s="0" t="n">
-        <f aca="false">1820-((B234+90)*1820/180)</f>
-        <v>1070.429633</v>
+        <f aca="false">1075-((B234+80)*1075/180)</f>
+        <v>691.981483472222</v>
       </c>
       <c r="G234" s="0" t="n">
-        <f aca="false">(C234+180)*3900/360</f>
-        <v>2539.5138925</v>
+        <f aca="false">(C234+170)*2000/360</f>
+        <v>1246.75926111111</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,12 +7249,12 @@
         <v>1.99569438137619</v>
       </c>
       <c r="F235" s="0" t="n">
-        <f aca="false">1820-((B235+90)*1820/180)</f>
-        <v>566.222222222222</v>
+        <f aca="false">1075-((B235+80)*1075/180)</f>
+        <v>394.166666666667</v>
       </c>
       <c r="G235" s="0" t="n">
-        <f aca="false">(C235+180)*3900/360</f>
-        <v>2047.5</v>
+        <f aca="false">(C235+170)*2000/360</f>
+        <v>994.444444444444</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,12 +7276,12 @@
         <v>1.92485229251548</v>
       </c>
       <c r="F236" s="0" t="n">
-        <f aca="false">1820-((B236+90)*1820/180)</f>
-        <v>515.069989777778</v>
+        <f aca="false">1075-((B236+80)*1075/180)</f>
+        <v>363.953122777778</v>
       </c>
       <c r="G236" s="0" t="n">
-        <f aca="false">(C236+180)*3900/360</f>
-        <v>2328.208415</v>
+        <f aca="false">(C236+170)*2000/360</f>
+        <v>1138.39747777778</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,12 +7303,12 @@
         <v>1.82272965712005</v>
       </c>
       <c r="F237" s="0" t="n">
-        <f aca="false">1820-((B237+90)*1820/180)</f>
-        <v>505.555555555556</v>
+        <f aca="false">1075-((B237+80)*1075/180)</f>
+        <v>358.333333333333</v>
       </c>
       <c r="G237" s="0" t="n">
-        <f aca="false">(C237+180)*3900/360</f>
-        <v>2600</v>
+        <f aca="false">(C237+170)*2000/360</f>
+        <v>1277.77777777778</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7330,12 +7330,12 @@
         <v>1.93593517595981</v>
       </c>
       <c r="F238" s="0" t="n">
-        <f aca="false">1820-((B238+90)*1820/180)</f>
-        <v>690.251855222222</v>
+        <f aca="false">1075-((B238+80)*1075/180)</f>
+        <v>467.425927916667</v>
       </c>
       <c r="G238" s="0" t="n">
-        <f aca="false">(C238+180)*3900/360</f>
-        <v>1174.5138925</v>
+        <f aca="false">(C238+170)*2000/360</f>
+        <v>546.759261111111</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,12 +7357,12 @@
         <v>1.9999881274999</v>
       </c>
       <c r="F239" s="0" t="n">
-        <f aca="false">1820-((B239+90)*1820/180)</f>
-        <v>990.888888888889</v>
+        <f aca="false">1075-((B239+80)*1075/180)</f>
+        <v>645</v>
       </c>
       <c r="G239" s="0" t="n">
-        <f aca="false">(C239+180)*3900/360</f>
-        <v>3878.33333333333</v>
+        <f aca="false">(C239+170)*2000/360</f>
+        <v>1933.33333333333</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,12 +7384,12 @@
         <v>1.99981928709008</v>
       </c>
       <c r="F240" s="0" t="n">
-        <f aca="false">1820-((B240+90)*1820/180)</f>
-        <v>889.777777777778</v>
+        <f aca="false">1075-((B240+80)*1075/180)</f>
+        <v>585.277777777778</v>
       </c>
       <c r="G240" s="0" t="n">
-        <f aca="false">(C240+180)*3900/360</f>
-        <v>2307.5</v>
+        <f aca="false">(C240+170)*2000/360</f>
+        <v>1127.77777777778</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,12 +7411,12 @@
         <v>1.89905368687565</v>
       </c>
       <c r="F241" s="0" t="n">
-        <f aca="false">1820-((B241+90)*1820/180)</f>
-        <v>414.555555555556</v>
+        <f aca="false">1075-((B241+80)*1075/180)</f>
+        <v>304.583333333333</v>
       </c>
       <c r="G241" s="0" t="n">
-        <f aca="false">(C241+180)*3900/360</f>
-        <v>2296.66666666667</v>
+        <f aca="false">(C241+170)*2000/360</f>
+        <v>1122.22222222222</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,12 +7438,12 @@
         <v>1.94312749786843</v>
       </c>
       <c r="F242" s="0" t="n">
-        <f aca="false">1820-((B242+90)*1820/180)</f>
-        <v>667.333333333333</v>
+        <f aca="false">1075-((B242+80)*1075/180)</f>
+        <v>453.888888888889</v>
       </c>
       <c r="G242" s="0" t="n">
-        <f aca="false">(C242+180)*3900/360</f>
-        <v>2535</v>
+        <f aca="false">(C242+170)*2000/360</f>
+        <v>1244.44444444444</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,12 +7465,12 @@
         <v>1.99783964629259</v>
       </c>
       <c r="F243" s="0" t="n">
-        <f aca="false">1820-((B243+90)*1820/180)</f>
-        <v>364</v>
+        <f aca="false">1075-((B243+80)*1075/180)</f>
+        <v>274.722222222222</v>
       </c>
       <c r="G243" s="0" t="n">
-        <f aca="false">(C243+180)*3900/360</f>
-        <v>1906.66666666667</v>
+        <f aca="false">(C243+170)*2000/360</f>
+        <v>922.222222222222</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7492,12 +7492,12 @@
         <v>1.77292750930505</v>
       </c>
       <c r="F244" s="0" t="n">
-        <f aca="false">1820-((B244+90)*1820/180)</f>
-        <v>507.292897222222</v>
+        <f aca="false">1075-((B244+80)*1075/180)</f>
+        <v>359.359510416667</v>
       </c>
       <c r="G244" s="0" t="n">
-        <f aca="false">(C244+180)*3900/360</f>
-        <v>882.055416666667</v>
+        <f aca="false">(C244+170)*2000/360</f>
+        <v>396.780555555556</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,12 +7519,12 @@
         <v>1.88815056652205</v>
       </c>
       <c r="F245" s="0" t="n">
-        <f aca="false">1820-((B245+90)*1820/180)</f>
-        <v>1243.66666666667</v>
+        <f aca="false">1075-((B245+80)*1075/180)</f>
+        <v>794.305555555556</v>
       </c>
       <c r="G245" s="0" t="n">
-        <f aca="false">(C245+180)*3900/360</f>
-        <v>1343.33333333333</v>
+        <f aca="false">(C245+170)*2000/360</f>
+        <v>633.333333333333</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,12 +7546,12 @@
         <v>1.99950090619189</v>
       </c>
       <c r="F246" s="0" t="n">
-        <f aca="false">1820-((B246+90)*1820/180)</f>
-        <v>850.535432211111</v>
+        <f aca="false">1075-((B246+80)*1075/180)</f>
+        <v>562.098919819445</v>
       </c>
       <c r="G246" s="0" t="n">
-        <f aca="false">(C246+180)*3900/360</f>
-        <v>194.214583333333</v>
+        <f aca="false">(C246+170)*2000/360</f>
+        <v>44.0416666666667</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,12 +7573,12 @@
         <v>1.95818803584904</v>
       </c>
       <c r="F247" s="0" t="n">
-        <f aca="false">1820-((B247+90)*1820/180)</f>
-        <v>724.478410211111</v>
+        <f aca="false">1075-((B247+80)*1075/180)</f>
+        <v>487.642162319444</v>
       </c>
       <c r="G247" s="0" t="n">
-        <f aca="false">(C247+180)*3900/360</f>
-        <v>1246.01229241667</v>
+        <f aca="false">(C247+170)*2000/360</f>
+        <v>583.425107222222</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,12 +7600,12 @@
         <v>1.7940093833223</v>
       </c>
       <c r="F248" s="0" t="n">
-        <f aca="false">1820-((B248+90)*1820/180)</f>
-        <v>488.290408666667</v>
+        <f aca="false">1075-((B248+80)*1075/180)</f>
+        <v>348.135513055556</v>
       </c>
       <c r="G248" s="0" t="n">
-        <f aca="false">(C248+180)*3900/360</f>
-        <v>2641.69869166667</v>
+        <f aca="false">(C248+170)*2000/360</f>
+        <v>1299.16172222222</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7627,12 +7627,12 @@
         <v>1.99802758656878</v>
       </c>
       <c r="F249" s="0" t="n">
-        <f aca="false">1820-((B249+90)*1820/180)</f>
-        <v>1071.77777777778</v>
+        <f aca="false">1075-((B249+80)*1075/180)</f>
+        <v>692.777777777778</v>
       </c>
       <c r="G249" s="0" t="n">
-        <f aca="false">(C249+180)*3900/360</f>
-        <v>3759.16666666667</v>
+        <f aca="false">(C249+170)*2000/360</f>
+        <v>1872.22222222222</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,12 +7654,12 @@
         <v>1.98759775239685</v>
       </c>
       <c r="F250" s="0" t="n">
-        <f aca="false">1820-((B250+90)*1820/180)</f>
-        <v>486.344444444444</v>
+        <f aca="false">1075-((B250+80)*1075/180)</f>
+        <v>346.986111111111</v>
       </c>
       <c r="G250" s="0" t="n">
-        <f aca="false">(C250+180)*3900/360</f>
-        <v>2084.875</v>
+        <f aca="false">(C250+170)*2000/360</f>
+        <v>1013.61111111111</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,12 +7681,12 @@
         <v>1.99187588396629</v>
       </c>
       <c r="F251" s="0" t="n">
-        <f aca="false">1820-((B251+90)*1820/180)</f>
-        <v>829.111111111111</v>
+        <f aca="false">1075-((B251+80)*1075/180)</f>
+        <v>549.444444444444</v>
       </c>
       <c r="G251" s="0" t="n">
-        <f aca="false">(C251+180)*3900/360</f>
-        <v>1235</v>
+        <f aca="false">(C251+170)*2000/360</f>
+        <v>577.777777777778</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,12 +7708,12 @@
         <v>1.9641422886807</v>
       </c>
       <c r="F252" s="0" t="n">
-        <f aca="false">1820-((B252+90)*1820/180)</f>
-        <v>746.537033666667</v>
+        <f aca="false">1075-((B252+80)*1075/180)</f>
+        <v>500.671294305556</v>
       </c>
       <c r="G252" s="0" t="n">
-        <f aca="false">(C252+180)*3900/360</f>
-        <v>3118.19444083333</v>
+        <f aca="false">(C252+170)*2000/360</f>
+        <v>1543.51851666667</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,12 +7735,12 @@
         <v>1.99988166736985</v>
       </c>
       <c r="F253" s="0" t="n">
-        <f aca="false">1820-((B253+90)*1820/180)</f>
-        <v>1044.47777777778</v>
+        <f aca="false">1075-((B253+80)*1075/180)</f>
+        <v>676.652777777778</v>
       </c>
       <c r="G253" s="0" t="n">
-        <f aca="false">(C253+180)*3900/360</f>
-        <v>41.1666666666668</v>
+        <f aca="false">(C253+170)*2000/360</f>
+        <v>-34.4444444444444</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,12 +7762,12 @@
         <v>1.94955547127155</v>
       </c>
       <c r="F254" s="0" t="n">
-        <f aca="false">1820-((B254+90)*1820/180)</f>
-        <v>589.814811444444</v>
+        <f aca="false">1075-((B254+80)*1075/180)</f>
+        <v>408.101849861111</v>
       </c>
       <c r="G254" s="0" t="n">
-        <f aca="false">(C254+180)*3900/360</f>
-        <v>2331.875</v>
+        <f aca="false">(C254+170)*2000/360</f>
+        <v>1140.27777777778</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,12 +7789,12 @@
         <v>1.994816778927</v>
       </c>
       <c r="F255" s="0" t="n">
-        <f aca="false">1820-((B255+90)*1820/180)</f>
-        <v>657.222222222222</v>
+        <f aca="false">1075-((B255+80)*1075/180)</f>
+        <v>447.916666666667</v>
       </c>
       <c r="G255" s="0" t="n">
-        <f aca="false">(C255+180)*3900/360</f>
-        <v>1803.75</v>
+        <f aca="false">(C255+170)*2000/360</f>
+        <v>869.444444444444</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,12 +7816,12 @@
         <v>1.98017516001754</v>
       </c>
       <c r="F256" s="0" t="n">
-        <f aca="false">1820-((B256+90)*1820/180)</f>
-        <v>753.277777777778</v>
+        <f aca="false">1075-((B256+80)*1075/180)</f>
+        <v>504.652777777778</v>
       </c>
       <c r="G256" s="0" t="n">
-        <f aca="false">(C256+180)*3900/360</f>
-        <v>2464.58333333333</v>
+        <f aca="false">(C256+170)*2000/360</f>
+        <v>1208.33333333333</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,12 +7843,12 @@
         <v>1.99144486137381</v>
       </c>
       <c r="F257" s="0" t="n">
-        <f aca="false">1820-((B257+90)*1820/180)</f>
-        <v>1061.66666666667</v>
+        <f aca="false">1075-((B257+80)*1075/180)</f>
+        <v>686.805555555556</v>
       </c>
       <c r="G257" s="0" t="n">
-        <f aca="false">(C257+180)*3900/360</f>
-        <v>2275</v>
+        <f aca="false">(C257+170)*2000/360</f>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7870,12 +7870,12 @@
         <v>1.98710448246553</v>
       </c>
       <c r="F258" s="0" t="n">
-        <f aca="false">1820-((B258+90)*1820/180)</f>
-        <v>1102.11111111111</v>
+        <f aca="false">1075-((B258+80)*1075/180)</f>
+        <v>710.694444444444</v>
       </c>
       <c r="G258" s="0" t="n">
-        <f aca="false">(C258+180)*3900/360</f>
-        <v>2264.16666666667</v>
+        <f aca="false">(C258+170)*2000/360</f>
+        <v>1105.55555555556</v>
       </c>
     </row>
   </sheetData>

--- a/country_centroids_all2.xlsx
+++ b/country_centroids_all2.xlsx
@@ -905,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B246" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G2:G258"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B250" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -958,12 +958,12 @@
         <v>1.86473973700076</v>
       </c>
       <c r="F2" s="0" t="n">
-        <f aca="false">1075-((B2+80)*1075/180)</f>
-        <v>400.138888888889</v>
+        <f aca="false">735*((90-B2)/180)</f>
+        <v>232.75</v>
       </c>
       <c r="G2" s="0" t="n">
-        <f aca="false">(C2+170)*2000/360</f>
-        <v>1311.11111111111</v>
+        <f aca="false">1470*(C2+180)/360</f>
+        <v>1004.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,12 +985,12 @@
         <v>1.97019927081486</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">1075-((B3+80)*1075/180)</f>
-        <v>352.361111111111</v>
+        <f aca="false">735*((90-B3)/180)</f>
+        <v>200.083333333333</v>
       </c>
       <c r="G3" s="0" t="n">
-        <f aca="false">(C3+170)*2000/360</f>
-        <v>1055.55555555556</v>
+        <f aca="false">1470*(C3+180)/360</f>
+        <v>816.666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,12 +1012,12 @@
         <v>1.99967294751352</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">1075-((B4+80)*1075/180)</f>
-        <v>430</v>
+        <f aca="false">735*((90-B4)/180)</f>
+        <v>253.166666666667</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">(C4+170)*2000/360</f>
-        <v>961.111111111111</v>
+        <f aca="false">1470*(C4+180)/360</f>
+        <v>747.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,12 +1039,12 @@
         <v>1.99905660992572</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">1075-((B5+80)*1075/180)</f>
-        <v>682.824073875</v>
+        <f aca="false">735*((90-B5)/180)</f>
+        <v>426.027777641667</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">(C5+170)*2000/360</f>
-        <v>0</v>
+        <f aca="false">1470*(C5+180)/360</f>
+        <v>40.8333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,12 +1066,12 @@
         <v>1.99981149321553</v>
       </c>
       <c r="F6" s="0" t="n">
-        <f aca="false">1075-((B6+80)*1075/180)</f>
-        <v>343.402777777778</v>
+        <f aca="false">735*((90-B6)/180)</f>
+        <v>193.958333333333</v>
       </c>
       <c r="G6" s="0" t="n">
-        <f aca="false">(C6+170)*2000/360</f>
-        <v>952.777777777778</v>
+        <f aca="false">1470*(C6+180)/360</f>
+        <v>741.125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,12 +1093,12 @@
         <v>1.99760489687862</v>
       </c>
       <c r="F7" s="0" t="n">
-        <f aca="false">1075-((B7+80)*1075/180)</f>
-        <v>671.875</v>
+        <f aca="false">735*((90-B7)/180)</f>
+        <v>418.541666666667</v>
       </c>
       <c r="G7" s="0" t="n">
-        <f aca="false">(C7+170)*2000/360</f>
-        <v>1047.22222222222</v>
+        <f aca="false">1470*(C7+180)/360</f>
+        <v>810.541666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,12 +1120,12 @@
         <v>1.96010658565437</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">1075-((B8+80)*1075/180)</f>
-        <v>488.42823875</v>
+        <f aca="false">735*((90-B8)/180)</f>
+        <v>293.115276416667</v>
       </c>
       <c r="G8" s="0" t="n">
-        <f aca="false">(C8+170)*2000/360</f>
-        <v>594.166666666667</v>
+        <f aca="false">1470*(C8+180)/360</f>
+        <v>477.545833333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,12 +1147,12 @@
         <v>1.96580726554379</v>
       </c>
       <c r="F9" s="0" t="n">
-        <f aca="false">1075-((B9+80)*1075/180)</f>
-        <v>495.395833333333</v>
+        <f aca="false">735*((90-B9)/180)</f>
+        <v>297.879166666667</v>
       </c>
       <c r="G9" s="0" t="n">
-        <f aca="false">(C9+170)*2000/360</f>
-        <v>601.111111111111</v>
+        <f aca="false">1470*(C9+180)/360</f>
+        <v>482.65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,12 +1174,12 @@
         <v>1.86110609052043</v>
       </c>
       <c r="F10" s="0" t="n">
-        <f aca="false">1075-((B10+80)*1075/180)</f>
-        <v>800.277777777778</v>
+        <f aca="false">735*((90-B10)/180)</f>
+        <v>506.333333333333</v>
       </c>
       <c r="G10" s="0" t="n">
-        <f aca="false">(C10+170)*2000/360</f>
-        <v>588.888888888889</v>
+        <f aca="false">1470*(C10+180)/360</f>
+        <v>473.666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,12 +1201,12 @@
         <v>1.88060746632399</v>
       </c>
       <c r="F11" s="0" t="n">
-        <f aca="false">1075-((B11+80)*1075/180)</f>
-        <v>358.333333333333</v>
+        <f aca="false">735*((90-B11)/180)</f>
+        <v>204.166666666667</v>
       </c>
       <c r="G11" s="0" t="n">
-        <f aca="false">(C11+170)*2000/360</f>
-        <v>1194.44444444444</v>
+        <f aca="false">1470*(C11+180)/360</f>
+        <v>918.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,12 +1228,12 @@
         <v>1.97906796984439</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">1075-((B12+80)*1075/180)</f>
-        <v>522.569444444444</v>
+        <f aca="false">735*((90-B12)/180)</f>
+        <v>316.458333333333</v>
       </c>
       <c r="G12" s="0" t="n">
-        <f aca="false">(C12+170)*2000/360</f>
-        <v>555.740738888889</v>
+        <f aca="false">1470*(C12+180)/360</f>
+        <v>449.302776416667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,12 +1255,12 @@
         <v>1.99961780088151</v>
       </c>
       <c r="F13" s="0" t="n">
-        <f aca="false">1075-((B13+80)*1075/180)</f>
-        <v>692.479166666667</v>
+        <f aca="false">735*((90-B13)/180)</f>
+        <v>432.629166666667</v>
       </c>
       <c r="G13" s="0" t="n">
-        <f aca="false">(C13+170)*2000/360</f>
-        <v>912.777777777778</v>
+        <f aca="false">1470*(C13+180)/360</f>
+        <v>711.725</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,12 +1282,12 @@
         <v>1.983653368319</v>
       </c>
       <c r="F14" s="0" t="n">
-        <f aca="false">1075-((B14+80)*1075/180)</f>
-        <v>671.377316805556</v>
+        <f aca="false">735*((90-B14)/180)</f>
+        <v>418.20139025</v>
       </c>
       <c r="G14" s="0" t="n">
-        <f aca="false">(C14+170)*2000/360</f>
-        <v>1629.62962777778</v>
+        <f aca="false">1470*(C14+180)/360</f>
+        <v>1238.61110975</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,12 +1309,12 @@
         <v>1.95277990281253</v>
       </c>
       <c r="F15" s="0" t="n">
-        <f aca="false">1075-((B15+80)*1075/180)</f>
-        <v>746.527777777778</v>
+        <f aca="false">735*((90-B15)/180)</f>
+        <v>469.583333333333</v>
       </c>
       <c r="G15" s="0" t="n">
-        <f aca="false">(C15+170)*2000/360</f>
-        <v>1694.44444444444</v>
+        <f aca="false">1470*(C15+180)/360</f>
+        <v>1286.25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,12 +1336,12 @@
         <v>1.98190647205815</v>
       </c>
       <c r="F16" s="0" t="n">
-        <f aca="false">1075-((B16+80)*1075/180)</f>
-        <v>314.537039027778</v>
+        <f aca="false">735*((90-B16)/180)</f>
+        <v>174.222223583333</v>
       </c>
       <c r="G16" s="0" t="n">
-        <f aca="false">(C16+170)*2000/360</f>
-        <v>1018.51851666667</v>
+        <f aca="false">1470*(C16+180)/360</f>
+        <v>789.444443083333</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,12 +1363,12 @@
         <v>1.86724687534658</v>
       </c>
       <c r="F17" s="0" t="n">
-        <f aca="false">1075-((B17+80)*1075/180)</f>
-        <v>355.347222222222</v>
+        <f aca="false">735*((90-B17)/180)</f>
+        <v>202.125</v>
       </c>
       <c r="G17" s="0" t="n">
-        <f aca="false">(C17+170)*2000/360</f>
-        <v>1208.33333333333</v>
+        <f aca="false">1470*(C17+180)/360</f>
+        <v>928.958333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,12 +1390,12 @@
         <v>1.91853543186283</v>
       </c>
       <c r="F18" s="0" t="n">
-        <f aca="false">1075-((B18+80)*1075/180)</f>
-        <v>453.888888888889</v>
+        <f aca="false">735*((90-B18)/180)</f>
+        <v>269.5</v>
       </c>
       <c r="G18" s="0" t="n">
-        <f aca="false">(C18+170)*2000/360</f>
-        <v>522.222222222222</v>
+        <f aca="false">1470*(C18+180)/360</f>
+        <v>424.666666666667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,12 +1417,12 @@
         <v>1.93932053734366</v>
       </c>
       <c r="F19" s="0" t="n">
-        <f aca="false">1075-((B19+80)*1075/180)</f>
-        <v>441.944444444444</v>
+        <f aca="false">735*((90-B19)/180)</f>
+        <v>261.333333333333</v>
       </c>
       <c r="G19" s="0" t="n">
-        <f aca="false">(C19+170)*2000/360</f>
-        <v>1225</v>
+        <f aca="false">1470*(C19+180)/360</f>
+        <v>941.208333333333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,12 +1444,12 @@
         <v>1.9135454576426</v>
       </c>
       <c r="F20" s="0" t="n">
-        <f aca="false">1075-((B20+80)*1075/180)</f>
-        <v>453.888888888889</v>
+        <f aca="false">735*((90-B20)/180)</f>
+        <v>269.5</v>
       </c>
       <c r="G20" s="0" t="n">
-        <f aca="false">(C20+170)*2000/360</f>
-        <v>1444.44444444444</v>
+        <f aca="false">1470*(C20+180)/360</f>
+        <v>1102.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,12 +1471,12 @@
         <v>1.98044785782211</v>
       </c>
       <c r="F21" s="0" t="n">
-        <f aca="false">1075-((B21+80)*1075/180)</f>
-        <v>518.587960972222</v>
+        <f aca="false">735*((90-B21)/180)</f>
+        <v>313.73610975</v>
       </c>
       <c r="G21" s="0" t="n">
-        <f aca="false">(C21+170)*2000/360</f>
-        <v>613.703705555556</v>
+        <f aca="false">1470*(C21+180)/360</f>
+        <v>491.905556916667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,12 +1498,12 @@
         <v>1.97163058690053</v>
       </c>
       <c r="F22" s="0" t="n">
-        <f aca="false">1075-((B22+80)*1075/180)</f>
-        <v>725.127316805556</v>
+        <f aca="false">735*((90-B22)/180)</f>
+        <v>454.95139025</v>
       </c>
       <c r="G22" s="0" t="n">
-        <f aca="false">(C22+170)*2000/360</f>
-        <v>1165</v>
+        <f aca="false">1470*(C22+180)/360</f>
+        <v>897.108333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,12 +1525,12 @@
         <v>1.90717629450032</v>
       </c>
       <c r="F23" s="0" t="n">
-        <f aca="false">1075-((B23+80)*1075/180)</f>
-        <v>280.694444444444</v>
+        <f aca="false">735*((90-B23)/180)</f>
+        <v>151.083333333333</v>
       </c>
       <c r="G23" s="0" t="n">
-        <f aca="false">(C23+170)*2000/360</f>
-        <v>1100</v>
+        <f aca="false">1470*(C23+180)/360</f>
+        <v>849.333333333333</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,12 +1552,12 @@
         <v>1.99808551342673</v>
       </c>
       <c r="F24" s="0" t="n">
-        <f aca="false">1075-((B24+80)*1075/180)</f>
-        <v>293.63426125</v>
+        <f aca="false">735*((90-B24)/180)</f>
+        <v>159.930556916667</v>
       </c>
       <c r="G24" s="0" t="n">
-        <f aca="false">(C24+170)*2000/360</f>
-        <v>966.666666666667</v>
+        <f aca="false">1470*(C24+180)/360</f>
+        <v>751.333333333333</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,12 +1579,12 @@
         <v>1.95504118812438</v>
       </c>
       <c r="F25" s="0" t="n">
-        <f aca="false">1075-((B25+80)*1075/180)</f>
-        <v>494.201388888889</v>
+        <f aca="false">735*((90-B25)/180)</f>
+        <v>297.0625</v>
       </c>
       <c r="G25" s="0" t="n">
-        <f aca="false">(C25+170)*2000/360</f>
-        <v>451.388888888889</v>
+        <f aca="false">1470*(C25+180)/360</f>
+        <v>372.604166666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,12 +1606,12 @@
         <v>1.9999788131237</v>
       </c>
       <c r="F26" s="0" t="n">
-        <f aca="false">1075-((B26+80)*1075/180)</f>
-        <v>540.486111111111</v>
+        <f aca="false">735*((90-B26)/180)</f>
+        <v>328.708333333333</v>
       </c>
       <c r="G26" s="0" t="n">
-        <f aca="false">(C26+170)*2000/360</f>
-        <v>956.944444444444</v>
+        <f aca="false">1470*(C26+180)/360</f>
+        <v>744.1875</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,12 +1633,12 @@
         <v>1.87254674936515</v>
       </c>
       <c r="F27" s="0" t="n">
-        <f aca="false">1075-((B27+80)*1075/180)</f>
-        <v>404.120372361111</v>
+        <f aca="false">735*((90-B27)/180)</f>
+        <v>235.472223583333</v>
       </c>
       <c r="G27" s="0" t="n">
-        <f aca="false">(C27+170)*2000/360</f>
-        <v>584.722222222222</v>
+        <f aca="false">1470*(C27+180)/360</f>
+        <v>470.604166666667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,12 +1660,12 @@
         <v>1.887019271771</v>
       </c>
       <c r="F28" s="0" t="n">
-        <f aca="false">1075-((B28+80)*1075/180)</f>
-        <v>432.986111111111</v>
+        <f aca="false">735*((90-B28)/180)</f>
+        <v>255.208333333333</v>
       </c>
       <c r="G28" s="0" t="n">
-        <f aca="false">(C28+170)*2000/360</f>
-        <v>1447.22222222222</v>
+        <f aca="false">1470*(C28+180)/360</f>
+        <v>1104.54166666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,12 +1687,12 @@
         <v>1.96406187571347</v>
       </c>
       <c r="F29" s="0" t="n">
-        <f aca="false">1075-((B29+80)*1075/180)</f>
-        <v>698.75</v>
+        <f aca="false">735*((90-B29)/180)</f>
+        <v>436.916666666667</v>
       </c>
       <c r="G29" s="0" t="n">
-        <f aca="false">(C29+170)*2000/360</f>
-        <v>583.333333333333</v>
+        <f aca="false">1470*(C29+180)/360</f>
+        <v>469.583333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,12 +1714,12 @@
         <v>1.98050686376849</v>
       </c>
       <c r="F30" s="0" t="n">
-        <f aca="false">1075-((B30+80)*1075/180)</f>
-        <v>524.361111111111</v>
+        <f aca="false">735*((90-B30)/180)</f>
+        <v>317.683333333333</v>
       </c>
       <c r="G30" s="0" t="n">
-        <f aca="false">(C30+170)*2000/360</f>
-        <v>565.277777777778</v>
+        <f aca="false">1470*(C30+180)/360</f>
+        <v>456.3125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,12 +1741,12 @@
         <v>1.97215959039011</v>
       </c>
       <c r="F31" s="0" t="n">
-        <f aca="false">1075-((B31+80)*1075/180)</f>
-        <v>332.951388888889</v>
+        <f aca="false">735*((90-B31)/180)</f>
+        <v>186.8125</v>
       </c>
       <c r="G31" s="0" t="n">
-        <f aca="false">(C31+170)*2000/360</f>
-        <v>1043.51851666667</v>
+        <f aca="false">1470*(C31+180)/360</f>
+        <v>807.819443083333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,12 +1768,12 @@
         <v>1.98782934959506</v>
       </c>
       <c r="F32" s="0" t="n">
-        <f aca="false">1075-((B32+80)*1075/180)</f>
-        <v>728.611111111111</v>
+        <f aca="false">735*((90-B32)/180)</f>
+        <v>457.333333333333</v>
       </c>
       <c r="G32" s="0" t="n">
-        <f aca="false">(C32+170)*2000/360</f>
-        <v>1077.77777777778</v>
+        <f aca="false">1470*(C32+180)/360</f>
+        <v>833</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,12 +1795,12 @@
         <v>1.99841312602805</v>
       </c>
       <c r="F33" s="0" t="n">
-        <f aca="false">1075-((B33+80)*1075/180)</f>
-        <v>922.310183194444</v>
+        <f aca="false">735*((90-B33)/180)</f>
+        <v>589.769443083333</v>
       </c>
       <c r="G33" s="0" t="n">
-        <f aca="false">(C33+170)*2000/360</f>
-        <v>963.333333333333</v>
+        <f aca="false">1470*(C33+180)/360</f>
+        <v>748.883333333333</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,12 +1822,12 @@
         <v>1.98979732860711</v>
       </c>
       <c r="F34" s="0" t="n">
-        <f aca="false">1075-((B34+80)*1075/180)</f>
-        <v>656.944444444444</v>
+        <f aca="false">735*((90-B34)/180)</f>
+        <v>408.333333333333</v>
       </c>
       <c r="G34" s="0" t="n">
-        <f aca="false">(C34+170)*2000/360</f>
-        <v>638.888888888889</v>
+        <f aca="false">1470*(C34+180)/360</f>
+        <v>510.416666666667</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,12 +1849,12 @@
         <v>1.99504457531996</v>
       </c>
       <c r="F35" s="0" t="n">
-        <f aca="false">1075-((B35+80)*1075/180)</f>
-        <v>633.055555555556</v>
+        <f aca="false">735*((90-B35)/180)</f>
+        <v>392</v>
       </c>
       <c r="G35" s="0" t="n">
-        <f aca="false">(C35+170)*2000/360</f>
-        <v>1344.44444444444</v>
+        <f aca="false">1470*(C35+180)/360</f>
+        <v>1029</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,12 +1876,12 @@
         <v>1.95783338877928</v>
       </c>
       <c r="F36" s="0" t="n">
-        <f aca="false">1075-((B36+80)*1075/180)</f>
-        <v>486.736111111111</v>
+        <f aca="false">735*((90-B36)/180)</f>
+        <v>291.958333333333</v>
       </c>
       <c r="G36" s="0" t="n">
-        <f aca="false">(C36+170)*2000/360</f>
-        <v>586.111111111111</v>
+        <f aca="false">1470*(C36+180)/360</f>
+        <v>471.625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,12 +1903,12 @@
         <v>1.99745401804524</v>
       </c>
       <c r="F37" s="0" t="n">
-        <f aca="false">1075-((B37+80)*1075/180)</f>
-        <v>570.347222222222</v>
+        <f aca="false">735*((90-B37)/180)</f>
+        <v>349.125</v>
       </c>
       <c r="G37" s="0" t="n">
-        <f aca="false">(C37+170)*2000/360</f>
-        <v>1581.48148333333</v>
+        <f aca="false">1470*(C37+180)/360</f>
+        <v>1203.22222358333</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,12 +1930,12 @@
         <v>1.95012138802701</v>
       </c>
       <c r="F38" s="0" t="n">
-        <f aca="false">1075-((B38+80)*1075/180)</f>
-        <v>340.416666666667</v>
+        <f aca="false">735*((90-B38)/180)</f>
+        <v>191.916666666667</v>
       </c>
       <c r="G38" s="0" t="n">
-        <f aca="false">(C38+170)*2000/360</f>
-        <v>1083.33333333333</v>
+        <f aca="false">1470*(C38+180)/360</f>
+        <v>837.083333333333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,12 +1957,12 @@
         <v>1.9999686492812</v>
       </c>
       <c r="F39" s="0" t="n">
-        <f aca="false">1075-((B39+80)*1075/180)</f>
-        <v>519.583333333333</v>
+        <f aca="false">735*((90-B39)/180)</f>
+        <v>314.416666666667</v>
       </c>
       <c r="G39" s="0" t="n">
-        <f aca="false">(C39+170)*2000/360</f>
-        <v>933.333333333333</v>
+        <f aca="false">1470*(C39+180)/360</f>
+        <v>726.833333333333</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,12 +1984,12 @@
         <v>1.9285772053189</v>
       </c>
       <c r="F40" s="0" t="n">
-        <f aca="false">1075-((B40+80)*1075/180)</f>
-        <v>465.833333333333</v>
+        <f aca="false">735*((90-B40)/180)</f>
+        <v>277.666666666667</v>
       </c>
       <c r="G40" s="0" t="n">
-        <f aca="false">(C40+170)*2000/360</f>
-        <v>1488.88888888889</v>
+        <f aca="false">1470*(C40+180)/360</f>
+        <v>1135.16666666667</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,12 +2011,12 @@
         <v>1.99953359083671</v>
       </c>
       <c r="F41" s="0" t="n">
-        <f aca="false">1075-((B41+80)*1075/180)</f>
-        <v>618.125</v>
+        <f aca="false">735*((90-B41)/180)</f>
+        <v>381.791666666667</v>
       </c>
       <c r="G41" s="0" t="n">
-        <f aca="false">(C41+170)*2000/360</f>
-        <v>1111.11111111111</v>
+        <f aca="false">1470*(C41+180)/360</f>
+        <v>857.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,12 +2038,12 @@
         <v>1.97608006612893</v>
       </c>
       <c r="F42" s="0" t="n">
-        <f aca="false">1075-((B42+80)*1075/180)</f>
-        <v>519.583333333333</v>
+        <f aca="false">735*((90-B42)/180)</f>
+        <v>314.416666666667</v>
       </c>
       <c r="G42" s="0" t="n">
-        <f aca="false">(C42+170)*2000/360</f>
-        <v>1527.77777777778</v>
+        <f aca="false">1470*(C42+180)/360</f>
+        <v>1163.75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,12 +2065,12 @@
         <v>1.99976298932634</v>
       </c>
       <c r="F43" s="0" t="n">
-        <f aca="false">1075-((B43+80)*1075/180)</f>
-        <v>561.388888888889</v>
+        <f aca="false">735*((90-B43)/180)</f>
+        <v>343</v>
       </c>
       <c r="G43" s="0" t="n">
-        <f aca="false">(C43+170)*2000/360</f>
-        <v>1011.11111111111</v>
+        <f aca="false">1470*(C43+180)/360</f>
+        <v>784</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,12 +2092,12 @@
         <v>1.50495983681182</v>
       </c>
       <c r="F44" s="0" t="n">
-        <f aca="false">1075-((B44+80)*1075/180)</f>
-        <v>238.888888888889</v>
+        <f aca="false">735*((90-B44)/180)</f>
+        <v>122.5</v>
       </c>
       <c r="G44" s="0" t="n">
-        <f aca="false">(C44+170)*2000/360</f>
-        <v>411.111111111111</v>
+        <f aca="false">1470*(C44+180)/360</f>
+        <v>343</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,12 +2119,12 @@
         <v>1.99355646259475</v>
       </c>
       <c r="F45" s="0" t="n">
-        <f aca="false">1075-((B45+80)*1075/180)</f>
-        <v>501.666666666667</v>
+        <f aca="false">735*((90-B45)/180)</f>
+        <v>302.166666666667</v>
       </c>
       <c r="G45" s="0" t="n">
-        <f aca="false">(C45+170)*2000/360</f>
-        <v>811.111111111111</v>
+        <f aca="false">1470*(C45+180)/360</f>
+        <v>637</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,12 +2146,12 @@
         <v>1.94413590807409</v>
       </c>
       <c r="F46" s="0" t="n">
-        <f aca="false">1075-((B46+80)*1075/180)</f>
-        <v>480.763888888889</v>
+        <f aca="false">735*((90-B46)/180)</f>
+        <v>287.875</v>
       </c>
       <c r="G46" s="0" t="n">
-        <f aca="false">(C46+170)*2000/360</f>
-        <v>496.296294444444</v>
+        <f aca="false">1470*(C46+180)/360</f>
+        <v>405.61110975</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,12 +2173,12 @@
         <v>1.99904168173505</v>
       </c>
       <c r="F47" s="0" t="n">
-        <f aca="false">1075-((B47+80)*1075/180)</f>
-        <v>555.416666666667</v>
+        <f aca="false">735*((90-B47)/180)</f>
+        <v>338.916666666667</v>
       </c>
       <c r="G47" s="0" t="n">
-        <f aca="false">(C47+170)*2000/360</f>
-        <v>1061.11111111111</v>
+        <f aca="false">1470*(C47+180)/360</f>
+        <v>820.75</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,12 +2200,12 @@
         <v>1.99636982002564</v>
       </c>
       <c r="F48" s="0" t="n">
-        <f aca="false">1075-((B48+80)*1075/180)</f>
-        <v>507.638888888889</v>
+        <f aca="false">735*((90-B48)/180)</f>
+        <v>306.25</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">(C48+170)*2000/360</f>
-        <v>1050</v>
+        <f aca="false">1470*(C48+180)/360</f>
+        <v>812.583333333333</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,12 +2227,12 @@
         <v>1.879934330209</v>
       </c>
       <c r="F49" s="0" t="n">
-        <f aca="false">1075-((B49+80)*1075/180)</f>
-        <v>776.388888888889</v>
+        <f aca="false">735*((90-B49)/180)</f>
+        <v>490</v>
       </c>
       <c r="G49" s="0" t="n">
-        <f aca="false">(C49+170)*2000/360</f>
-        <v>550</v>
+        <f aca="false">1470*(C49+180)/360</f>
+        <v>445.083333333333</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,12 +2254,12 @@
         <v>1.83091257626848</v>
       </c>
       <c r="F50" s="0" t="n">
-        <f aca="false">1075-((B50+80)*1075/180)</f>
-        <v>388.194444444444</v>
+        <f aca="false">735*((90-B50)/180)</f>
+        <v>224.583333333333</v>
       </c>
       <c r="G50" s="0" t="n">
-        <f aca="false">(C50+170)*2000/360</f>
-        <v>1527.77777777778</v>
+        <f aca="false">1470*(C50+180)/360</f>
+        <v>1163.75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,12 +2281,12 @@
         <v>1.98447281930931</v>
       </c>
       <c r="F51" s="0" t="n">
-        <f aca="false">1075-((B51+80)*1075/180)</f>
-        <v>659.930555555556</v>
+        <f aca="false">735*((90-B51)/180)</f>
+        <v>410.375</v>
       </c>
       <c r="G51" s="0" t="n">
-        <f aca="false">(C51+170)*2000/360</f>
-        <v>1531.48148333333</v>
+        <f aca="false">1470*(C51+180)/360</f>
+        <v>1166.47222358333</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,12 +2308,12 @@
         <v>1.98567300939194</v>
       </c>
       <c r="F52" s="0" t="n">
-        <f aca="false">1075-((B52+80)*1075/180)</f>
-        <v>535.807872361111</v>
+        <f aca="false">735*((90-B52)/180)</f>
+        <v>325.509723583333</v>
       </c>
       <c r="G52" s="0" t="n">
-        <f aca="false">(C52+170)*2000/360</f>
-        <v>337.685183333333</v>
+        <f aca="false">1470*(C52+180)/360</f>
+        <v>289.031943083333</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,12 +2335,12 @@
         <v>1.97845584135429</v>
       </c>
       <c r="F53" s="0" t="n">
-        <f aca="false">1075-((B53+80)*1075/180)</f>
-        <v>668.888888888889</v>
+        <f aca="false">735*((90-B53)/180)</f>
+        <v>416.5</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">(C53+170)*2000/360</f>
-        <v>1482.40740555556</v>
+        <f aca="false">1470*(C53+180)/360</f>
+        <v>1130.40277641667</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,12 +2362,12 @@
         <v>1.99779657729769</v>
       </c>
       <c r="F54" s="0" t="n">
-        <f aca="false">1075-((B54+80)*1075/180)</f>
-        <v>573.333333333333</v>
+        <f aca="false">735*((90-B54)/180)</f>
+        <v>351.166666666667</v>
       </c>
       <c r="G54" s="0" t="n">
-        <f aca="false">(C54+170)*2000/360</f>
-        <v>544.444444444444</v>
+        <f aca="false">1470*(C54+180)/360</f>
+        <v>441</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,12 +2389,12 @@
         <v>1.98904220206368</v>
       </c>
       <c r="F55" s="0" t="n">
-        <f aca="false">1075-((B55+80)*1075/180)</f>
-        <v>669.88426125</v>
+        <f aca="false">735*((90-B55)/180)</f>
+        <v>417.180556916667</v>
       </c>
       <c r="G55" s="0" t="n">
-        <f aca="false">(C55+170)*2000/360</f>
-        <v>1190.27777777778</v>
+        <f aca="false">1470*(C55+180)/360</f>
+        <v>915.6875</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,12 +2416,12 @@
         <v>1.99607029169061</v>
       </c>
       <c r="F56" s="0" t="n">
-        <f aca="false">1075-((B56+80)*1075/180)</f>
-        <v>693.275460972222</v>
+        <f aca="false">735*((90-B56)/180)</f>
+        <v>433.17360975</v>
       </c>
       <c r="G56" s="0" t="n">
-        <f aca="false">(C56+170)*2000/360</f>
-        <v>46.7592611111111</v>
+        <f aca="false">1470*(C56+180)/360</f>
+        <v>75.20139025</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,12 +2443,12 @@
         <v>1.98905666746627</v>
       </c>
       <c r="F57" s="0" t="n">
-        <f aca="false">1075-((B57+80)*1075/180)</f>
-        <v>701.736111111111</v>
+        <f aca="false">735*((90-B57)/180)</f>
+        <v>438.958333333333</v>
       </c>
       <c r="G57" s="0" t="n">
-        <f aca="false">(C57+170)*2000/360</f>
-        <v>1783.33333333333</v>
+        <f aca="false">1470*(C57+180)/360</f>
+        <v>1351.58333333333</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,12 +2470,12 @@
         <v>1.98497332955229</v>
       </c>
       <c r="F58" s="0" t="n">
-        <f aca="false">1075-((B58+80)*1075/180)</f>
-        <v>537.5</v>
+        <f aca="false">735*((90-B58)/180)</f>
+        <v>326.666666666667</v>
       </c>
       <c r="G58" s="0" t="n">
-        <f aca="false">(C58+170)*2000/360</f>
-        <v>477.777777777778</v>
+        <f aca="false">1470*(C58+180)/360</f>
+        <v>392</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,12 +2497,12 @@
         <v>1.99992595574453</v>
       </c>
       <c r="F59" s="0" t="n">
-        <f aca="false">1075-((B59+80)*1075/180)</f>
-        <v>549.444444444444</v>
+        <f aca="false">735*((90-B59)/180)</f>
+        <v>334.833333333333</v>
       </c>
       <c r="G59" s="0" t="n">
-        <f aca="false">(C59+170)*2000/360</f>
-        <v>916.666666666667</v>
+        <f aca="false">1470*(C59+180)/360</f>
+        <v>714.583333333333</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,12 +2524,12 @@
         <v>1.97789188523256</v>
       </c>
       <c r="F60" s="0" t="n">
-        <f aca="false">1075-((B60+80)*1075/180)</f>
-        <v>327.476849861111</v>
+        <f aca="false">735*((90-B60)/180)</f>
+        <v>183.069443083333</v>
       </c>
       <c r="G60" s="0" t="n">
-        <f aca="false">(C60+170)*2000/360</f>
-        <v>1030.55555555556</v>
+        <f aca="false">1470*(C60+180)/360</f>
+        <v>798.291666666667</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,12 +2551,12 @@
         <v>1.92957326369221</v>
       </c>
       <c r="F61" s="0" t="n">
-        <f aca="false">1075-((B61+80)*1075/180)</f>
-        <v>465.833333333333</v>
+        <f aca="false">735*((90-B61)/180)</f>
+        <v>277.666666666667</v>
       </c>
       <c r="G61" s="0" t="n">
-        <f aca="false">(C61+170)*2000/360</f>
-        <v>502.777777777778</v>
+        <f aca="false">1470*(C61+180)/360</f>
+        <v>410.375</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,12 +2578,12 @@
         <v>1.9804138692912</v>
       </c>
       <c r="F62" s="0" t="n">
-        <f aca="false">1075-((B62+80)*1075/180)</f>
-        <v>524.560183194444</v>
+        <f aca="false">735*((90-B62)/180)</f>
+        <v>317.819443083333</v>
       </c>
       <c r="G62" s="0" t="n">
-        <f aca="false">(C62+170)*2000/360</f>
-        <v>561.111111111111</v>
+        <f aca="false">1470*(C62+180)/360</f>
+        <v>453.25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,12 +2605,12 @@
         <v>1.94516363590652</v>
       </c>
       <c r="F63" s="0" t="n">
-        <f aca="false">1075-((B63+80)*1075/180)</f>
-        <v>388.194444444444</v>
+        <f aca="false">735*((90-B63)/180)</f>
+        <v>224.583333333333</v>
       </c>
       <c r="G63" s="0" t="n">
-        <f aca="false">(C63+170)*2000/360</f>
-        <v>1127.77777777778</v>
+        <f aca="false">1470*(C63+180)/360</f>
+        <v>869.75</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,12 +2632,12 @@
         <v>1.97485366087018</v>
       </c>
       <c r="F64" s="0" t="n">
-        <f aca="false">1075-((B64+80)*1075/180)</f>
-        <v>300.104166666667</v>
+        <f aca="false">735*((90-B64)/180)</f>
+        <v>164.354166666667</v>
       </c>
       <c r="G64" s="0" t="n">
-        <f aca="false">(C64+170)*2000/360</f>
-        <v>1027.77777777778</v>
+        <f aca="false">1470*(C64+180)/360</f>
+        <v>796.25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,12 +2659,12 @@
         <v>2</v>
       </c>
       <c r="F65" s="0" t="n">
-        <f aca="false">1075-((B65+80)*1075/180)</f>
-        <v>597.222222222222</v>
+        <f aca="false">735*((90-B65)/180)</f>
+        <v>367.5</v>
       </c>
       <c r="G65" s="0" t="n">
-        <f aca="false">(C65+170)*2000/360</f>
-        <v>1083.33333333333</v>
+        <f aca="false">1470*(C65+180)/360</f>
+        <v>837.083333333333</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,12 +2686,12 @@
         <v>1.98563192761071</v>
       </c>
       <c r="F66" s="0" t="n">
-        <f aca="false">1075-((B66+80)*1075/180)</f>
-        <v>262.777777777778</v>
+        <f aca="false">735*((90-B66)/180)</f>
+        <v>138.833333333333</v>
       </c>
       <c r="G66" s="0" t="n">
-        <f aca="false">(C66+170)*2000/360</f>
-        <v>1000</v>
+        <f aca="false">1470*(C66+180)/360</f>
+        <v>775.833333333333</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,12 +2713,12 @@
         <v>1.99082044659069</v>
       </c>
       <c r="F67" s="0" t="n">
-        <f aca="false">1075-((B67+80)*1075/180)</f>
-        <v>528.541666666667</v>
+        <f aca="false">735*((90-B67)/180)</f>
+        <v>320.541666666667</v>
       </c>
       <c r="G67" s="0" t="n">
-        <f aca="false">(C67+170)*2000/360</f>
-        <v>1180.55555555556</v>
+        <f aca="false">1470*(C67+180)/360</f>
+        <v>908.541666666667</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,12 +2740,12 @@
         <v>1.97196061633971</v>
       </c>
       <c r="F68" s="0" t="n">
-        <f aca="false">1075-((B68+80)*1075/180)</f>
-        <v>504.652777777778</v>
+        <f aca="false">735*((90-B68)/180)</f>
+        <v>304.208333333333</v>
       </c>
       <c r="G68" s="0" t="n">
-        <f aca="false">(C68+170)*2000/360</f>
-        <v>603.703705555556</v>
+        <f aca="false">1470*(C68+180)/360</f>
+        <v>484.555556916667</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,12 +2767,12 @@
         <v>1.95144106992254</v>
       </c>
       <c r="F69" s="0" t="n">
-        <f aca="false">1075-((B69+80)*1075/180)</f>
-        <v>483.75</v>
+        <f aca="false">735*((90-B69)/180)</f>
+        <v>289.916666666667</v>
       </c>
       <c r="G69" s="0" t="n">
-        <f aca="false">(C69+170)*2000/360</f>
-        <v>551.85185</v>
+        <f aca="false">1470*(C69+180)/360</f>
+        <v>446.444443083333</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,12 +2794,12 @@
         <v>1.99941936163945</v>
       </c>
       <c r="F70" s="0" t="n">
-        <f aca="false">1075-((B70+80)*1075/180)</f>
-        <v>609.166666666667</v>
+        <f aca="false">735*((90-B70)/180)</f>
+        <v>375.666666666667</v>
       </c>
       <c r="G70" s="0" t="n">
-        <f aca="false">(C70+170)*2000/360</f>
-        <v>513.888888888889</v>
+        <f aca="false">1470*(C70+180)/360</f>
+        <v>418.541666666667</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,12 +2821,12 @@
         <v>1.97236992039768</v>
       </c>
       <c r="F71" s="0" t="n">
-        <f aca="false">1075-((B71+80)*1075/180)</f>
-        <v>435.972222222222</v>
+        <f aca="false">735*((90-B71)/180)</f>
+        <v>257.25</v>
       </c>
       <c r="G71" s="0" t="n">
-        <f aca="false">(C71+170)*2000/360</f>
-        <v>1111.11111111111</v>
+        <f aca="false">1470*(C71+180)/360</f>
+        <v>857.5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,12 +2848,12 @@
         <v>1.97100566141789</v>
       </c>
       <c r="F72" s="0" t="n">
-        <f aca="false">1075-((B72+80)*1075/180)</f>
-        <v>514.606483472222</v>
+        <f aca="false">735*((90-B72)/180)</f>
+        <v>311.01389025</v>
       </c>
       <c r="G72" s="0" t="n">
-        <f aca="false">(C72+170)*2000/360</f>
-        <v>450.462961111111</v>
+        <f aca="false">1470*(C72+180)/360</f>
+        <v>371.92360975</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,12 +2875,12 @@
         <v>1.999981629378</v>
       </c>
       <c r="F73" s="0" t="n">
-        <f aca="false">1075-((B73+80)*1075/180)</f>
-        <v>585.277777777778</v>
+        <f aca="false">735*((90-B73)/180)</f>
+        <v>359.333333333333</v>
       </c>
       <c r="G73" s="0" t="n">
-        <f aca="false">(C73+170)*2000/360</f>
-        <v>1000</v>
+        <f aca="false">1470*(C73+180)/360</f>
+        <v>775.833333333333</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,12 +2902,12 @@
         <v>1.98645845388509</v>
       </c>
       <c r="F74" s="0" t="n">
-        <f aca="false">1075-((B74+80)*1075/180)</f>
-        <v>507.638888888889</v>
+        <f aca="false">735*((90-B74)/180)</f>
+        <v>306.25</v>
       </c>
       <c r="G74" s="0" t="n">
-        <f aca="false">(C74+170)*2000/360</f>
-        <v>1161.11111111111</v>
+        <f aca="false">1470*(C74+180)/360</f>
+        <v>894.25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,12 +2929,12 @@
         <v>1.89983283121627</v>
       </c>
       <c r="F75" s="0" t="n">
-        <f aca="false">1075-((B75+80)*1075/180)</f>
-        <v>244.861111111111</v>
+        <f aca="false">735*((90-B75)/180)</f>
+        <v>126.583333333333</v>
       </c>
       <c r="G75" s="0" t="n">
-        <f aca="false">(C75+170)*2000/360</f>
-        <v>1088.88888888889</v>
+        <f aca="false">1470*(C75+180)/360</f>
+        <v>841.166666666667</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,12 +2956,12 @@
         <v>1.99630749393521</v>
       </c>
       <c r="F76" s="0" t="n">
-        <f aca="false">1075-((B76+80)*1075/180)</f>
-        <v>549.444444444444</v>
+        <f aca="false">735*((90-B76)/180)</f>
+        <v>334.833333333333</v>
       </c>
       <c r="G76" s="0" t="n">
-        <f aca="false">(C76+170)*2000/360</f>
-        <v>1155.55555555556</v>
+        <f aca="false">1470*(C76+180)/360</f>
+        <v>890.166666666667</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,12 +2983,12 @@
         <v>1.9683013648789</v>
       </c>
       <c r="F77" s="0" t="n">
-        <f aca="false">1075-((B77+80)*1075/180)</f>
-        <v>730.601849861111</v>
+        <f aca="false">735*((90-B77)/180)</f>
+        <v>458.694443083333</v>
       </c>
       <c r="G77" s="0" t="n">
-        <f aca="false">(C77+170)*2000/360</f>
-        <v>1168.70370555556</v>
+        <f aca="false">1470*(C77+180)/360</f>
+        <v>899.830556916667</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,12 +3010,12 @@
         <v>1.71403596659708</v>
       </c>
       <c r="F78" s="0" t="n">
-        <f aca="false">1075-((B78+80)*1075/180)</f>
-        <v>906.284722222222</v>
+        <f aca="false">735*((90-B78)/180)</f>
+        <v>578.8125</v>
       </c>
       <c r="G78" s="0" t="n">
-        <f aca="false">(C78+170)*2000/360</f>
-        <v>615.740738888889</v>
+        <f aca="false">1470*(C78+180)/360</f>
+        <v>493.402776416667</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,12 +3037,12 @@
         <v>1.99131704470642</v>
       </c>
       <c r="F79" s="0" t="n">
-        <f aca="false">1075-((B79+80)*1075/180)</f>
-        <v>226.944444444444</v>
+        <f aca="false">735*((90-B79)/180)</f>
+        <v>114.333333333333</v>
       </c>
       <c r="G79" s="0" t="n">
-        <f aca="false">(C79+170)*2000/360</f>
-        <v>905.555555555556</v>
+        <f aca="false">1470*(C79+180)/360</f>
+        <v>706.416666666667</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,12 +3064,12 @@
         <v>1.99916088287689</v>
       </c>
       <c r="F80" s="0" t="n">
-        <f aca="false">1075-((B80+80)*1075/180)</f>
-        <v>567.361111111111</v>
+        <f aca="false">735*((90-B80)/180)</f>
+        <v>347.083333333333</v>
       </c>
       <c r="G80" s="0" t="n">
-        <f aca="false">(C80+170)*2000/360</f>
-        <v>1788.88888888889</v>
+        <f aca="false">1470*(C80+180)/360</f>
+        <v>1355.66666666667</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,12 +3091,12 @@
         <v>1.9999398959514</v>
       </c>
       <c r="F81" s="0" t="n">
-        <f aca="false">1075-((B81+80)*1075/180)</f>
-        <v>704.722222222222</v>
+        <f aca="false">735*((90-B81)/180)</f>
+        <v>441</v>
       </c>
       <c r="G81" s="0" t="n">
-        <f aca="false">(C81+170)*2000/360</f>
-        <v>1933.33333333333</v>
+        <f aca="false">1470*(C81+180)/360</f>
+        <v>1461.83333333333</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,12 +3118,12 @@
         <v>1.88249034137536</v>
       </c>
       <c r="F82" s="0" t="n">
-        <f aca="false">1075-((B82+80)*1075/180)</f>
-        <v>215</v>
+        <f aca="false">735*((90-B82)/180)</f>
+        <v>106.166666666667</v>
       </c>
       <c r="G82" s="0" t="n">
-        <f aca="false">(C82+170)*2000/360</f>
-        <v>1088.88888888889</v>
+        <f aca="false">1470*(C82+180)/360</f>
+        <v>841.166666666667</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,12 +3145,12 @@
         <v>1.99960749036869</v>
       </c>
       <c r="F83" s="0" t="n">
-        <f aca="false">1075-((B83+80)*1075/180)</f>
-        <v>322.5</v>
+        <f aca="false">735*((90-B83)/180)</f>
+        <v>179.666666666667</v>
       </c>
       <c r="G83" s="0" t="n">
-        <f aca="false">(C83+170)*2000/360</f>
-        <v>955.555555555556</v>
+        <f aca="false">1470*(C83+180)/360</f>
+        <v>743.166666666667</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,12 +3172,12 @@
         <v>1.99844607717322</v>
       </c>
       <c r="F84" s="0" t="n">
-        <f aca="false">1075-((B84+80)*1075/180)</f>
-        <v>573.333333333333</v>
+        <f aca="false">735*((90-B84)/180)</f>
+        <v>351.166666666667</v>
       </c>
       <c r="G84" s="0" t="n">
-        <f aca="false">(C84+170)*2000/360</f>
-        <v>650</v>
+        <f aca="false">1470*(C84+180)/360</f>
+        <v>518.583333333333</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,12 +3199,12 @@
         <v>1.98587406759488</v>
       </c>
       <c r="F85" s="0" t="n">
-        <f aca="false">1075-((B85+80)*1075/180)</f>
-        <v>686.805555555556</v>
+        <f aca="false">735*((90-B85)/180)</f>
+        <v>428.75</v>
       </c>
       <c r="G85" s="0" t="n">
-        <f aca="false">(C85+170)*2000/360</f>
-        <v>166.666666666667</v>
+        <f aca="false">1470*(C85+180)/360</f>
+        <v>163.333333333333</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,12 +3226,12 @@
         <v>1.77071669693333</v>
       </c>
       <c r="F86" s="0" t="n">
-        <f aca="false">1075-((B86+80)*1075/180)</f>
-        <v>854.027777777778</v>
+        <f aca="false">735*((90-B86)/180)</f>
+        <v>543.083333333333</v>
       </c>
       <c r="G86" s="0" t="n">
-        <f aca="false">(C86+170)*2000/360</f>
-        <v>1316.66666666667</v>
+        <f aca="false">1470*(C86+180)/360</f>
+        <v>1008.58333333333</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,12 +3253,12 @@
         <v>1.99999368377011</v>
       </c>
       <c r="F87" s="0" t="n">
-        <f aca="false">1075-((B87+80)*1075/180)</f>
-        <v>603.194444444445</v>
+        <f aca="false">735*((90-B87)/180)</f>
+        <v>371.583333333333</v>
       </c>
       <c r="G87" s="0" t="n">
-        <f aca="false">(C87+170)*2000/360</f>
-        <v>1009.72222222222</v>
+        <f aca="false">1470*(C87+180)/360</f>
+        <v>782.979166666667</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,12 +3280,12 @@
         <v>1.99801826112265</v>
       </c>
       <c r="F88" s="0" t="n">
-        <f aca="false">1075-((B88+80)*1075/180)</f>
-        <v>516.597222222222</v>
+        <f aca="false">735*((90-B88)/180)</f>
+        <v>312.375</v>
       </c>
       <c r="G88" s="0" t="n">
-        <f aca="false">(C88+170)*2000/360</f>
-        <v>858.333333333333</v>
+        <f aca="false">1470*(C88+180)/360</f>
+        <v>671.708333333333</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,12 +3307,12 @@
         <v>1.95243788292353</v>
       </c>
       <c r="F89" s="0" t="n">
-        <f aca="false">1075-((B89+80)*1075/180)</f>
-        <v>409.544696944444</v>
+        <f aca="false">735*((90-B89)/180)</f>
+        <v>239.180947833333</v>
       </c>
       <c r="G89" s="0" t="n">
-        <f aca="false">(C89+170)*2000/360</f>
-        <v>1135.40776666667</v>
+        <f aca="false">1470*(C89+180)/360</f>
+        <v>875.358041833333</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,12 +3334,12 @@
         <v>1.87537317366045</v>
       </c>
       <c r="F90" s="0" t="n">
-        <f aca="false">1075-((B90+80)*1075/180)</f>
-        <v>346.389002361111</v>
+        <f aca="false">735*((90-B90)/180)</f>
+        <v>196.000077583333</v>
       </c>
       <c r="G90" s="0" t="n">
-        <f aca="false">(C90+170)*2000/360</f>
-        <v>1186.11058333333</v>
+        <f aca="false">1470*(C90+180)/360</f>
+        <v>912.624612083333</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,12 +3361,12 @@
         <v>1.98661451768695</v>
       </c>
       <c r="F91" s="0" t="n">
-        <f aca="false">1075-((B91+80)*1075/180)</f>
-        <v>289.652777777778</v>
+        <f aca="false">735*((90-B91)/180)</f>
+        <v>157.208333333333</v>
       </c>
       <c r="G91" s="0" t="n">
-        <f aca="false">(C91+170)*2000/360</f>
-        <v>1002.77777777778</v>
+        <f aca="false">1470*(C91+180)/360</f>
+        <v>777.875</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,12 +3388,12 @@
         <v>1.9999881274999</v>
       </c>
       <c r="F92" s="0" t="n">
-        <f aca="false">1075-((B92+80)*1075/180)</f>
-        <v>549.444444444444</v>
+        <f aca="false">735*((90-B92)/180)</f>
+        <v>334.833333333333</v>
       </c>
       <c r="G92" s="0" t="n">
-        <f aca="false">(C92+170)*2000/360</f>
-        <v>933.333333333333</v>
+        <f aca="false">1470*(C92+180)/360</f>
+        <v>726.833333333333</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,12 +3415,12 @@
         <v>1.99827171488426</v>
       </c>
       <c r="F93" s="0" t="n">
-        <f aca="false">1075-((B93+80)*1075/180)</f>
-        <v>381.425927916667</v>
+        <f aca="false">735*((90-B93)/180)</f>
+        <v>219.955556916667</v>
       </c>
       <c r="G93" s="0" t="n">
-        <f aca="false">(C93+170)*2000/360</f>
-        <v>914.722222222222</v>
+        <f aca="false">1470*(C93+180)/360</f>
+        <v>713.154166666667</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,12 +3442,12 @@
         <v>1.98912894376923</v>
       </c>
       <c r="F94" s="0" t="n">
-        <f aca="false">1075-((B94+80)*1075/180)</f>
-        <v>665.902777777778</v>
+        <f aca="false">735*((90-B94)/180)</f>
+        <v>414.458333333333</v>
       </c>
       <c r="G94" s="0" t="n">
-        <f aca="false">(C94+170)*2000/360</f>
-        <v>1207.40740555556</v>
+        <f aca="false">1470*(C94+180)/360</f>
+        <v>928.277776416667</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,12 +3469,12 @@
         <v>1.96766667071194</v>
       </c>
       <c r="F95" s="0" t="n">
-        <f aca="false">1075-((B95+80)*1075/180)</f>
-        <v>364.305555555556</v>
+        <f aca="false">735*((90-B95)/180)</f>
+        <v>208.25</v>
       </c>
       <c r="G95" s="0" t="n">
-        <f aca="false">(C95+170)*2000/360</f>
-        <v>1066.66666666667</v>
+        <f aca="false">1470*(C95+180)/360</f>
+        <v>824.833333333333</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,12 +3496,12 @@
         <v>1.69112580268879</v>
       </c>
       <c r="F96" s="0" t="n">
-        <f aca="false">1075-((B96+80)*1075/180)</f>
-        <v>167.222222222222</v>
+        <f aca="false">735*((90-B96)/180)</f>
+        <v>73.5</v>
       </c>
       <c r="G96" s="0" t="n">
-        <f aca="false">(C96+170)*2000/360</f>
-        <v>722.222222222222</v>
+        <f aca="false">1470*(C96+180)/360</f>
+        <v>571.666666666667</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,12 +3523,12 @@
         <v>1.98272568427804</v>
       </c>
       <c r="F97" s="0" t="n">
-        <f aca="false">1075-((B97+80)*1075/180)</f>
-        <v>524.858794305556</v>
+        <f aca="false">735*((90-B97)/180)</f>
+        <v>318.02360975</v>
       </c>
       <c r="G97" s="0" t="n">
-        <f aca="false">(C97+170)*2000/360</f>
-        <v>601.85185</v>
+        <f aca="false">1470*(C97+180)/360</f>
+        <v>483.194443083333</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,12 +3550,12 @@
         <v>1.96905003539576</v>
       </c>
       <c r="F98" s="0" t="n">
-        <f aca="false">1075-((B98+80)*1075/180)</f>
-        <v>500.173611111111</v>
+        <f aca="false">735*((90-B98)/180)</f>
+        <v>301.145833333333</v>
       </c>
       <c r="G98" s="0" t="n">
-        <f aca="false">(C98+170)*2000/360</f>
-        <v>602.314816666667</v>
+        <f aca="false">1470*(C98+180)/360</f>
+        <v>483.534723583333</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,12 +3577,12 @@
         <v>1.99083774757641</v>
       </c>
       <c r="F99" s="0" t="n">
-        <f aca="false">1075-((B99+80)*1075/180)</f>
-        <v>516.929012611111</v>
+        <f aca="false">735*((90-B99)/180)</f>
+        <v>312.601852033333</v>
       </c>
       <c r="G99" s="0" t="n">
-        <f aca="false">(C99+170)*2000/360</f>
-        <v>1748.53703722222</v>
+        <f aca="false">1470*(C99+180)/360</f>
+        <v>1326.00805569167</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,12 +3604,12 @@
         <v>1.96363114140113</v>
       </c>
       <c r="F100" s="0" t="n">
-        <f aca="false">1075-((B100+80)*1075/180)</f>
-        <v>504.652777777778</v>
+        <f aca="false">735*((90-B100)/180)</f>
+        <v>304.208333333333</v>
       </c>
       <c r="G100" s="0" t="n">
-        <f aca="false">(C100+170)*2000/360</f>
-        <v>443.055555555556</v>
+        <f aca="false">1470*(C100+180)/360</f>
+        <v>366.479166666667</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,12 +3631,12 @@
         <v>1.99937938920343</v>
       </c>
       <c r="F101" s="0" t="n">
-        <f aca="false">1075-((B101+80)*1075/180)</f>
-        <v>301.099539027778</v>
+        <f aca="false">735*((90-B101)/180)</f>
+        <v>165.034723583333</v>
       </c>
       <c r="G101" s="0" t="n">
-        <f aca="false">(C101+170)*2000/360</f>
-        <v>931.481483333333</v>
+        <f aca="false">1470*(C101+180)/360</f>
+        <v>725.472223583333</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,12 +3658,12 @@
         <v>1.99944433845051</v>
       </c>
       <c r="F102" s="0" t="n">
-        <f aca="false">1075-((B102+80)*1075/180)</f>
-        <v>531.527777777778</v>
+        <f aca="false">735*((90-B102)/180)</f>
+        <v>322.583333333333</v>
       </c>
       <c r="G102" s="0" t="n">
-        <f aca="false">(C102+170)*2000/360</f>
-        <v>888.888888888889</v>
+        <f aca="false">1470*(C102+180)/360</f>
+        <v>694.166666666667</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,12 +3685,12 @@
         <v>1.99853116387146</v>
       </c>
       <c r="F103" s="0" t="n">
-        <f aca="false">1075-((B103+80)*1075/180)</f>
-        <v>525.555555555556</v>
+        <f aca="false">735*((90-B103)/180)</f>
+        <v>318.5</v>
       </c>
       <c r="G103" s="0" t="n">
-        <f aca="false">(C103+170)*2000/360</f>
-        <v>861.111111111111</v>
+        <f aca="false">1470*(C103+180)/360</f>
+        <v>673.75</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,12 +3712,12 @@
         <v>1.99720363777193</v>
       </c>
       <c r="F104" s="0" t="n">
-        <f aca="false">1075-((B104+80)*1075/180)</f>
-        <v>567.361111111111</v>
+        <f aca="false">735*((90-B104)/180)</f>
+        <v>347.083333333333</v>
       </c>
       <c r="G104" s="0" t="n">
-        <f aca="false">(C104+170)*2000/360</f>
-        <v>616.666666666667</v>
+        <f aca="false">1470*(C104+180)/360</f>
+        <v>494.083333333333</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,12 +3739,12 @@
         <v>1.95044905245982</v>
       </c>
       <c r="F105" s="0" t="n">
-        <f aca="false">1075-((B105+80)*1075/180)</f>
-        <v>483.75</v>
+        <f aca="false">735*((90-B105)/180)</f>
+        <v>289.916666666667</v>
       </c>
       <c r="G105" s="0" t="n">
-        <f aca="false">(C105+170)*2000/360</f>
-        <v>542.129627777778</v>
+        <f aca="false">1470*(C105+180)/360</f>
+        <v>439.29860975</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,12 +3766,12 @@
         <v>1.63359489153555</v>
       </c>
       <c r="F106" s="0" t="n">
-        <f aca="false">1075-((B106+80)*1075/180)</f>
-        <v>913.75</v>
+        <f aca="false">735*((90-B106)/180)</f>
+        <v>583.916666666667</v>
       </c>
       <c r="G106" s="0" t="n">
-        <f aca="false">(C106+170)*2000/360</f>
-        <v>1350</v>
+        <f aca="false">1470*(C106+180)/360</f>
+        <v>1033.08333333333</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,12 +3793,12 @@
         <v>1.96605209469746</v>
       </c>
       <c r="F107" s="0" t="n">
-        <f aca="false">1075-((B107+80)*1075/180)</f>
-        <v>507.638888888889</v>
+        <f aca="false">735*((90-B107)/180)</f>
+        <v>306.25</v>
       </c>
       <c r="G107" s="0" t="n">
-        <f aca="false">(C107+170)*2000/360</f>
-        <v>463.888888888889</v>
+        <f aca="false">1470*(C107+180)/360</f>
+        <v>381.791666666667</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,12 +3820,12 @@
         <v>1.93788908383474</v>
       </c>
       <c r="F108" s="0" t="n">
-        <f aca="false">1075-((B108+80)*1075/180)</f>
-        <v>464.340277777778</v>
+        <f aca="false">735*((90-B108)/180)</f>
+        <v>276.645833333333</v>
       </c>
       <c r="G108" s="0" t="n">
-        <f aca="false">(C108+170)*2000/360</f>
-        <v>1578.70370555556</v>
+        <f aca="false">1470*(C108+180)/360</f>
+        <v>1201.18055691667</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,12 +3847,12 @@
         <v>1.96090032144745</v>
       </c>
       <c r="F109" s="0" t="n">
-        <f aca="false">1075-((B109+80)*1075/180)</f>
-        <v>316.527777777778</v>
+        <f aca="false">735*((90-B109)/180)</f>
+        <v>175.583333333333</v>
       </c>
       <c r="G109" s="0" t="n">
-        <f aca="false">(C109+170)*2000/360</f>
-        <v>1055.55555555556</v>
+        <f aca="false">1470*(C109+180)/360</f>
+        <v>816.666666666667</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,12 +3874,12 @@
         <v>1.93917756878529</v>
       </c>
       <c r="F110" s="0" t="n">
-        <f aca="false">1075-((B110+80)*1075/180)</f>
-        <v>209.027777777778</v>
+        <f aca="false">735*((90-B110)/180)</f>
+        <v>102.083333333333</v>
       </c>
       <c r="G110" s="0" t="n">
-        <f aca="false">(C110+170)*2000/360</f>
-        <v>844.444444444444</v>
+        <f aca="false">1470*(C110+180)/360</f>
+        <v>661.5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,12 +3901,12 @@
         <v>1.94271486871626</v>
       </c>
       <c r="F111" s="0" t="n">
-        <f aca="false">1075-((B111+80)*1075/180)</f>
-        <v>477.777777777778</v>
+        <f aca="false">735*((90-B111)/180)</f>
+        <v>285.833333333333</v>
       </c>
       <c r="G111" s="0" t="n">
-        <f aca="false">(C111+170)*2000/360</f>
-        <v>1372.22222222222</v>
+        <f aca="false">1470*(C111+180)/360</f>
+        <v>1049.41666666667</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,12 +3928,12 @@
         <v>1.99714557068522</v>
       </c>
       <c r="F112" s="0" t="n">
-        <f aca="false">1075-((B112+80)*1075/180)</f>
-        <v>627.083333333333</v>
+        <f aca="false">735*((90-B112)/180)</f>
+        <v>387.916666666667</v>
       </c>
       <c r="G112" s="0" t="n">
-        <f aca="false">(C112+170)*2000/360</f>
-        <v>1611.11111111111</v>
+        <f aca="false">1470*(C112+180)/360</f>
+        <v>1225</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,12 +3955,12 @@
         <v>1.90216154622669</v>
       </c>
       <c r="F113" s="0" t="n">
-        <f aca="false">1075-((B113+80)*1075/180)</f>
-        <v>406.111111111111</v>
+        <f aca="false">735*((90-B113)/180)</f>
+        <v>236.833333333333</v>
       </c>
       <c r="G113" s="0" t="n">
-        <f aca="false">(C113+170)*2000/360</f>
-        <v>1238.88888888889</v>
+        <f aca="false">1470*(C113+180)/360</f>
+        <v>951.416666666667</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,12 +3982,12 @@
         <v>1.92102419006938</v>
       </c>
       <c r="F114" s="0" t="n">
-        <f aca="false">1075-((B114+80)*1075/180)</f>
-        <v>400.138888888889</v>
+        <f aca="false">735*((90-B114)/180)</f>
+        <v>232.75</v>
       </c>
       <c r="G114" s="0" t="n">
-        <f aca="false">(C114+170)*2000/360</f>
-        <v>1188.88888888889</v>
+        <f aca="false">1470*(C114+180)/360</f>
+        <v>914.666666666667</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,12 +4009,12 @@
         <v>1.99172463449058</v>
       </c>
       <c r="F115" s="0" t="n">
-        <f aca="false">1075-((B115+80)*1075/180)</f>
-        <v>280.694444444444</v>
+        <f aca="false">735*((90-B115)/180)</f>
+        <v>151.083333333333</v>
       </c>
       <c r="G115" s="0" t="n">
-        <f aca="false">(C115+170)*2000/360</f>
-        <v>900</v>
+        <f aca="false">1470*(C115+180)/360</f>
+        <v>702.333333333333</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,12 +4036,12 @@
         <v>1.99724189318152</v>
       </c>
       <c r="F116" s="0" t="n">
-        <f aca="false">1075-((B116+80)*1075/180)</f>
-        <v>273.229166666667</v>
+        <f aca="false">735*((90-B116)/180)</f>
+        <v>145.979166666667</v>
       </c>
       <c r="G116" s="0" t="n">
-        <f aca="false">(C116+170)*2000/360</f>
-        <v>919.444444444444</v>
+        <f aca="false">1470*(C116+180)/360</f>
+        <v>716.625</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,12 +4063,12 @@
         <v>1.95129947299481</v>
       </c>
       <c r="F117" s="0" t="n">
-        <f aca="false">1075-((B117+80)*1075/180)</f>
-        <v>409.097222222222</v>
+        <f aca="false">735*((90-B117)/180)</f>
+        <v>238.875</v>
       </c>
       <c r="G117" s="0" t="n">
-        <f aca="false">(C117+170)*2000/360</f>
-        <v>1137.5</v>
+        <f aca="false">1470*(C117+180)/360</f>
+        <v>876.895833333333</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,12 +4090,12 @@
         <v>1.98624536197137</v>
       </c>
       <c r="F118" s="0" t="n">
-        <f aca="false">1075-((B118+80)*1075/180)</f>
-        <v>341.412039027778</v>
+        <f aca="false">735*((90-B118)/180)</f>
+        <v>192.597223583333</v>
       </c>
       <c r="G118" s="0" t="n">
-        <f aca="false">(C118+170)*2000/360</f>
-        <v>1015.74073888889</v>
+        <f aca="false">1470*(C118+180)/360</f>
+        <v>787.402776416667</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,12 +4117,12 @@
         <v>1.95203650168455</v>
       </c>
       <c r="F119" s="0" t="n">
-        <f aca="false">1075-((B119+80)*1075/180)</f>
-        <v>488.229166666667</v>
+        <f aca="false">735*((90-B119)/180)</f>
+        <v>292.979166666667</v>
       </c>
       <c r="G119" s="0" t="n">
-        <f aca="false">(C119+170)*2000/360</f>
-        <v>513.888888888889</v>
+        <f aca="false">1470*(C119+180)/360</f>
+        <v>418.541666666667</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,12 +4144,12 @@
         <v>1.91291467828498</v>
       </c>
       <c r="F120" s="0" t="n">
-        <f aca="false">1075-((B120+80)*1075/180)</f>
-        <v>382.222222222222</v>
+        <f aca="false">735*((90-B120)/180)</f>
+        <v>220.5</v>
       </c>
       <c r="G120" s="0" t="n">
-        <f aca="false">(C120+170)*2000/360</f>
-        <v>1711.11111111111</v>
+        <f aca="false">1470*(C120+180)/360</f>
+        <v>1298.5</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,12 +4171,12 @@
         <v>1.9994967602444</v>
       </c>
       <c r="F121" s="0" t="n">
-        <f aca="false">1075-((B121+80)*1075/180)</f>
-        <v>303.289349861111</v>
+        <f aca="false">735*((90-B121)/180)</f>
+        <v>166.531943083333</v>
       </c>
       <c r="G121" s="0" t="n">
-        <f aca="false">(C121+170)*2000/360</f>
-        <v>932.685183333333</v>
+        <f aca="false">1470*(C121+180)/360</f>
+        <v>726.356943083333</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,12 +4198,12 @@
         <v>1.94985564008142</v>
       </c>
       <c r="F122" s="0" t="n">
-        <f aca="false">1075-((B122+80)*1075/180)</f>
-        <v>412.083333333333</v>
+        <f aca="false">735*((90-B122)/180)</f>
+        <v>240.916666666667</v>
       </c>
       <c r="G122" s="0" t="n">
-        <f aca="false">(C122+170)*2000/360</f>
-        <v>1144.44444444444</v>
+        <f aca="false">1470*(C122+180)/360</f>
+        <v>882</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,12 +4225,12 @@
         <v>1.97967368360658</v>
       </c>
       <c r="F123" s="0" t="n">
-        <f aca="false">1075-((B123+80)*1075/180)</f>
-        <v>699.098359722222</v>
+        <f aca="false">735*((90-B123)/180)</f>
+        <v>437.1548475</v>
       </c>
       <c r="G123" s="0" t="n">
-        <f aca="false">(C123+170)*2000/360</f>
-        <v>1181.75927777778</v>
+        <f aca="false">1470*(C123+180)/360</f>
+        <v>909.4264025</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,12 +4252,12 @@
         <v>1.71319142132363</v>
       </c>
       <c r="F124" s="0" t="n">
-        <f aca="false">1075-((B124+80)*1075/180)</f>
-        <v>310.555555555556</v>
+        <f aca="false">735*((90-B124)/180)</f>
+        <v>171.5</v>
       </c>
       <c r="G124" s="0" t="n">
-        <f aca="false">(C124+170)*2000/360</f>
-        <v>1322.22222222222</v>
+        <f aca="false">1470*(C124+180)/360</f>
+        <v>1012.66666666667</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,12 +4279,12 @@
         <v>1.99994226960644</v>
       </c>
       <c r="F125" s="0" t="n">
-        <f aca="false">1075-((B125+80)*1075/180)</f>
-        <v>591.25</v>
+        <f aca="false">735*((90-B125)/180)</f>
+        <v>363.416666666667</v>
       </c>
       <c r="G125" s="0" t="n">
-        <f aca="false">(C125+170)*2000/360</f>
-        <v>1155.55555555556</v>
+        <f aca="false">1470*(C125+180)/360</f>
+        <v>890.166666666667</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,12 +4306,12 @@
         <v>1.99988518545807</v>
       </c>
       <c r="F126" s="0" t="n">
-        <f aca="false">1075-((B126+80)*1075/180)</f>
-        <v>627.083333333333</v>
+        <f aca="false">735*((90-B126)/180)</f>
+        <v>387.916666666667</v>
       </c>
       <c r="G126" s="0" t="n">
-        <f aca="false">(C126+170)*2000/360</f>
-        <v>0</v>
+        <f aca="false">1470*(C126+180)/360</f>
+        <v>40.8333333333333</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,12 +4333,12 @@
         <v>1.96473909668409</v>
       </c>
       <c r="F127" s="0" t="n">
-        <f aca="false">1075-((B127+80)*1075/180)</f>
-        <v>342.905094583333</v>
+        <f aca="false">735*((90-B127)/180)</f>
+        <v>193.618056916667</v>
       </c>
       <c r="G127" s="0" t="n">
-        <f aca="false">(C127+170)*2000/360</f>
-        <v>1061.11111111111</v>
+        <f aca="false">1470*(C127+180)/360</f>
+        <v>820.75</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,12 +4360,12 @@
         <v>1.92824948393254</v>
       </c>
       <c r="F128" s="0" t="n">
-        <f aca="false">1075-((B128+80)*1075/180)</f>
-        <v>421.041666666667</v>
+        <f aca="false">735*((90-B128)/180)</f>
+        <v>247.041666666667</v>
       </c>
       <c r="G128" s="0" t="n">
-        <f aca="false">(C128+170)*2000/360</f>
-        <v>1209.72222222222</v>
+        <f aca="false">1470*(C128+180)/360</f>
+        <v>929.979166666667</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,12 +4387,12 @@
         <v>1.77048032379626</v>
       </c>
       <c r="F129" s="0" t="n">
-        <f aca="false">1075-((B129+80)*1075/180)</f>
-        <v>352.361111111111</v>
+        <f aca="false">735*((90-B129)/180)</f>
+        <v>200.083333333333</v>
       </c>
       <c r="G129" s="0" t="n">
-        <f aca="false">(C129+170)*2000/360</f>
-        <v>1361.11111111111</v>
+        <f aca="false">1470*(C129+180)/360</f>
+        <v>1041.25</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,12 +4414,12 @@
         <v>1.95430990198346</v>
       </c>
       <c r="F130" s="0" t="n">
-        <f aca="false">1075-((B130+80)*1075/180)</f>
-        <v>489.722222222222</v>
+        <f aca="false">735*((90-B130)/180)</f>
+        <v>294</v>
       </c>
       <c r="G130" s="0" t="n">
-        <f aca="false">(C130+170)*2000/360</f>
-        <v>1527.77777777778</v>
+        <f aca="false">1470*(C130+180)/360</f>
+        <v>1163.75</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,12 +4441,12 @@
         <v>1.9129108379975</v>
       </c>
       <c r="F131" s="0" t="n">
-        <f aca="false">1075-((B131+80)*1075/180)</f>
-        <v>256.805555555556</v>
+        <f aca="false">735*((90-B131)/180)</f>
+        <v>134.75</v>
       </c>
       <c r="G131" s="0" t="n">
-        <f aca="false">(C131+170)*2000/360</f>
-        <v>1083.33333333333</v>
+        <f aca="false">1470*(C131+180)/360</f>
+        <v>837.083333333333</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,12 +4468,12 @@
         <v>1.94083920683705</v>
       </c>
       <c r="F132" s="0" t="n">
-        <f aca="false">1075-((B132+80)*1075/180)</f>
-        <v>395.162039027778</v>
+        <f aca="false">735*((90-B132)/180)</f>
+        <v>229.347223583333</v>
       </c>
       <c r="G132" s="0" t="n">
-        <f aca="false">(C132+170)*2000/360</f>
-        <v>1143.51851666667</v>
+        <f aca="false">1470*(C132+180)/360</f>
+        <v>881.319443083333</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,12 +4495,12 @@
         <v>1.97045204432255</v>
       </c>
       <c r="F133" s="0" t="n">
-        <f aca="false">1075-((B133+80)*1075/180)</f>
-        <v>773.402777777778</v>
+        <f aca="false">735*((90-B133)/180)</f>
+        <v>487.958333333333</v>
       </c>
       <c r="G133" s="0" t="n">
-        <f aca="false">(C133+170)*2000/360</f>
-        <v>1101.38888888889</v>
+        <f aca="false">1470*(C133+180)/360</f>
+        <v>850.354166666667</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,12 +4522,12 @@
         <v>1.99982470996717</v>
       </c>
       <c r="F134" s="0" t="n">
-        <f aca="false">1075-((B134+80)*1075/180)</f>
-        <v>558.402777777778</v>
+        <f aca="false">735*((90-B134)/180)</f>
+        <v>340.958333333333</v>
       </c>
       <c r="G134" s="0" t="n">
-        <f aca="false">(C134+170)*2000/360</f>
-        <v>891.666666666667</v>
+        <f aca="false">1470*(C134+180)/360</f>
+        <v>696.208333333333</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,12 +4549,12 @@
         <v>1.99187382134455</v>
       </c>
       <c r="F135" s="0" t="n">
-        <f aca="false">1075-((B135+80)*1075/180)</f>
-        <v>447.916666666667</v>
+        <f aca="false">735*((90-B135)/180)</f>
+        <v>265.416666666667</v>
       </c>
       <c r="G135" s="0" t="n">
-        <f aca="false">(C135+170)*2000/360</f>
-        <v>1038.88888888889</v>
+        <f aca="false">1470*(C135+180)/360</f>
+        <v>804.416666666667</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,12 +4576,12 @@
         <v>1.99071985001511</v>
       </c>
       <c r="F136" s="0" t="n">
-        <f aca="false">1075-((B136+80)*1075/180)</f>
-        <v>315.532405416667</v>
+        <f aca="false">735*((90-B136)/180)</f>
+        <v>174.902776416667</v>
       </c>
       <c r="G136" s="0" t="n">
-        <f aca="false">(C136+170)*2000/360</f>
-        <v>997.407405555556</v>
+        <f aca="false">1470*(C136+180)/360</f>
+        <v>773.927776416667</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,12 +4603,12 @@
         <v>1.92201693318851</v>
       </c>
       <c r="F137" s="0" t="n">
-        <f aca="false">1075-((B137+80)*1075/180)</f>
-        <v>262.777777777778</v>
+        <f aca="false">735*((90-B137)/180)</f>
+        <v>138.833333333333</v>
       </c>
       <c r="G137" s="0" t="n">
-        <f aca="false">(C137+170)*2000/360</f>
-        <v>1077.77777777778</v>
+        <f aca="false">1470*(C137+180)/360</f>
+        <v>833</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,12 +4630,12 @@
         <v>1.99565315494236</v>
       </c>
       <c r="F138" s="0" t="n">
-        <f aca="false">1075-((B138+80)*1075/180)</f>
-        <v>300.104166666667</v>
+        <f aca="false">735*((90-B138)/180)</f>
+        <v>164.354166666667</v>
       </c>
       <c r="G138" s="0" t="n">
-        <f aca="false">(C138+170)*2000/360</f>
-        <v>978.703705555555</v>
+        <f aca="false">1470*(C138+180)/360</f>
+        <v>760.180556916667</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,12 +4657,12 @@
         <v>1.93782356470388</v>
       </c>
       <c r="F139" s="0" t="n">
-        <f aca="false">1075-((B139+80)*1075/180)</f>
-        <v>464.891048055556</v>
+        <f aca="false">735*((90-B139)/180)</f>
+        <v>277.0224065</v>
       </c>
       <c r="G139" s="0" t="n">
-        <f aca="false">(C139+170)*2000/360</f>
-        <v>1575.33178888889</v>
+        <f aca="false">1470*(C139+180)/360</f>
+        <v>1198.70219816667</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,12 +4684,12 @@
         <v>1.96282838657062</v>
       </c>
       <c r="F140" s="0" t="n">
-        <f aca="false">1075-((B140+80)*1075/180)</f>
-        <v>347.38426125</v>
+        <f aca="false">735*((90-B140)/180)</f>
+        <v>196.680556916667</v>
       </c>
       <c r="G140" s="0" t="n">
-        <f aca="false">(C140+170)*2000/360</f>
-        <v>1066.66666666667</v>
+        <f aca="false">1470*(C140+180)/360</f>
+        <v>824.833333333333</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,12 +4711,12 @@
         <v>1.96758995186101</v>
       </c>
       <c r="F141" s="0" t="n">
-        <f aca="false">1075-((B141+80)*1075/180)</f>
-        <v>716.666666666667</v>
+        <f aca="false">735*((90-B141)/180)</f>
+        <v>449.166666666667</v>
       </c>
       <c r="G141" s="0" t="n">
-        <f aca="false">(C141+170)*2000/360</f>
-        <v>1205.55555555556</v>
+        <f aca="false">1470*(C141+180)/360</f>
+        <v>926.916666666667</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,12 +4738,12 @@
         <v>1.99133263242828</v>
       </c>
       <c r="F142" s="0" t="n">
-        <f aca="false">1075-((B142+80)*1075/180)</f>
-        <v>677.847222222222</v>
+        <f aca="false">735*((90-B142)/180)</f>
+        <v>422.625</v>
       </c>
       <c r="G142" s="0" t="n">
-        <f aca="false">(C142+170)*2000/360</f>
-        <v>1133.33333333333</v>
+        <f aca="false">1470*(C142+180)/360</f>
+        <v>873.833333333333</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,12 +4765,12 @@
         <v>1.99918758742779</v>
       </c>
       <c r="F143" s="0" t="n">
-        <f aca="false">1075-((B143+80)*1075/180)</f>
-        <v>582.291666666667</v>
+        <f aca="false">735*((90-B143)/180)</f>
+        <v>357.291666666667</v>
       </c>
       <c r="G143" s="0" t="n">
-        <f aca="false">(C143+170)*2000/360</f>
-        <v>1569.44444444444</v>
+        <f aca="false">1470*(C143+180)/360</f>
+        <v>1194.375</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,12 +4792,12 @@
         <v>1.99857401786563</v>
       </c>
       <c r="F144" s="0" t="n">
-        <f aca="false">1075-((B144+80)*1075/180)</f>
-        <v>578.111111111111</v>
+        <f aca="false">735*((90-B144)/180)</f>
+        <v>354.433333333333</v>
       </c>
       <c r="G144" s="0" t="n">
-        <f aca="false">(C144+170)*2000/360</f>
-        <v>1350</v>
+        <f aca="false">1470*(C144+180)/360</f>
+        <v>1033.08333333333</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,12 +4819,12 @@
         <v>1.99978582138006</v>
       </c>
       <c r="F145" s="0" t="n">
-        <f aca="false">1075-((B145+80)*1075/180)</f>
-        <v>495.694444444445</v>
+        <f aca="false">735*((90-B145)/180)</f>
+        <v>298.083333333333</v>
       </c>
       <c r="G145" s="0" t="n">
-        <f aca="false">(C145+170)*2000/360</f>
-        <v>922.222222222222</v>
+        <f aca="false">1470*(C145+180)/360</f>
+        <v>718.666666666667</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,12 +4846,12 @@
         <v>1.98781809995671</v>
       </c>
       <c r="F146" s="0" t="n">
-        <f aca="false">1075-((B146+80)*1075/180)</f>
-        <v>382.719905416667</v>
+        <f aca="false">735*((90-B146)/180)</f>
+        <v>220.840276416667</v>
       </c>
       <c r="G146" s="0" t="n">
-        <f aca="false">(C146+170)*2000/360</f>
-        <v>1024.62962777778</v>
+        <f aca="false">1470*(C146+180)/360</f>
+        <v>793.93610975</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,12 +4873,12 @@
         <v>1.99922937158629</v>
       </c>
       <c r="F147" s="0" t="n">
-        <f aca="false">1075-((B147+80)*1075/180)</f>
-        <v>537.5</v>
+        <f aca="false">735*((90-B147)/180)</f>
+        <v>326.666666666667</v>
       </c>
       <c r="G147" s="0" t="n">
-        <f aca="false">(C147+170)*2000/360</f>
-        <v>1872.22222222222</v>
+        <f aca="false">1470*(C147+180)/360</f>
+        <v>1416.91666666667</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,12 +4900,12 @@
         <v>1.97504191436883</v>
       </c>
       <c r="F148" s="0" t="n">
-        <f aca="false">1075-((B148+80)*1075/180)</f>
-        <v>509.629627638889</v>
+        <f aca="false">735*((90-B148)/180)</f>
+        <v>307.61110975</v>
       </c>
       <c r="G148" s="0" t="n">
-        <f aca="false">(C148+170)*2000/360</f>
-        <v>605.555555555556</v>
+        <f aca="false">1470*(C148+180)/360</f>
+        <v>485.916666666667</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,12 +4927,12 @@
         <v>1.99736759977106</v>
       </c>
       <c r="F149" s="0" t="n">
-        <f aca="false">1075-((B149+80)*1075/180)</f>
-        <v>477.777777777778</v>
+        <f aca="false">735*((90-B149)/180)</f>
+        <v>285.833333333333</v>
       </c>
       <c r="G149" s="0" t="n">
-        <f aca="false">(C149+170)*2000/360</f>
-        <v>877.777777777778</v>
+        <f aca="false">1470*(C149+180)/360</f>
+        <v>686</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,12 +4954,12 @@
         <v>1.95560451638093</v>
       </c>
       <c r="F150" s="0" t="n">
-        <f aca="false">1075-((B150+80)*1075/180)</f>
-        <v>718.458333333333</v>
+        <f aca="false">735*((90-B150)/180)</f>
+        <v>450.391666666667</v>
       </c>
       <c r="G150" s="0" t="n">
-        <f aca="false">(C150+170)*2000/360</f>
-        <v>1264.35185</v>
+        <f aca="false">1470*(C150+180)/360</f>
+        <v>970.131943083333</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,12 +4981,12 @@
         <v>1.98741133562206</v>
       </c>
       <c r="F151" s="0" t="n">
-        <f aca="false">1075-((B151+80)*1075/180)</f>
-        <v>673.86573875</v>
+        <f aca="false">735*((90-B151)/180)</f>
+        <v>419.902776416667</v>
       </c>
       <c r="G151" s="0" t="n">
-        <f aca="false">(C151+170)*2000/360</f>
-        <v>1195.37037222222</v>
+        <f aca="false">1470*(C151+180)/360</f>
+        <v>919.430556916667</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,12 +5008,12 @@
         <v>1.92389693179808</v>
       </c>
       <c r="F152" s="0" t="n">
-        <f aca="false">1075-((B152+80)*1075/180)</f>
-        <v>459.861111111111</v>
+        <f aca="false">735*((90-B152)/180)</f>
+        <v>273.583333333333</v>
       </c>
       <c r="G152" s="0" t="n">
-        <f aca="false">(C152+170)*2000/360</f>
-        <v>377.777777777778</v>
+        <f aca="false">1470*(C152+180)/360</f>
+        <v>318.5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,12 +5035,12 @@
         <v>1.92195745946952</v>
       </c>
       <c r="F153" s="0" t="n">
-        <f aca="false">1075-((B153+80)*1075/180)</f>
-        <v>316.527777777778</v>
+        <f aca="false">735*((90-B153)/180)</f>
+        <v>175.583333333333</v>
       </c>
       <c r="G153" s="0" t="n">
-        <f aca="false">(C153+170)*2000/360</f>
-        <v>1105.55555555556</v>
+        <f aca="false">1470*(C153+180)/360</f>
+        <v>853.416666666667</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,12 +5062,12 @@
         <v>1.99517161242609</v>
       </c>
       <c r="F154" s="0" t="n">
-        <f aca="false">1075-((B154+80)*1075/180)</f>
-        <v>336.037039027778</v>
+        <f aca="false">735*((90-B154)/180)</f>
+        <v>188.922223583333</v>
       </c>
       <c r="G154" s="0" t="n">
-        <f aca="false">(C154+170)*2000/360</f>
-        <v>985.555555555556</v>
+        <f aca="false">1470*(C154+180)/360</f>
+        <v>765.216666666667</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,12 +5089,12 @@
         <v>1.71407461792927</v>
       </c>
       <c r="F155" s="0" t="n">
-        <f aca="false">1075-((B155+80)*1075/180)</f>
-        <v>322.5</v>
+        <f aca="false">735*((90-B155)/180)</f>
+        <v>179.666666666667</v>
       </c>
       <c r="G155" s="0" t="n">
-        <f aca="false">(C155+170)*2000/360</f>
-        <v>1527.77777777778</v>
+        <f aca="false">1470*(C155+180)/360</f>
+        <v>1163.75</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,12 +5116,12 @@
         <v>1.9700975360706</v>
       </c>
       <c r="F156" s="0" t="n">
-        <f aca="false">1075-((B156+80)*1075/180)</f>
-        <v>343.402777777778</v>
+        <f aca="false">735*((90-B156)/180)</f>
+        <v>193.958333333333</v>
       </c>
       <c r="G156" s="0" t="n">
-        <f aca="false">(C156+170)*2000/360</f>
-        <v>1051.66666666667</v>
+        <f aca="false">1470*(C156+180)/360</f>
+        <v>813.808333333333</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,12 +5143,12 @@
         <v>1.96674875290953</v>
       </c>
       <c r="F157" s="0" t="n">
-        <f aca="false">1075-((B157+80)*1075/180)</f>
-        <v>497.1875</v>
+        <f aca="false">735*((90-B157)/180)</f>
+        <v>299.104166666667</v>
       </c>
       <c r="G157" s="0" t="n">
-        <f aca="false">(C157+170)*2000/360</f>
-        <v>598.888888888889</v>
+        <f aca="false">1470*(C157+180)/360</f>
+        <v>481.016666666667</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,12 +5170,12 @@
         <v>1.99881551120149</v>
       </c>
       <c r="F158" s="0" t="n">
-        <f aca="false">1075-((B158+80)*1075/180)</f>
-        <v>406.111111111111</v>
+        <f aca="false">735*((90-B158)/180)</f>
+        <v>236.833333333333</v>
       </c>
       <c r="G158" s="0" t="n">
-        <f aca="false">(C158+170)*2000/360</f>
-        <v>916.666666666667</v>
+        <f aca="false">1470*(C158+180)/360</f>
+        <v>714.583333333333</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,12 +5197,12 @@
         <v>1.98335726316791</v>
       </c>
       <c r="F159" s="0" t="n">
-        <f aca="false">1075-((B159+80)*1075/180)</f>
-        <v>706.215277777778</v>
+        <f aca="false">735*((90-B159)/180)</f>
+        <v>442.020833333333</v>
       </c>
       <c r="G159" s="0" t="n">
-        <f aca="false">(C159+170)*2000/360</f>
-        <v>1138.88888888889</v>
+        <f aca="false">1470*(C159+180)/360</f>
+        <v>877.916666666667</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,12 +5224,12 @@
         <v>1.9937051611175</v>
       </c>
       <c r="F160" s="0" t="n">
-        <f aca="false">1075-((B160+80)*1075/180)</f>
-        <v>728.611111111111</v>
+        <f aca="false">735*((90-B160)/180)</f>
+        <v>457.333333333333</v>
       </c>
       <c r="G160" s="0" t="n">
-        <f aca="false">(C160+170)*2000/360</f>
-        <v>1038.88888888889</v>
+        <f aca="false">1470*(C160+180)/360</f>
+        <v>804.416666666667</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,12 +5251,12 @@
         <v>1.99999778000774</v>
       </c>
       <c r="F161" s="0" t="n">
-        <f aca="false">1075-((B161+80)*1075/180)</f>
-        <v>600.407405416667</v>
+        <f aca="false">735*((90-B161)/180)</f>
+        <v>369.677776416667</v>
       </c>
       <c r="G161" s="0" t="n">
-        <f aca="false">(C161+170)*2000/360</f>
-        <v>1871.75926111111</v>
+        <f aca="false">1470*(C161+180)/360</f>
+        <v>1416.57639025</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,12 +5278,12 @@
         <v>1.88420125294506</v>
       </c>
       <c r="F162" s="0" t="n">
-        <f aca="false">1075-((B162+80)*1075/180)</f>
-        <v>430</v>
+        <f aca="false">735*((90-B162)/180)</f>
+        <v>253.166666666667</v>
       </c>
       <c r="G162" s="0" t="n">
-        <f aca="false">(C162+170)*2000/360</f>
-        <v>1411.11111111111</v>
+        <f aca="false">1470*(C162+180)/360</f>
+        <v>1078</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,12 +5305,12 @@
         <v>1.99578914518955</v>
       </c>
       <c r="F163" s="0" t="n">
-        <f aca="false">1075-((B163+80)*1075/180)</f>
-        <v>283.680555555556</v>
+        <f aca="false">735*((90-B163)/180)</f>
+        <v>153.125</v>
       </c>
       <c r="G163" s="0" t="n">
-        <f aca="false">(C163+170)*2000/360</f>
-        <v>976.388888888889</v>
+        <f aca="false">1470*(C163+180)/360</f>
+        <v>758.479166666667</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,12 +5332,12 @@
         <v>1.99558956478381</v>
       </c>
       <c r="F164" s="0" t="n">
-        <f aca="false">1075-((B164+80)*1075/180)</f>
-        <v>725.625</v>
+        <f aca="false">735*((90-B164)/180)</f>
+        <v>455.291666666667</v>
       </c>
       <c r="G164" s="0" t="n">
-        <f aca="false">(C164+170)*2000/360</f>
-        <v>1863.88888888889</v>
+        <f aca="false">1470*(C164+180)/360</f>
+        <v>1410.79166666667</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,12 +5359,12 @@
         <v>1.99706586590794</v>
       </c>
       <c r="F165" s="0" t="n">
-        <f aca="false">1075-((B165+80)*1075/180)</f>
-        <v>848.055555555556</v>
+        <f aca="false">735*((90-B165)/180)</f>
+        <v>539</v>
       </c>
       <c r="G165" s="0" t="n">
-        <f aca="false">(C165+170)*2000/360</f>
-        <v>1911.11111111111</v>
+        <f aca="false">1470*(C165+180)/360</f>
+        <v>1445.5</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,12 +5386,12 @@
         <v>1.97456392334206</v>
       </c>
       <c r="F166" s="0" t="n">
-        <f aca="false">1075-((B166+80)*1075/180)</f>
-        <v>519.583333333333</v>
+        <f aca="false">735*((90-B166)/180)</f>
+        <v>314.416666666667</v>
       </c>
       <c r="G166" s="0" t="n">
-        <f aca="false">(C166+170)*2000/360</f>
-        <v>472.222222222222</v>
+        <f aca="false">1470*(C166+180)/360</f>
+        <v>387.916666666667</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,12 +5413,12 @@
         <v>1.99924487187283</v>
       </c>
       <c r="F167" s="0" t="n">
-        <f aca="false">1075-((B167+80)*1075/180)</f>
-        <v>501.666666666667</v>
+        <f aca="false">735*((90-B167)/180)</f>
+        <v>302.166666666667</v>
       </c>
       <c r="G167" s="0" t="n">
-        <f aca="false">(C167+170)*2000/360</f>
-        <v>988.888888888889</v>
+        <f aca="false">1470*(C167+180)/360</f>
+        <v>767.666666666667</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,12 +5440,12 @@
         <v>1.99970500544902</v>
       </c>
       <c r="F168" s="0" t="n">
-        <f aca="false">1075-((B168+80)*1075/180)</f>
-        <v>537.5</v>
+        <f aca="false">735*((90-B168)/180)</f>
+        <v>326.666666666667</v>
       </c>
       <c r="G168" s="0" t="n">
-        <f aca="false">(C168+170)*2000/360</f>
-        <v>988.888888888889</v>
+        <f aca="false">1470*(C168+180)/360</f>
+        <v>767.666666666667</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,12 +5467,12 @@
         <v>1.99829251354391</v>
       </c>
       <c r="F169" s="0" t="n">
-        <f aca="false">1075-((B169+80)*1075/180)</f>
-        <v>710.893516527778</v>
+        <f aca="false">735*((90-B169)/180)</f>
+        <v>445.219443083333</v>
       </c>
       <c r="G169" s="0" t="n">
-        <f aca="false">(C169+170)*2000/360</f>
-        <v>0.740738888888851</v>
+        <f aca="false">1470*(C169+180)/360</f>
+        <v>41.3777764166666</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,12 +5494,12 @@
         <v>1.99440976945837</v>
       </c>
       <c r="F170" s="0" t="n">
-        <f aca="false">1075-((B170+80)*1075/180)</f>
-        <v>770.61573875</v>
+        <f aca="false">735*((90-B170)/180)</f>
+        <v>486.052776416667</v>
       </c>
       <c r="G170" s="0" t="n">
-        <f aca="false">(C170+170)*2000/360</f>
-        <v>1877.5</v>
+        <f aca="false">1470*(C170+180)/360</f>
+        <v>1420.79583333333</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,12 +5521,12 @@
         <v>1.84855250905402</v>
       </c>
       <c r="F171" s="0" t="n">
-        <f aca="false">1075-((B171+80)*1075/180)</f>
-        <v>358.333333333333</v>
+        <f aca="false">735*((90-B171)/180)</f>
+        <v>204.166666666667</v>
       </c>
       <c r="G171" s="0" t="n">
-        <f aca="false">(C171+170)*2000/360</f>
-        <v>1650</v>
+        <f aca="false">1470*(C171+180)/360</f>
+        <v>1253.58333333333</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5548,12 +5548,12 @@
         <v>1.98783238904845</v>
       </c>
       <c r="F172" s="0" t="n">
-        <f aca="false">1075-((B172+80)*1075/180)</f>
-        <v>501.666666666667</v>
+        <f aca="false">735*((90-B172)/180)</f>
+        <v>302.166666666667</v>
       </c>
       <c r="G172" s="0" t="n">
-        <f aca="false">(C172+170)*2000/360</f>
-        <v>1755.55555555556</v>
+        <f aca="false">1470*(C172+180)/360</f>
+        <v>1331.16666666667</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,12 +5575,12 @@
         <v>1.98239766236101</v>
       </c>
       <c r="F173" s="0" t="n">
-        <f aca="false">1075-((B173+80)*1075/180)</f>
-        <v>226.944444444444</v>
+        <f aca="false">735*((90-B173)/180)</f>
+        <v>114.333333333333</v>
       </c>
       <c r="G173" s="0" t="n">
-        <f aca="false">(C173+170)*2000/360</f>
-        <v>1000</v>
+        <f aca="false">1470*(C173+180)/360</f>
+        <v>775.833333333333</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,12 +5602,12 @@
         <v>1.95312688604265</v>
       </c>
       <c r="F174" s="0" t="n">
-        <f aca="false">1075-((B174+80)*1075/180)</f>
-        <v>471.805555555556</v>
+        <f aca="false">735*((90-B174)/180)</f>
+        <v>281.75</v>
       </c>
       <c r="G174" s="0" t="n">
-        <f aca="false">(C174+170)*2000/360</f>
-        <v>1261.11111111111</v>
+        <f aca="false">1470*(C174+180)/360</f>
+        <v>967.75</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,12 +5629,12 @@
         <v>1.88137949456795</v>
       </c>
       <c r="F175" s="0" t="n">
-        <f aca="false">1075-((B175+80)*1075/180)</f>
-        <v>418.055555555556</v>
+        <f aca="false">735*((90-B175)/180)</f>
+        <v>245</v>
       </c>
       <c r="G175" s="0" t="n">
-        <f aca="false">(C175+170)*2000/360</f>
-        <v>1333.33333333333</v>
+        <f aca="false">1470*(C175+180)/360</f>
+        <v>1020.83333333333</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,12 +5656,12 @@
         <v>1.99716410566754</v>
       </c>
       <c r="F176" s="0" t="n">
-        <f aca="false">1075-((B176+80)*1075/180)</f>
-        <v>561.388888888889</v>
+        <f aca="false">735*((90-B176)/180)</f>
+        <v>343</v>
       </c>
       <c r="G176" s="0" t="n">
-        <f aca="false">(C176+170)*2000/360</f>
-        <v>1688.88888888889</v>
+        <f aca="false">1470*(C176+180)/360</f>
+        <v>1282.16666666667</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,12 +5683,12 @@
         <v>1.98805884191009</v>
       </c>
       <c r="F177" s="0" t="n">
-        <f aca="false">1075-((B177+80)*1075/180)</f>
-        <v>543.472222222222</v>
+        <f aca="false">735*((90-B177)/180)</f>
+        <v>330.75</v>
       </c>
       <c r="G177" s="0" t="n">
-        <f aca="false">(C177+170)*2000/360</f>
-        <v>500</v>
+        <f aca="false">1470*(C177+180)/360</f>
+        <v>408.333333333333</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,12 +5710,12 @@
         <v>1.998373975673</v>
       </c>
       <c r="F178" s="0" t="n">
-        <f aca="false">1075-((B178+80)*1075/180)</f>
-        <v>633.055555555556</v>
+        <f aca="false">735*((90-B178)/180)</f>
+        <v>392</v>
       </c>
       <c r="G178" s="0" t="n">
-        <f aca="false">(C178+170)*2000/360</f>
-        <v>1761.11111111111</v>
+        <f aca="false">1470*(C178+180)/360</f>
+        <v>1335.25</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,12 +5737,12 @@
         <v>1.94264915606051</v>
       </c>
       <c r="F179" s="0" t="n">
-        <f aca="false">1075-((B179+80)*1075/180)</f>
-        <v>734.543516527778</v>
+        <f aca="false">735*((90-B179)/180)</f>
+        <v>461.389443083333</v>
       </c>
       <c r="G179" s="0" t="n">
-        <f aca="false">(C179+170)*2000/360</f>
-        <v>622.242283333333</v>
+        <f aca="false">1470*(C179+180)/360</f>
+        <v>498.181411583333</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,12 +5764,12 @@
         <v>1.98569477136978</v>
       </c>
       <c r="F180" s="0" t="n">
-        <f aca="false">1075-((B180+80)*1075/180)</f>
-        <v>656.944444444444</v>
+        <f aca="false">735*((90-B180)/180)</f>
+        <v>408.333333333333</v>
       </c>
       <c r="G180" s="0" t="n">
-        <f aca="false">(C180+170)*2000/360</f>
-        <v>522.222222222222</v>
+        <f aca="false">1470*(C180+180)/360</f>
+        <v>424.666666666667</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,12 +5791,12 @@
         <v>1.98154508466565</v>
       </c>
       <c r="F181" s="0" t="n">
-        <f aca="false">1075-((B181+80)*1075/180)</f>
-        <v>519.583333333333</v>
+        <f aca="false">735*((90-B181)/180)</f>
+        <v>314.416666666667</v>
       </c>
       <c r="G181" s="0" t="n">
-        <f aca="false">(C181+170)*2000/360</f>
-        <v>1622.22222222222</v>
+        <f aca="false">1470*(C181+180)/360</f>
+        <v>1233.16666666667</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,12 +5818,12 @@
         <v>1.94452533576144</v>
       </c>
       <c r="F182" s="0" t="n">
-        <f aca="false">1075-((B182+80)*1075/180)</f>
-        <v>746.925927916667</v>
+        <f aca="false">735*((90-B182)/180)</f>
+        <v>469.855556916667</v>
       </c>
       <c r="G182" s="0" t="n">
-        <f aca="false">(C182+170)*2000/360</f>
-        <v>221.666666666667</v>
+        <f aca="false">1470*(C182+180)/360</f>
+        <v>203.758333333333</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,12 +5845,12 @@
         <v>1.95220913798219</v>
       </c>
       <c r="F183" s="0" t="n">
-        <f aca="false">1075-((B183+80)*1075/180)</f>
-        <v>286.666666666667</v>
+        <f aca="false">735*((90-B183)/180)</f>
+        <v>155.166666666667</v>
       </c>
       <c r="G183" s="0" t="n">
-        <f aca="false">(C183+170)*2000/360</f>
-        <v>1055.55555555556</v>
+        <f aca="false">1470*(C183+180)/360</f>
+        <v>816.666666666667</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,12 +5872,12 @@
         <v>1.99540065120642</v>
       </c>
       <c r="F184" s="0" t="n">
-        <f aca="false">1075-((B184+80)*1075/180)</f>
-        <v>361.319444444444</v>
+        <f aca="false">735*((90-B184)/180)</f>
+        <v>206.208333333333</v>
       </c>
       <c r="G184" s="0" t="n">
-        <f aca="false">(C184+170)*2000/360</f>
-        <v>900</v>
+        <f aca="false">1470*(C184+180)/360</f>
+        <v>702.333333333333</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,12 +5899,12 @@
         <v>1.95764796822695</v>
       </c>
       <c r="F185" s="0" t="n">
-        <f aca="false">1075-((B185+80)*1075/180)</f>
-        <v>488.239389916667</v>
+        <f aca="false">735*((90-B185)/180)</f>
+        <v>292.986156516667</v>
       </c>
       <c r="G185" s="0" t="n">
-        <f aca="false">(C185+170)*2000/360</f>
-        <v>575.000588333333</v>
+        <f aca="false">1470*(C185+180)/360</f>
+        <v>463.458765758333</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,12 +5926,12 @@
         <v>1.94036500998409</v>
       </c>
       <c r="F186" s="0" t="n">
-        <f aca="false">1075-((B186+80)*1075/180)</f>
-        <v>444.930555555556</v>
+        <f aca="false">735*((90-B186)/180)</f>
+        <v>263.375</v>
       </c>
       <c r="G186" s="0" t="n">
-        <f aca="false">(C186+170)*2000/360</f>
-        <v>1229.16666666667</v>
+        <f aca="false">1470*(C186+180)/360</f>
+        <v>944.270833333333</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5953,12 +5953,12 @@
         <v>1.9999897972684</v>
       </c>
       <c r="F187" s="0" t="n">
-        <f aca="false">1075-((B187+80)*1075/180)</f>
-        <v>603.194444444445</v>
+        <f aca="false">735*((90-B187)/180)</f>
+        <v>371.583333333333</v>
       </c>
       <c r="G187" s="0" t="n">
-        <f aca="false">(C187+170)*2000/360</f>
-        <v>1027.77777777778</v>
+        <f aca="false">1470*(C187+180)/360</f>
+        <v>796.25</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,12 +5980,12 @@
         <v>1.95418867081591</v>
       </c>
       <c r="F188" s="0" t="n">
-        <f aca="false">1075-((B188+80)*1075/180)</f>
-        <v>723.236111111111</v>
+        <f aca="false">735*((90-B188)/180)</f>
+        <v>453.658333333333</v>
       </c>
       <c r="G188" s="0" t="n">
-        <f aca="false">(C188+170)*2000/360</f>
-        <v>1253.33333333333</v>
+        <f aca="false">1470*(C188+180)/360</f>
+        <v>962.033333333333</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,12 +6007,12 @@
         <v>1.94298797976166</v>
       </c>
       <c r="F189" s="0" t="n">
-        <f aca="false">1075-((B189+80)*1075/180)</f>
-        <v>322.5</v>
+        <f aca="false">735*((90-B189)/180)</f>
+        <v>179.666666666667</v>
       </c>
       <c r="G189" s="0" t="n">
-        <f aca="false">(C189+170)*2000/360</f>
-        <v>1083.33333333333</v>
+        <f aca="false">1470*(C189+180)/360</f>
+        <v>837.083333333333</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,12 +6034,12 @@
         <v>1.51371398777017</v>
       </c>
       <c r="F190" s="0" t="n">
-        <f aca="false">1075-((B190+80)*1075/180)</f>
-        <v>238.888888888889</v>
+        <f aca="false">735*((90-B190)/180)</f>
+        <v>122.5</v>
       </c>
       <c r="G190" s="0" t="n">
-        <f aca="false">(C190+170)*2000/360</f>
-        <v>1500</v>
+        <f aca="false">1470*(C190+180)/360</f>
+        <v>1143.33333333333</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,12 +6061,12 @@
         <v>1.99984769515639</v>
       </c>
       <c r="F191" s="0" t="n">
-        <f aca="false">1075-((B191+80)*1075/180)</f>
-        <v>609.166666666667</v>
+        <f aca="false">735*((90-B191)/180)</f>
+        <v>375.666666666667</v>
       </c>
       <c r="G191" s="0" t="n">
-        <f aca="false">(C191+170)*2000/360</f>
-        <v>1111.11111111111</v>
+        <f aca="false">1470*(C191+180)/360</f>
+        <v>857.5</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,12 +6088,12 @@
         <v>1.96162019396799</v>
       </c>
       <c r="F192" s="0" t="n">
-        <f aca="false">1075-((B192+80)*1075/180)</f>
-        <v>490.319444444445</v>
+        <f aca="false">735*((90-B192)/180)</f>
+        <v>294.408333333333</v>
       </c>
       <c r="G192" s="0" t="n">
-        <f aca="false">(C192+170)*2000/360</f>
-        <v>595.370372222222</v>
+        <f aca="false">1470*(C192+180)/360</f>
+        <v>478.430556916667</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,12 +6115,12 @@
         <v>1.96405075649357</v>
       </c>
       <c r="F193" s="0" t="n">
-        <f aca="false">1075-((B193+80)*1075/180)</f>
-        <v>493.703705694445</v>
+        <f aca="false">735*((90-B193)/180)</f>
+        <v>296.722223583333</v>
       </c>
       <c r="G193" s="0" t="n">
-        <f aca="false">(C193+170)*2000/360</f>
-        <v>595.833333333333</v>
+        <f aca="false">1470*(C193+180)/360</f>
+        <v>478.770833333333</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,12 +6142,12 @@
         <v>1.97764135937918</v>
       </c>
       <c r="F194" s="0" t="n">
-        <f aca="false">1075-((B194+80)*1075/180)</f>
-        <v>514.307872361111</v>
+        <f aca="false">735*((90-B194)/180)</f>
+        <v>310.809723583333</v>
       </c>
       <c r="G194" s="0" t="n">
-        <f aca="false">(C194+170)*2000/360</f>
-        <v>605.740738888889</v>
+        <f aca="false">1470*(C194+180)/360</f>
+        <v>486.052776416667</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,12 +6169,12 @@
         <v>1.96071481089326</v>
       </c>
       <c r="F195" s="0" t="n">
-        <f aca="false">1075-((B195+80)*1075/180)</f>
-        <v>489.274305555556</v>
+        <f aca="false">735*((90-B195)/180)</f>
+        <v>293.69375</v>
       </c>
       <c r="G195" s="0" t="n">
-        <f aca="false">(C195+170)*2000/360</f>
-        <v>594.120388888889</v>
+        <f aca="false">1470*(C195+180)/360</f>
+        <v>477.511819166667</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,12 +6196,12 @@
         <v>1.77738430408719</v>
       </c>
       <c r="F196" s="0" t="n">
-        <f aca="false">1075-((B196+80)*1075/180)</f>
-        <v>317.523150138889</v>
+        <f aca="false">735*((90-B196)/180)</f>
+        <v>176.26389025</v>
       </c>
       <c r="G196" s="0" t="n">
-        <f aca="false">(C196+170)*2000/360</f>
-        <v>631.481483333333</v>
+        <f aca="false">1470*(C196+180)/360</f>
+        <v>504.972223583333</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,12 +6223,12 @@
         <v>1.98004626672654</v>
       </c>
       <c r="F197" s="0" t="n">
-        <f aca="false">1075-((B197+80)*1075/180)</f>
-        <v>519.085650138889</v>
+        <f aca="false">735*((90-B197)/180)</f>
+        <v>314.07639025</v>
       </c>
       <c r="G197" s="0" t="n">
-        <f aca="false">(C197+170)*2000/360</f>
-        <v>604.444444444444</v>
+        <f aca="false">1470*(C197+180)/360</f>
+        <v>485.1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,12 +6250,12 @@
         <v>1.99946260284417</v>
       </c>
       <c r="F198" s="0" t="n">
-        <f aca="false">1075-((B198+80)*1075/180)</f>
-        <v>679.657378888889</v>
+        <f aca="false">735*((90-B198)/180)</f>
+        <v>423.862642</v>
       </c>
       <c r="G198" s="0" t="n">
-        <f aca="false">(C198+170)*2000/360</f>
-        <v>-12.1017166666667</v>
+        <f aca="false">1470*(C198+180)/360</f>
+        <v>31.9385715833333</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,12 +6277,12 @@
         <v>1.98643922749653</v>
       </c>
       <c r="F199" s="0" t="n">
-        <f aca="false">1075-((B199+80)*1075/180)</f>
-        <v>334.842594583333</v>
+        <f aca="false">735*((90-B199)/180)</f>
+        <v>188.105556916667</v>
       </c>
       <c r="G199" s="0" t="n">
-        <f aca="false">(C199+170)*2000/360</f>
-        <v>1013.42592777778</v>
+        <f aca="false">1470*(C199+180)/360</f>
+        <v>785.70139025</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,12 +6304,12 @@
         <v>1.99999773789105</v>
       </c>
       <c r="F200" s="0" t="n">
-        <f aca="false">1075-((B200+80)*1075/180)</f>
-        <v>591.25</v>
+        <f aca="false">735*((90-B200)/180)</f>
+        <v>363.416666666667</v>
       </c>
       <c r="G200" s="0" t="n">
-        <f aca="false">(C200+170)*2000/360</f>
-        <v>983.333333333333</v>
+        <f aca="false">1470*(C200+180)/360</f>
+        <v>763.583333333333</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,12 +6331,12 @@
         <v>1.95277990281253</v>
       </c>
       <c r="F201" s="0" t="n">
-        <f aca="false">1075-((B201+80)*1075/180)</f>
-        <v>447.916666666667</v>
+        <f aca="false">735*((90-B201)/180)</f>
+        <v>265.416666666667</v>
       </c>
       <c r="G201" s="0" t="n">
-        <f aca="false">(C201+170)*2000/360</f>
-        <v>1194.44444444444</v>
+        <f aca="false">1470*(C201+180)/360</f>
+        <v>918.75</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6358,12 +6358,12 @@
         <v>1.99825335478863</v>
       </c>
       <c r="F202" s="0" t="n">
-        <f aca="false">1075-((B202+80)*1075/180)</f>
-        <v>513.611111111111</v>
+        <f aca="false">735*((90-B202)/180)</f>
+        <v>310.333333333333</v>
       </c>
       <c r="G202" s="0" t="n">
-        <f aca="false">(C202+170)*2000/360</f>
-        <v>866.666666666667</v>
+        <f aca="false">1470*(C202+180)/360</f>
+        <v>677.833333333333</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,12 +6385,12 @@
         <v>1.96236901333239</v>
       </c>
       <c r="F203" s="0" t="n">
-        <f aca="false">1075-((B203+80)*1075/180)</f>
-        <v>334.444444444444</v>
+        <f aca="false">735*((90-B203)/180)</f>
+        <v>187.833333333333</v>
       </c>
       <c r="G203" s="0" t="n">
-        <f aca="false">(C203+170)*2000/360</f>
-        <v>1061.11111111111</v>
+        <f aca="false">1470*(C203+180)/360</f>
+        <v>820.75</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,12 +6412,12 @@
         <v>1.99781903765803</v>
       </c>
       <c r="F204" s="0" t="n">
-        <f aca="false">1075-((B204+80)*1075/180)</f>
-        <v>624.594905416667</v>
+        <f aca="false">735*((90-B204)/180)</f>
+        <v>386.215276416667</v>
       </c>
       <c r="G204" s="0" t="n">
-        <f aca="false">(C204+170)*2000/360</f>
-        <v>1253.70370555556</v>
+        <f aca="false">1470*(C204+180)/360</f>
+        <v>962.305556916667</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6439,12 +6439,12 @@
         <v>1.99956263749363</v>
       </c>
       <c r="F205" s="0" t="n">
-        <f aca="false">1075-((B205+80)*1075/180)</f>
-        <v>546.458333333333</v>
+        <f aca="false">735*((90-B205)/180)</f>
+        <v>332.791666666667</v>
       </c>
       <c r="G205" s="0" t="n">
-        <f aca="false">(C205+170)*2000/360</f>
-        <v>880.555555555556</v>
+        <f aca="false">1470*(C205+180)/360</f>
+        <v>688.041666666667</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,12 +6466,12 @@
         <v>1.99973171937799</v>
       </c>
       <c r="F206" s="0" t="n">
-        <f aca="false">1075-((B206+80)*1075/180)</f>
-        <v>589.060183194444</v>
+        <f aca="false">735*((90-B206)/180)</f>
+        <v>361.919443083333</v>
       </c>
       <c r="G206" s="0" t="n">
-        <f aca="false">(C206+170)*2000/360</f>
-        <v>1521.11111111111</v>
+        <f aca="false">1470*(C206+180)/360</f>
+        <v>1158.85</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,12 +6493,12 @@
         <v>1.96085285533821</v>
       </c>
       <c r="F207" s="0" t="n">
-        <f aca="false">1075-((B207+80)*1075/180)</f>
-        <v>489.473359722222</v>
+        <f aca="false">735*((90-B207)/180)</f>
+        <v>293.8298475</v>
       </c>
       <c r="G207" s="0" t="n">
-        <f aca="false">(C207+170)*2000/360</f>
-        <v>594.074055555556</v>
+        <f aca="false">1470*(C207+180)/360</f>
+        <v>477.477764166667</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,12 +6520,12 @@
         <v>1.96007296551452</v>
       </c>
       <c r="F208" s="0" t="n">
-        <f aca="false">1075-((B208+80)*1075/180)</f>
-        <v>306.574072083333</v>
+        <f aca="false">735*((90-B208)/180)</f>
+        <v>168.777776416667</v>
       </c>
       <c r="G208" s="0" t="n">
-        <f aca="false">(C208+170)*2000/360</f>
-        <v>1052.77777777778</v>
+        <f aca="false">1470*(C208+180)/360</f>
+        <v>814.625</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,12 +6547,12 @@
         <v>1.97778220552085</v>
       </c>
       <c r="F209" s="0" t="n">
-        <f aca="false">1075-((B209+80)*1075/180)</f>
-        <v>321.006944444444</v>
+        <f aca="false">735*((90-B209)/180)</f>
+        <v>178.645833333333</v>
       </c>
       <c r="G209" s="0" t="n">
-        <f aca="false">(C209+170)*2000/360</f>
-        <v>1028.70370555556</v>
+        <f aca="false">1470*(C209+180)/360</f>
+        <v>796.930556916667</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,12 +6574,12 @@
         <v>1.99874838021084</v>
       </c>
       <c r="F210" s="0" t="n">
-        <f aca="false">1075-((B210+80)*1075/180)</f>
-        <v>645</v>
+        <f aca="false">735*((90-B210)/180)</f>
+        <v>400.166666666667</v>
       </c>
       <c r="G210" s="0" t="n">
-        <f aca="false">(C210+170)*2000/360</f>
-        <v>1827.77777777778</v>
+        <f aca="false">1470*(C210+180)/360</f>
+        <v>1384.25</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,12 +6601,12 @@
         <v>1.99697340045582</v>
       </c>
       <c r="F211" s="0" t="n">
-        <f aca="false">1075-((B211+80)*1075/180)</f>
-        <v>561.388888888889</v>
+        <f aca="false">735*((90-B211)/180)</f>
+        <v>343</v>
       </c>
       <c r="G211" s="0" t="n">
-        <f aca="false">(C211+170)*2000/360</f>
-        <v>1211.11111111111</v>
+        <f aca="false">1470*(C211+180)/360</f>
+        <v>931</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,12 +6628,12 @@
         <v>1.97377330135855</v>
       </c>
       <c r="F212" s="0" t="n">
-        <f aca="false">1075-((B212+80)*1075/180)</f>
-        <v>776.388888888889</v>
+        <f aca="false">735*((90-B212)/180)</f>
+        <v>490</v>
       </c>
       <c r="G212" s="0" t="n">
-        <f aca="false">(C212+170)*2000/360</f>
-        <v>1088.88888888889</v>
+        <f aca="false">1470*(C212+180)/360</f>
+        <v>841.166666666667</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,12 +6655,12 @@
         <v>1.86163105644051</v>
       </c>
       <c r="F213" s="0" t="n">
-        <f aca="false">1075-((B213+80)*1075/180)</f>
-        <v>931.666666666667</v>
+        <f aca="false">735*((90-B213)/180)</f>
+        <v>596.166666666667</v>
       </c>
       <c r="G213" s="0" t="n">
-        <f aca="false">(C213+170)*2000/360</f>
-        <v>761.111111111111</v>
+        <f aca="false">1470*(C213+180)/360</f>
+        <v>600.25</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,12 +6682,12 @@
         <v>1.87160702347226</v>
       </c>
       <c r="F214" s="0" t="n">
-        <f aca="false">1075-((B214+80)*1075/180)</f>
-        <v>376.25</v>
+        <f aca="false">735*((90-B214)/180)</f>
+        <v>216.416666666667</v>
       </c>
       <c r="G214" s="0" t="n">
-        <f aca="false">(C214+170)*2000/360</f>
-        <v>1652.77777777778</v>
+        <f aca="false">1470*(C214+180)/360</f>
+        <v>1255.625</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,12 +6709,12 @@
         <v>1.99756405025982</v>
       </c>
       <c r="F215" s="0" t="n">
-        <f aca="false">1075-((B215+80)*1075/180)</f>
-        <v>549.444444444444</v>
+        <f aca="false">735*((90-B215)/180)</f>
+        <v>334.833333333333</v>
       </c>
       <c r="G215" s="0" t="n">
-        <f aca="false">(C215+170)*2000/360</f>
-        <v>1111.11111111111</v>
+        <f aca="false">1470*(C215+180)/360</f>
+        <v>857.5</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,12 +6736,12 @@
         <v>1.99881442802178</v>
       </c>
       <c r="F216" s="0" t="n">
-        <f aca="false">1075-((B216+80)*1075/180)</f>
-        <v>358.333333333333</v>
+        <f aca="false">735*((90-B216)/180)</f>
+        <v>204.166666666667</v>
       </c>
       <c r="G216" s="0" t="n">
-        <f aca="false">(C216+170)*2000/360</f>
-        <v>922.222222222222</v>
+        <f aca="false">1470*(C216+180)/360</f>
+        <v>718.666666666667</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,12 +6763,12 @@
         <v>1.99272833889896</v>
       </c>
       <c r="F217" s="0" t="n">
-        <f aca="false">1075-((B217+80)*1075/180)</f>
-        <v>555.416666666667</v>
+        <f aca="false">735*((90-B217)/180)</f>
+        <v>338.916666666667</v>
       </c>
       <c r="G217" s="0" t="n">
-        <f aca="false">(C217+170)*2000/360</f>
-        <v>1394.44444444444</v>
+        <f aca="false">1470*(C217+180)/360</f>
+        <v>1065.75</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,12 +6790,12 @@
         <v>1.99026806874157</v>
       </c>
       <c r="F218" s="0" t="n">
-        <f aca="false">1075-((B218+80)*1075/180)</f>
-        <v>501.666666666667</v>
+        <f aca="false">735*((90-B218)/180)</f>
+        <v>302.166666666667</v>
       </c>
       <c r="G218" s="0" t="n">
-        <f aca="false">(C218+170)*2000/360</f>
-        <v>1111.11111111111</v>
+        <f aca="false">1470*(C218+180)/360</f>
+        <v>857.5</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,12 +6817,12 @@
         <v>1.99832555105048</v>
       </c>
       <c r="F219" s="0" t="n">
-        <f aca="false">1075-((B219+80)*1075/180)</f>
-        <v>573.333333333333</v>
+        <f aca="false">735*((90-B219)/180)</f>
+        <v>351.166666666667</v>
       </c>
       <c r="G219" s="0" t="n">
-        <f aca="false">(C219+170)*2000/360</f>
-        <v>633.333333333333</v>
+        <f aca="false">1470*(C219+180)/360</f>
+        <v>506.333333333333</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,12 +6844,12 @@
         <v>1.89354720883639</v>
       </c>
       <c r="F220" s="0" t="n">
-        <f aca="false">1075-((B220+80)*1075/180)</f>
-        <v>131.388888888889</v>
+        <f aca="false">735*((90-B220)/180)</f>
+        <v>49</v>
       </c>
       <c r="G220" s="0" t="n">
-        <f aca="false">(C220+170)*2000/360</f>
-        <v>1055.55555555556</v>
+        <f aca="false">1470*(C220+180)/360</f>
+        <v>816.666666666667</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,12 +6871,12 @@
         <v>1.97094157467218</v>
       </c>
       <c r="F221" s="0" t="n">
-        <f aca="false">1075-((B221+80)*1075/180)</f>
-        <v>755.486111111111</v>
+        <f aca="false">735*((90-B221)/180)</f>
+        <v>475.708333333333</v>
       </c>
       <c r="G221" s="0" t="n">
-        <f aca="false">(C221+170)*2000/360</f>
-        <v>1119.44444444444</v>
+        <f aca="false">1470*(C221+180)/360</f>
+        <v>863.625</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6898,12 +6898,12 @@
         <v>1.96103632346519</v>
       </c>
       <c r="F222" s="0" t="n">
-        <f aca="false">1075-((B222+80)*1075/180)</f>
-        <v>226.944444444444</v>
+        <f aca="false">735*((90-B222)/180)</f>
+        <v>114.333333333333</v>
       </c>
       <c r="G222" s="0" t="n">
-        <f aca="false">(C222+170)*2000/360</f>
-        <v>1027.77777777778</v>
+        <f aca="false">1470*(C222+180)/360</f>
+        <v>796.25</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,12 +6925,12 @@
         <v>1.99349032488924</v>
       </c>
       <c r="F223" s="0" t="n">
-        <f aca="false">1075-((B223+80)*1075/180)</f>
-        <v>316.527777777778</v>
+        <f aca="false">735*((90-B223)/180)</f>
+        <v>175.583333333333</v>
       </c>
       <c r="G223" s="0" t="n">
-        <f aca="false">(C223+170)*2000/360</f>
-        <v>988.888888888889</v>
+        <f aca="false">1470*(C223+180)/360</f>
+        <v>767.666666666667</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,12 +6952,12 @@
         <v>1.93010923013555</v>
       </c>
       <c r="F224" s="0" t="n">
-        <f aca="false">1075-((B224+80)*1075/180)</f>
-        <v>388.194444444444</v>
+        <f aca="false">735*((90-B224)/180)</f>
+        <v>224.583333333333</v>
       </c>
       <c r="G224" s="0" t="n">
-        <f aca="false">(C224+170)*2000/360</f>
-        <v>1155.55555555556</v>
+        <f aca="false">1470*(C224+180)/360</f>
+        <v>890.166666666667</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,12 +6979,12 @@
         <v>1.93623127290103</v>
       </c>
       <c r="F225" s="0" t="n">
-        <f aca="false">1075-((B225+80)*1075/180)</f>
-        <v>453.888888888889</v>
+        <f aca="false">735*((90-B225)/180)</f>
+        <v>269.5</v>
       </c>
       <c r="G225" s="0" t="n">
-        <f aca="false">(C225+170)*2000/360</f>
-        <v>1616.66666666667</v>
+        <f aca="false">1470*(C225+180)/360</f>
+        <v>1229.08333333333</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,12 +7006,12 @@
         <v>1.79994421439705</v>
       </c>
       <c r="F226" s="0" t="n">
-        <f aca="false">1075-((B226+80)*1075/180)</f>
-        <v>364.305555555556</v>
+        <f aca="false">735*((90-B226)/180)</f>
+        <v>208.25</v>
       </c>
       <c r="G226" s="0" t="n">
-        <f aca="false">(C226+170)*2000/360</f>
-        <v>1338.88888888889</v>
+        <f aca="false">1470*(C226+180)/360</f>
+        <v>1024.91666666667</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,12 +7033,12 @@
         <v>1.99819665313488</v>
       </c>
       <c r="F227" s="0" t="n">
-        <f aca="false">1075-((B227+80)*1075/180)</f>
-        <v>633.055555555556</v>
+        <f aca="false">735*((90-B227)/180)</f>
+        <v>392</v>
       </c>
       <c r="G227" s="0" t="n">
-        <f aca="false">(C227+170)*2000/360</f>
-        <v>1138.88888888889</v>
+        <f aca="false">1470*(C227+180)/360</f>
+        <v>877.916666666667</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,12 +7060,12 @@
         <v>1.96694758996827</v>
       </c>
       <c r="F228" s="0" t="n">
-        <f aca="false">1075-((B228+80)*1075/180)</f>
-        <v>507.638888888889</v>
+        <f aca="false">735*((90-B228)/180)</f>
+        <v>306.25</v>
       </c>
       <c r="G228" s="0" t="n">
-        <f aca="false">(C228+170)*2000/360</f>
-        <v>1500</v>
+        <f aca="false">1470*(C228+180)/360</f>
+        <v>1143.33333333333</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,12 +7087,12 @@
         <v>1.99218257866116</v>
       </c>
       <c r="F229" s="0" t="n">
-        <f aca="false">1075-((B229+80)*1075/180)</f>
-        <v>649.976849861111</v>
+        <f aca="false">735*((90-B229)/180)</f>
+        <v>403.569443083333</v>
       </c>
       <c r="G229" s="0" t="n">
-        <f aca="false">(C229+170)*2000/360</f>
-        <v>1643.05555555556</v>
+        <f aca="false">1470*(C229+180)/360</f>
+        <v>1248.47916666667</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,12 +7114,12 @@
         <v>1.99999595896176</v>
       </c>
       <c r="F230" s="0" t="n">
-        <f aca="false">1075-((B230+80)*1075/180)</f>
-        <v>549.444444444444</v>
+        <f aca="false">735*((90-B230)/180)</f>
+        <v>334.833333333333</v>
       </c>
       <c r="G230" s="0" t="n">
-        <f aca="false">(C230+170)*2000/360</f>
-        <v>950.925927777778</v>
+        <f aca="false">1470*(C230+180)/360</f>
+        <v>739.76389025</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,12 +7141,12 @@
         <v>1.99974599017549</v>
       </c>
       <c r="F231" s="0" t="n">
-        <f aca="false">1075-((B231+80)*1075/180)</f>
-        <v>650.972222222222</v>
+        <f aca="false">735*((90-B231)/180)</f>
+        <v>404.25</v>
       </c>
       <c r="G231" s="0" t="n">
-        <f aca="false">(C231+170)*2000/360</f>
-        <v>-9.72222222222222</v>
+        <f aca="false">1470*(C231+180)/360</f>
+        <v>33.6875</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,12 +7168,12 @@
         <v>1.99953725338566</v>
       </c>
       <c r="F232" s="0" t="n">
-        <f aca="false">1075-((B232+80)*1075/180)</f>
-        <v>716.666666666667</v>
+        <f aca="false">735*((90-B232)/180)</f>
+        <v>449.166666666667</v>
       </c>
       <c r="G232" s="0" t="n">
-        <f aca="false">(C232+170)*2000/360</f>
-        <v>-27.7777777777778</v>
+        <f aca="false">1470*(C232+180)/360</f>
+        <v>20.4166666666667</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,12 +7195,12 @@
         <v>1.98593538135289</v>
       </c>
       <c r="F233" s="0" t="n">
-        <f aca="false">1075-((B233+80)*1075/180)</f>
-        <v>531.527777777778</v>
+        <f aca="false">735*((90-B233)/180)</f>
+        <v>322.583333333333</v>
       </c>
       <c r="G233" s="0" t="n">
-        <f aca="false">(C233+170)*2000/360</f>
-        <v>605.555555555556</v>
+        <f aca="false">1470*(C233+180)/360</f>
+        <v>485.916666666667</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,12 +7222,12 @@
         <v>1.97474605320501</v>
       </c>
       <c r="F234" s="0" t="n">
-        <f aca="false">1075-((B234+80)*1075/180)</f>
-        <v>691.981483472222</v>
+        <f aca="false">735*((90-B234)/180)</f>
+        <v>432.28889025</v>
       </c>
       <c r="G234" s="0" t="n">
-        <f aca="false">(C234+170)*2000/360</f>
-        <v>1246.75926111111</v>
+        <f aca="false">1470*(C234+180)/360</f>
+        <v>957.20139025</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,12 +7249,12 @@
         <v>1.99569438137619</v>
       </c>
       <c r="F235" s="0" t="n">
-        <f aca="false">1075-((B235+80)*1075/180)</f>
-        <v>394.166666666667</v>
+        <f aca="false">735*((90-B235)/180)</f>
+        <v>228.666666666667</v>
       </c>
       <c r="G235" s="0" t="n">
-        <f aca="false">(C235+170)*2000/360</f>
-        <v>994.444444444444</v>
+        <f aca="false">1470*(C235+180)/360</f>
+        <v>771.75</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,12 +7276,12 @@
         <v>1.92485229251548</v>
       </c>
       <c r="F236" s="0" t="n">
-        <f aca="false">1075-((B236+80)*1075/180)</f>
-        <v>363.953122777778</v>
+        <f aca="false">735*((90-B236)/180)</f>
+        <v>208.009034333333</v>
       </c>
       <c r="G236" s="0" t="n">
-        <f aca="false">(C236+170)*2000/360</f>
-        <v>1138.39747777778</v>
+        <f aca="false">1470*(C236+180)/360</f>
+        <v>877.5554795</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,12 +7303,12 @@
         <v>1.82272965712005</v>
       </c>
       <c r="F237" s="0" t="n">
-        <f aca="false">1075-((B237+80)*1075/180)</f>
-        <v>358.333333333333</v>
+        <f aca="false">735*((90-B237)/180)</f>
+        <v>204.166666666667</v>
       </c>
       <c r="G237" s="0" t="n">
-        <f aca="false">(C237+170)*2000/360</f>
-        <v>1277.77777777778</v>
+        <f aca="false">1470*(C237+180)/360</f>
+        <v>980</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7330,12 +7330,12 @@
         <v>1.93593517595981</v>
       </c>
       <c r="F238" s="0" t="n">
-        <f aca="false">1075-((B238+80)*1075/180)</f>
-        <v>467.425927916667</v>
+        <f aca="false">735*((90-B238)/180)</f>
+        <v>278.755556916667</v>
       </c>
       <c r="G238" s="0" t="n">
-        <f aca="false">(C238+170)*2000/360</f>
-        <v>546.759261111111</v>
+        <f aca="false">1470*(C238+180)/360</f>
+        <v>442.70139025</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,12 +7357,12 @@
         <v>1.9999881274999</v>
       </c>
       <c r="F239" s="0" t="n">
-        <f aca="false">1075-((B239+80)*1075/180)</f>
-        <v>645</v>
+        <f aca="false">735*((90-B239)/180)</f>
+        <v>400.166666666667</v>
       </c>
       <c r="G239" s="0" t="n">
-        <f aca="false">(C239+170)*2000/360</f>
-        <v>1933.33333333333</v>
+        <f aca="false">1470*(C239+180)/360</f>
+        <v>1461.83333333333</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,12 +7384,12 @@
         <v>1.99981928709008</v>
       </c>
       <c r="F240" s="0" t="n">
-        <f aca="false">1075-((B240+80)*1075/180)</f>
-        <v>585.277777777778</v>
+        <f aca="false">735*((90-B240)/180)</f>
+        <v>359.333333333333</v>
       </c>
       <c r="G240" s="0" t="n">
-        <f aca="false">(C240+170)*2000/360</f>
-        <v>1127.77777777778</v>
+        <f aca="false">1470*(C240+180)/360</f>
+        <v>869.75</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,12 +7411,12 @@
         <v>1.89905368687565</v>
       </c>
       <c r="F241" s="0" t="n">
-        <f aca="false">1075-((B241+80)*1075/180)</f>
-        <v>304.583333333333</v>
+        <f aca="false">735*((90-B241)/180)</f>
+        <v>167.416666666667</v>
       </c>
       <c r="G241" s="0" t="n">
-        <f aca="false">(C241+170)*2000/360</f>
-        <v>1122.22222222222</v>
+        <f aca="false">1470*(C241+180)/360</f>
+        <v>865.666666666667</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,12 +7438,12 @@
         <v>1.94312749786843</v>
       </c>
       <c r="F242" s="0" t="n">
-        <f aca="false">1075-((B242+80)*1075/180)</f>
-        <v>453.888888888889</v>
+        <f aca="false">735*((90-B242)/180)</f>
+        <v>269.5</v>
       </c>
       <c r="G242" s="0" t="n">
-        <f aca="false">(C242+170)*2000/360</f>
-        <v>1244.44444444444</v>
+        <f aca="false">1470*(C242+180)/360</f>
+        <v>955.5</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,12 +7465,12 @@
         <v>1.99783964629259</v>
       </c>
       <c r="F243" s="0" t="n">
-        <f aca="false">1075-((B243+80)*1075/180)</f>
-        <v>274.722222222222</v>
+        <f aca="false">735*((90-B243)/180)</f>
+        <v>147</v>
       </c>
       <c r="G243" s="0" t="n">
-        <f aca="false">(C243+170)*2000/360</f>
-        <v>922.222222222222</v>
+        <f aca="false">1470*(C243+180)/360</f>
+        <v>718.666666666667</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7492,12 +7492,12 @@
         <v>1.77292750930505</v>
       </c>
       <c r="F244" s="0" t="n">
-        <f aca="false">1075-((B244+80)*1075/180)</f>
-        <v>359.359510416667</v>
+        <f aca="false">735*((90-B244)/180)</f>
+        <v>204.868285416667</v>
       </c>
       <c r="G244" s="0" t="n">
-        <f aca="false">(C244+170)*2000/360</f>
-        <v>396.780555555556</v>
+        <f aca="false">1470*(C244+180)/360</f>
+        <v>332.467041666667</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,12 +7519,12 @@
         <v>1.88815056652205</v>
       </c>
       <c r="F245" s="0" t="n">
-        <f aca="false">1075-((B245+80)*1075/180)</f>
-        <v>794.305555555556</v>
+        <f aca="false">735*((90-B245)/180)</f>
+        <v>502.25</v>
       </c>
       <c r="G245" s="0" t="n">
-        <f aca="false">(C245+170)*2000/360</f>
-        <v>633.333333333333</v>
+        <f aca="false">1470*(C245+180)/360</f>
+        <v>506.333333333333</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,12 +7546,12 @@
         <v>1.99950090619189</v>
       </c>
       <c r="F246" s="0" t="n">
-        <f aca="false">1075-((B246+80)*1075/180)</f>
-        <v>562.098919819445</v>
+        <f aca="false">735*((90-B246)/180)</f>
+        <v>343.485463008333</v>
       </c>
       <c r="G246" s="0" t="n">
-        <f aca="false">(C246+170)*2000/360</f>
-        <v>44.0416666666667</v>
+        <f aca="false">1470*(C246+180)/360</f>
+        <v>73.2039583333334</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,12 +7573,12 @@
         <v>1.95818803584904</v>
       </c>
       <c r="F247" s="0" t="n">
-        <f aca="false">1075-((B247+80)*1075/180)</f>
-        <v>487.642162319444</v>
+        <f aca="false">735*((90-B247)/180)</f>
+        <v>292.577819508333</v>
       </c>
       <c r="G247" s="0" t="n">
-        <f aca="false">(C247+170)*2000/360</f>
-        <v>583.425107222222</v>
+        <f aca="false">1470*(C247+180)/360</f>
+        <v>469.650787141667</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,12 +7600,12 @@
         <v>1.7940093833223</v>
       </c>
       <c r="F248" s="0" t="n">
-        <f aca="false">1075-((B248+80)*1075/180)</f>
-        <v>348.135513055556</v>
+        <f aca="false">735*((90-B248)/180)</f>
+        <v>197.1942035</v>
       </c>
       <c r="G248" s="0" t="n">
-        <f aca="false">(C248+170)*2000/360</f>
-        <v>1299.16172222222</v>
+        <f aca="false">1470*(C248+180)/360</f>
+        <v>995.717199166667</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7627,12 +7627,12 @@
         <v>1.99802758656878</v>
       </c>
       <c r="F249" s="0" t="n">
-        <f aca="false">1075-((B249+80)*1075/180)</f>
-        <v>692.777777777778</v>
+        <f aca="false">735*((90-B249)/180)</f>
+        <v>432.833333333333</v>
       </c>
       <c r="G249" s="0" t="n">
-        <f aca="false">(C249+170)*2000/360</f>
-        <v>1872.22222222222</v>
+        <f aca="false">1470*(C249+180)/360</f>
+        <v>1416.91666666667</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,12 +7654,12 @@
         <v>1.98759775239685</v>
       </c>
       <c r="F250" s="0" t="n">
-        <f aca="false">1075-((B250+80)*1075/180)</f>
-        <v>346.986111111111</v>
+        <f aca="false">735*((90-B250)/180)</f>
+        <v>196.408333333333</v>
       </c>
       <c r="G250" s="0" t="n">
-        <f aca="false">(C250+170)*2000/360</f>
-        <v>1013.61111111111</v>
+        <f aca="false">1470*(C250+180)/360</f>
+        <v>785.8375</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,12 +7681,12 @@
         <v>1.99187588396629</v>
       </c>
       <c r="F251" s="0" t="n">
-        <f aca="false">1075-((B251+80)*1075/180)</f>
-        <v>549.444444444444</v>
+        <f aca="false">735*((90-B251)/180)</f>
+        <v>334.833333333333</v>
       </c>
       <c r="G251" s="0" t="n">
-        <f aca="false">(C251+170)*2000/360</f>
-        <v>577.777777777778</v>
+        <f aca="false">1470*(C251+180)/360</f>
+        <v>465.5</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,12 +7708,12 @@
         <v>1.9641422886807</v>
       </c>
       <c r="F252" s="0" t="n">
-        <f aca="false">1075-((B252+80)*1075/180)</f>
-        <v>500.671294305556</v>
+        <f aca="false">735*((90-B252)/180)</f>
+        <v>301.48610975</v>
       </c>
       <c r="G252" s="0" t="n">
-        <f aca="false">(C252+170)*2000/360</f>
-        <v>1543.51851666667</v>
+        <f aca="false">1470*(C252+180)/360</f>
+        <v>1175.31944308333</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,12 +7735,12 @@
         <v>1.99988166736985</v>
       </c>
       <c r="F253" s="0" t="n">
-        <f aca="false">1075-((B253+80)*1075/180)</f>
-        <v>676.652777777778</v>
+        <f aca="false">735*((90-B253)/180)</f>
+        <v>421.808333333333</v>
       </c>
       <c r="G253" s="0" t="n">
-        <f aca="false">(C253+170)*2000/360</f>
-        <v>-34.4444444444444</v>
+        <f aca="false">1470*(C253+180)/360</f>
+        <v>15.5166666666667</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,12 +7762,12 @@
         <v>1.94955547127155</v>
       </c>
       <c r="F254" s="0" t="n">
-        <f aca="false">1075-((B254+80)*1075/180)</f>
-        <v>408.101849861111</v>
+        <f aca="false">735*((90-B254)/180)</f>
+        <v>238.194443083333</v>
       </c>
       <c r="G254" s="0" t="n">
-        <f aca="false">(C254+170)*2000/360</f>
-        <v>1140.27777777778</v>
+        <f aca="false">1470*(C254+180)/360</f>
+        <v>878.9375</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,12 +7789,12 @@
         <v>1.994816778927</v>
       </c>
       <c r="F255" s="0" t="n">
-        <f aca="false">1075-((B255+80)*1075/180)</f>
-        <v>447.916666666667</v>
+        <f aca="false">735*((90-B255)/180)</f>
+        <v>265.416666666667</v>
       </c>
       <c r="G255" s="0" t="n">
-        <f aca="false">(C255+170)*2000/360</f>
-        <v>869.444444444444</v>
+        <f aca="false">1470*(C255+180)/360</f>
+        <v>679.875</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,12 +7816,12 @@
         <v>1.98017516001754</v>
       </c>
       <c r="F256" s="0" t="n">
-        <f aca="false">1075-((B256+80)*1075/180)</f>
-        <v>504.652777777778</v>
+        <f aca="false">735*((90-B256)/180)</f>
+        <v>304.208333333333</v>
       </c>
       <c r="G256" s="0" t="n">
-        <f aca="false">(C256+170)*2000/360</f>
-        <v>1208.33333333333</v>
+        <f aca="false">1470*(C256+180)/360</f>
+        <v>928.958333333333</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,12 +7843,12 @@
         <v>1.99144486137381</v>
       </c>
       <c r="F257" s="0" t="n">
-        <f aca="false">1075-((B257+80)*1075/180)</f>
-        <v>686.805555555556</v>
+        <f aca="false">735*((90-B257)/180)</f>
+        <v>428.75</v>
       </c>
       <c r="G257" s="0" t="n">
-        <f aca="false">(C257+170)*2000/360</f>
-        <v>1111.11111111111</v>
+        <f aca="false">1470*(C257+180)/360</f>
+        <v>857.5</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7870,12 +7870,12 @@
         <v>1.98710448246553</v>
       </c>
       <c r="F258" s="0" t="n">
-        <f aca="false">1075-((B258+80)*1075/180)</f>
-        <v>710.694444444444</v>
+        <f aca="false">735*((90-B258)/180)</f>
+        <v>445.083333333333</v>
       </c>
       <c r="G258" s="0" t="n">
-        <f aca="false">(C258+170)*2000/360</f>
-        <v>1105.55555555556</v>
+        <f aca="false">1470*(C258+180)/360</f>
+        <v>853.416666666667</v>
       </c>
     </row>
   </sheetData>
